--- a/data/aad/Gruppen.xlsx
+++ b/data/aad/Gruppen.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="171" documentId="13_ncr:1_{D16535C0-5386-409B-B31B-BE7B156E7CE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4631039B-7194-490B-8D96-5CC11F0C1FFD}"/>
+  <xr:revisionPtr revIDLastSave="172" documentId="13_ncr:1_{D16535C0-5386-409B-B31B-BE7B156E7CE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{821393D9-0589-4F84-B1F3-6867FD07D47A}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11736" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -582,7 +582,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -741,7 +743,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
         <v>37</v>
@@ -796,7 +798,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
         <v>37</v>
@@ -825,7 +827,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
         <v>37</v>
@@ -854,7 +856,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
@@ -883,7 +885,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
         <v>37</v>
@@ -912,7 +914,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
@@ -941,7 +943,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
         <v>37</v>
@@ -970,7 +972,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
         <v>37</v>
@@ -999,7 +1001,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
         <v>37</v>
@@ -1241,21 +1243,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100DBA446ED503E744880217BF491FB0C7B" ma:contentTypeVersion="10" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="27f6ebb53777ae95e550442d3878210b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="353a1f37-f986-455b-adc7-292fbd315350" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="71df197f0939a0ed9a29c200b6a3be36" ns2:_="">
     <xsd:import namespace="353a1f37-f986-455b-adc7-292fbd315350"/>
@@ -1439,10 +1426,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB80E815-258B-4085-B06C-0327483055A8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2534DDDA-BE8A-43DA-A0C1-B6D96DC767B2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="353a1f37-f986-455b-adc7-292fbd315350"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1464,19 +1476,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2534DDDA-BE8A-43DA-A0C1-B6D96DC767B2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB80E815-258B-4085-B06C-0327483055A8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="353a1f37-f986-455b-adc7-292fbd315350"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/aad/Gruppen.xlsx
+++ b/data/aad/Gruppen.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="172" documentId="13_ncr:1_{D16535C0-5386-409B-B31B-BE7B156E7CE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{821393D9-0589-4F84-B1F3-6867FD07D47A}"/>
+  <xr:revisionPtr revIDLastSave="173" documentId="13_ncr:1_{D16535C0-5386-409B-B31B-BE7B156E7CE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{37067CFD-45A3-4238-9D55-CA40C4AD59BB}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11736" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2226" yWindow="420" windowWidth="15654" windowHeight="10902" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gruppen" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t>Type</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Members of this group can manage O365 groups</t>
   </si>
   <si>
-    <t>Used to configure licenses</t>
-  </si>
-  <si>
     <t>Holds all internal users</t>
   </si>
   <si>
@@ -72,63 +69,12 @@
     <t>(user.userType -eq "Guest")</t>
   </si>
   <si>
-    <t>Members of this group can register devices</t>
-  </si>
-  <si>
-    <t>Members of this group get specified apps asigned</t>
-  </si>
-  <si>
-    <t>Members of this group get specified apps asigned in WVD test</t>
-  </si>
-  <si>
-    <t>Holds all devices with a standard configuration</t>
-  </si>
-  <si>
-    <t>(device.deviceCategory -eq "Standard")</t>
-  </si>
-  <si>
     <t>ALYASG-ADM-MFADISABLED</t>
   </si>
   <si>
     <t>ALYASG-ADM-O365GROUPMANAGERS</t>
   </si>
   <si>
-    <t>ALYASG-ADM-LICMS365E3FULL</t>
-  </si>
-  <si>
-    <t>ALYASG-ADM-LICPBIFREE</t>
-  </si>
-  <si>
-    <t>ALYASG-ADM-DEVICEADMINS</t>
-  </si>
-  <si>
-    <t>ALYASG-ADM-DEVICE-STANDARD</t>
-  </si>
-  <si>
-    <t>ALYASG-ADM-APPTDSKTP</t>
-  </si>
-  <si>
-    <t>ALYASG-ADM-APPTSTD</t>
-  </si>
-  <si>
-    <t>ALYASG-ADM-APPTVISIO</t>
-  </si>
-  <si>
-    <t>ALYASG-ADM-APPTPRJCT</t>
-  </si>
-  <si>
-    <t>ALYASG-ADM-APPDSKTP</t>
-  </si>
-  <si>
-    <t>ALYASG-ADM-APPSTD</t>
-  </si>
-  <si>
-    <t>ALYASG-ADM-APPVISIO</t>
-  </si>
-  <si>
-    <t>ALYASG-ADM-APPPRJCT</t>
-  </si>
-  <si>
     <t>ALYAOG-ADM-AlleExternen</t>
   </si>
   <si>
@@ -150,52 +96,7 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Licenses</t>
-  </si>
-  <si>
-    <t>SPE_E3</t>
-  </si>
-  <si>
-    <t>POWER_BI_STANDARD</t>
-  </si>
-  <si>
-    <t>ALYASG-ADM-LICEXCHKIOSK</t>
-  </si>
-  <si>
-    <t>EXCHANGEDESKLESS</t>
-  </si>
-  <si>
-    <t>ALYASG-ADM-LICFLOWFREE</t>
-  </si>
-  <si>
-    <t>SMB_APPS</t>
-  </si>
-  <si>
-    <t>FLOW_FREE</t>
-  </si>
-  <si>
-    <t>SHAREPOINTSTANDARD</t>
-  </si>
-  <si>
-    <t>ALYASG-ADM-LICSMBAPPS</t>
-  </si>
-  <si>
-    <t>ALYASG-ADM-LICSPP1</t>
-  </si>
-  <si>
-    <t>ALYASG-ADM-LICMS365BUSBASIC</t>
-  </si>
-  <si>
-    <t>O365_BUSINESS_ESSENTIALS</t>
-  </si>
-  <si>
-    <t>PHONESYSTEM_VIRTUALUSER</t>
-  </si>
-  <si>
-    <t>ALYASG-ADM-LICVIRTPHONE</t>
   </si>
 </sst>
 </file>
@@ -580,11 +481,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -601,7 +500,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -625,7 +524,7 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>7</v>
@@ -633,22 +532,22 @@
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
@@ -659,22 +558,22 @@
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
         <v>9</v>
@@ -685,28 +584,28 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
         <v>9</v>
       </c>
       <c r="H4" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="J4" t="b">
         <v>0</v>
@@ -714,525 +613,30 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
         <v>9</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" t="s">
-        <v>43</v>
-      </c>
-      <c r="J8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" t="s">
-        <v>54</v>
-      </c>
-      <c r="J11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" t="s">
-        <v>9</v>
-      </c>
-      <c r="I12" t="s">
-        <v>49</v>
-      </c>
-      <c r="J12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I13" t="s">
-        <v>48</v>
-      </c>
-      <c r="J13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" t="s">
-        <v>9</v>
-      </c>
-      <c r="I14" t="s">
-        <v>50</v>
-      </c>
-      <c r="J14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" t="s">
-        <v>9</v>
-      </c>
-      <c r="I15" t="s">
-        <v>55</v>
-      </c>
-      <c r="J15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" t="s">
-        <v>9</v>
-      </c>
-      <c r="J16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" t="s">
-        <v>9</v>
-      </c>
-      <c r="J17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" t="s">
-        <v>9</v>
-      </c>
-      <c r="J18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" t="s">
-        <v>9</v>
-      </c>
-      <c r="J20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G21" t="s">
-        <v>9</v>
-      </c>
-      <c r="J21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" t="s">
-        <v>9</v>
-      </c>
-      <c r="J22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" t="s">
-        <v>33</v>
-      </c>
-      <c r="G23" t="s">
-        <v>9</v>
-      </c>
-      <c r="J23" t="b">
         <v>0</v>
       </c>
     </row>

--- a/data/aad/Gruppen.xlsx
+++ b/data/aad/Gruppen.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="173" documentId="13_ncr:1_{D16535C0-5386-409B-B31B-BE7B156E7CE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{37067CFD-45A3-4238-9D55-CA40C4AD59BB}"/>
+  <xr:revisionPtr revIDLastSave="181" documentId="13_ncr:1_{D16535C0-5386-409B-B31B-BE7B156E7CE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E029D66D-8D97-4F33-833B-5BA3D2A81C71}"/>
   <bookViews>
-    <workbookView xWindow="2226" yWindow="420" windowWidth="15654" windowHeight="10902" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="468" yWindow="528" windowWidth="15654" windowHeight="10902" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gruppen" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="75">
   <si>
     <t>Type</t>
   </si>
@@ -48,9 +48,6 @@
     <t>DanymicRule</t>
   </si>
   <si>
-    <t>WelcomeMessageEnabled</t>
-  </si>
-  <si>
     <t>MFA is disabled for members in this group</t>
   </si>
   <si>
@@ -69,18 +66,6 @@
     <t>(user.userType -eq "Guest")</t>
   </si>
   <si>
-    <t>ALYASG-ADM-MFADISABLED</t>
-  </si>
-  <si>
-    <t>ALYASG-ADM-O365GROUPMANAGERS</t>
-  </si>
-  <si>
-    <t>ALYAOG-ADM-AlleExternen</t>
-  </si>
-  <si>
-    <t>ALYAOG-ADM-AlleInternen</t>
-  </si>
-  <si>
     <t>(user.userType -eq "User")</t>
   </si>
   <si>
@@ -97,6 +82,174 @@
   </si>
   <si>
     <t>Licenses</t>
+  </si>
+  <si>
+    <t>O365GrpHiddenFromAddressListsEnabled</t>
+  </si>
+  <si>
+    <t>O365GrpCalendarMemberReadOnly</t>
+  </si>
+  <si>
+    <t>O365GrpRejectMessagesFromSendersOrMembers</t>
+  </si>
+  <si>
+    <t>O365GrpUnifiedGroupWelcomeMessageEnabled</t>
+  </si>
+  <si>
+    <t>O365GrpSubscriptionEnabled</t>
+  </si>
+  <si>
+    <t>O365GrpModerationEnabled</t>
+  </si>
+  <si>
+    <t>O365GrpHiddenFromExchangeClientsEnabled</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>MFA is enabled for members in this group</t>
+  </si>
+  <si>
+    <t>Members of this group can register devices</t>
+  </si>
+  <si>
+    <t>Holds all devices with a standard configuration</t>
+  </si>
+  <si>
+    <t>(device.deviceCategory -eq "Standard")</t>
+  </si>
+  <si>
+    <t>Holds all autopilot devices</t>
+  </si>
+  <si>
+    <t>(device.devicePhysicalIDs -any (_ -contains "[ZTDId]"))</t>
+  </si>
+  <si>
+    <t>Holds all standard autopilot devices</t>
+  </si>
+  <si>
+    <t>(device.devicePhysicalIds -any (_ -eq "[OrderID]:Standard"))</t>
+  </si>
+  <si>
+    <t>Used to configure licenses</t>
+  </si>
+  <si>
+    <t>SPE_E3</t>
+  </si>
+  <si>
+    <t>STANDARDPACK</t>
+  </si>
+  <si>
+    <t>EXCHANGEDESKLESS</t>
+  </si>
+  <si>
+    <t>POWER_BI_STANDARD</t>
+  </si>
+  <si>
+    <t>O365_BUSINESS_ESSENTIALS</t>
+  </si>
+  <si>
+    <t>FLOW_FREE</t>
+  </si>
+  <si>
+    <t>SMB_APPS</t>
+  </si>
+  <si>
+    <t>SHAREPOINTSTANDARD</t>
+  </si>
+  <si>
+    <t>MCOCAP</t>
+  </si>
+  <si>
+    <t>PHONESYSTEM_VIRTUALUSER</t>
+  </si>
+  <si>
+    <t>Members of this group get specified apps asigned in WVD test</t>
+  </si>
+  <si>
+    <t>Members of this group get specified apps asigned</t>
+  </si>
+  <si>
+    <t>XXXXSG-ADM-MFADISABLED</t>
+  </si>
+  <si>
+    <t>XXXXSG-ADM-MFAENABLED</t>
+  </si>
+  <si>
+    <t>XXXXSG-ADM-O365GROUPMANAGERS</t>
+  </si>
+  <si>
+    <t>XXXXOG-ADM-AlleInternen</t>
+  </si>
+  <si>
+    <t>XXXXOG-ADM-AlleExternen</t>
+  </si>
+  <si>
+    <t>XXXXSG-ADM-DEVICEADMINS</t>
+  </si>
+  <si>
+    <t>XXXXSG-ADM-DEVICESTANDARD</t>
+  </si>
+  <si>
+    <t>XXXXSG-ADM-DEVICEAUTOPILOT</t>
+  </si>
+  <si>
+    <t>XXXXSG-ADM-DEVICEAUTOPILOTSTANDARD</t>
+  </si>
+  <si>
+    <t>XXXXSG-ADM-LICMS365E3FULL</t>
+  </si>
+  <si>
+    <t>XXXXSG-ADM-LICO365E1FULL</t>
+  </si>
+  <si>
+    <t>XXXXSG-ADM-LICEXCHKIOSK</t>
+  </si>
+  <si>
+    <t>XXXXSG-ADM-LICPBIFREE</t>
+  </si>
+  <si>
+    <t>XXXXSG-ADM-LICMS365BUSBASIC</t>
+  </si>
+  <si>
+    <t>XXXXSG-ADM-LICFLOWFREE</t>
+  </si>
+  <si>
+    <t>XXXXSG-ADM-LICSMBAPPS</t>
+  </si>
+  <si>
+    <t>XXXXSG-ADM-LICSPP1</t>
+  </si>
+  <si>
+    <t>XXXXSG-ADM-LICCOMMPHONE</t>
+  </si>
+  <si>
+    <t>XXXXSG-ADM-LICVIRTPHONE</t>
+  </si>
+  <si>
+    <t>XXXXSG-ADM-APPTDSKTP</t>
+  </si>
+  <si>
+    <t>XXXXSG-ADM-APPTSTD</t>
+  </si>
+  <si>
+    <t>XXXXSG-ADM-APPTVISIO</t>
+  </si>
+  <si>
+    <t>XXXXSG-ADM-APPTPRJCT</t>
+  </si>
+  <si>
+    <t>XXXXSG-ADM-APPDSKTP</t>
+  </si>
+  <si>
+    <t>XXXXSG-ADM-APPSTD</t>
+  </si>
+  <si>
+    <t>XXXXSG-ADM-APPVISIO</t>
+  </si>
+  <si>
+    <t>XXXXSG-ADM-APPPRJCT</t>
   </si>
 </sst>
 </file>
@@ -147,7 +300,50 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -481,7 +677,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -495,12 +691,11 @@
     <col min="7" max="7" width="8.83984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="49.68359375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -524,129 +719,775 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="G2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="F4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H5" t="s">
         <v>13</v>
       </c>
       <c r="J5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" t="b">
         <v>0</v>
       </c>
+      <c r="N5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" t="b">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" t="s">
+        <v>69</v>
+      </c>
+      <c r="G23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" t="s">
+        <v>71</v>
+      </c>
+      <c r="G25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" t="s">
+        <v>72</v>
+      </c>
+      <c r="G26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" t="s">
+        <v>73</v>
+      </c>
+      <c r="G27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" t="s">
+        <v>74</v>
+      </c>
+      <c r="G28" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="J1:P1048576">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>IF(OR($B1="O365Group",$B1="Type"),faslch,TRUE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:P3">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>IF(OR($B3="O365Group",$B3="Type"),faslch,TRUE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9:P10">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>IF(OR($B9="O365Group",$B9="Type"),faslch,TRUE)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100DBA446ED503E744880217BF491FB0C7B" ma:contentTypeVersion="10" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="27f6ebb53777ae95e550442d3878210b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="353a1f37-f986-455b-adc7-292fbd315350" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="71df197f0939a0ed9a29c200b6a3be36" ns2:_="">
     <xsd:import namespace="353a1f37-f986-455b-adc7-292fbd315350"/>
@@ -830,35 +1671,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2534DDDA-BE8A-43DA-A0C1-B6D96DC767B2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB80E815-258B-4085-B06C-0327483055A8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="353a1f37-f986-455b-adc7-292fbd315350"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -880,9 +1696,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB80E815-258B-4085-B06C-0327483055A8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2534DDDA-BE8A-43DA-A0C1-B6D96DC767B2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="353a1f37-f986-455b-adc7-292fbd315350"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/aad/Gruppen.xlsx
+++ b/data/aad/Gruppen.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="181" documentId="13_ncr:1_{D16535C0-5386-409B-B31B-BE7B156E7CE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E029D66D-8D97-4F33-833B-5BA3D2A81C71}"/>
+  <xr:revisionPtr revIDLastSave="184" documentId="13_ncr:1_{D16535C0-5386-409B-B31B-BE7B156E7CE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{75AA26AF-1F6E-4635-9F38-A6C1E5523B8E}"/>
   <bookViews>
-    <workbookView xWindow="468" yWindow="528" windowWidth="15654" windowHeight="10902" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11736" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gruppen" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="102">
   <si>
     <t>Type</t>
   </si>
@@ -135,9 +135,6 @@
     <t>Used to configure licenses</t>
   </si>
   <si>
-    <t>SPE_E3</t>
-  </si>
-  <si>
     <t>STANDARDPACK</t>
   </si>
   <si>
@@ -147,24 +144,9 @@
     <t>POWER_BI_STANDARD</t>
   </si>
   <si>
-    <t>O365_BUSINESS_ESSENTIALS</t>
-  </si>
-  <si>
     <t>FLOW_FREE</t>
   </si>
   <si>
-    <t>SMB_APPS</t>
-  </si>
-  <si>
-    <t>SHAREPOINTSTANDARD</t>
-  </si>
-  <si>
-    <t>MCOCAP</t>
-  </si>
-  <si>
-    <t>PHONESYSTEM_VIRTUALUSER</t>
-  </si>
-  <si>
     <t>Members of this group get specified apps asigned in WVD test</t>
   </si>
   <si>
@@ -198,36 +180,6 @@
     <t>XXXXSG-ADM-DEVICEAUTOPILOTSTANDARD</t>
   </si>
   <si>
-    <t>XXXXSG-ADM-LICMS365E3FULL</t>
-  </si>
-  <si>
-    <t>XXXXSG-ADM-LICO365E1FULL</t>
-  </si>
-  <si>
-    <t>XXXXSG-ADM-LICEXCHKIOSK</t>
-  </si>
-  <si>
-    <t>XXXXSG-ADM-LICPBIFREE</t>
-  </si>
-  <si>
-    <t>XXXXSG-ADM-LICMS365BUSBASIC</t>
-  </si>
-  <si>
-    <t>XXXXSG-ADM-LICFLOWFREE</t>
-  </si>
-  <si>
-    <t>XXXXSG-ADM-LICSMBAPPS</t>
-  </si>
-  <si>
-    <t>XXXXSG-ADM-LICSPP1</t>
-  </si>
-  <si>
-    <t>XXXXSG-ADM-LICCOMMPHONE</t>
-  </si>
-  <si>
-    <t>XXXXSG-ADM-LICVIRTPHONE</t>
-  </si>
-  <si>
     <t>XXXXSG-ADM-APPTDSKTP</t>
   </si>
   <si>
@@ -250,6 +202,135 @@
   </si>
   <si>
     <t>XXXXSG-ADM-APPPRJCT</t>
+  </si>
+  <si>
+    <t>Holds all mac devices</t>
+  </si>
+  <si>
+    <t>(device.deviceOSType -match "MacMDM")</t>
+  </si>
+  <si>
+    <t>Holds all mac company owned devices</t>
+  </si>
+  <si>
+    <t>(device.deviceOSType -match "MacMDM") -and (device.deviceOwnership -eq "Company")</t>
+  </si>
+  <si>
+    <t>Holds all mac personal owned devices</t>
+  </si>
+  <si>
+    <t>(device.deviceOSType -match "MacMDM") -and (device.deviceOwnership -ne "Company")</t>
+  </si>
+  <si>
+    <t>Holds all android devices</t>
+  </si>
+  <si>
+    <t>(device.deviceOSType -match "Android")</t>
+  </si>
+  <si>
+    <t>Holds all android company owned devices</t>
+  </si>
+  <si>
+    <t>(device.deviceOSType -match "Android") -and (device.deviceOwnership -eq "Company")</t>
+  </si>
+  <si>
+    <t>Holds all android personal owned devices</t>
+  </si>
+  <si>
+    <t>(device.deviceOSType -match "Android") -and (device.deviceOwnership -ne "Company")</t>
+  </si>
+  <si>
+    <t>Holds all ios devices</t>
+  </si>
+  <si>
+    <t>(device.deviceOSType -match "iPad" -or device.deviceOSType -match "iPhone")</t>
+  </si>
+  <si>
+    <t>Holds all ios company owned devices</t>
+  </si>
+  <si>
+    <t>(device.deviceOSType -match "iPad" -or device.deviceOSType -match "iPhone") -and (device.deviceOwnership -eq "Company")</t>
+  </si>
+  <si>
+    <t>Holds all ios personal owned devices</t>
+  </si>
+  <si>
+    <t>(device.deviceOSType -match "iPad" -or device.deviceOSType -match "iPhone") -and (device.deviceOwnership -ne "Company")</t>
+  </si>
+  <si>
+    <t>O365_BUSINESS_PREMIUM</t>
+  </si>
+  <si>
+    <t>SPE_E5</t>
+  </si>
+  <si>
+    <t>VISIOCLIENT</t>
+  </si>
+  <si>
+    <t>DYN365_ENTERPRISE_P1_IW</t>
+  </si>
+  <si>
+    <t>Dynamics_365_Onboarding_SKU</t>
+  </si>
+  <si>
+    <t>POWER_BI_PRO</t>
+  </si>
+  <si>
+    <t>XXXXSG-ADM-DEVICEMAC</t>
+  </si>
+  <si>
+    <t>XXXXSG-ADM-DEVICEMACOWNED</t>
+  </si>
+  <si>
+    <t>XXXXSG-ADM-DEVICEMACPERSONAL</t>
+  </si>
+  <si>
+    <t>XXXXSG-ADM-DEVICEANDROID</t>
+  </si>
+  <si>
+    <t>XXXXSG-ADM-DEVICEANDROIDOWNED</t>
+  </si>
+  <si>
+    <t>XXXXSG-ADM-DEVICEANDROIDPERSONAL</t>
+  </si>
+  <si>
+    <t>XXXXSG-ADM-DEVICEIOS</t>
+  </si>
+  <si>
+    <t>XXXXSG-ADM-DEVICEIOSOWNED</t>
+  </si>
+  <si>
+    <t>XXXXSG-ADM-DEVICEIOSPERSONAL</t>
+  </si>
+  <si>
+    <t>XXXXSG-ADM-LICMS365BusinessStdFull</t>
+  </si>
+  <si>
+    <t>XXXXSG-ADM-LICMS365E5Full</t>
+  </si>
+  <si>
+    <t>XXXXSG-ADM-LICO365E1Full</t>
+  </si>
+  <si>
+    <t>XXXXSG-ADM-LICVisio</t>
+  </si>
+  <si>
+    <t>XXXXSG-ADM-LICFlowFree</t>
+  </si>
+  <si>
+    <t>XXXXSG-ADM-LICD365EntP1Trial</t>
+  </si>
+  <si>
+    <t>XXXXSG-ADM-LICD365OnboardingTrial</t>
+  </si>
+  <si>
+    <t>XXXXSG-ADM-LICPowerBIFree</t>
+  </si>
+  <si>
+    <t>XXXXSG-ADM-LICPowerBIPro</t>
+  </si>
+  <si>
+    <t>XXXXSG-ADM-LICExchangeKiosk</t>
   </si>
 </sst>
 </file>
@@ -300,7 +381,49 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -677,7 +800,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P28"/>
+  <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -751,16 +874,16 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
@@ -774,16 +897,16 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
         <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
@@ -797,16 +920,16 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s">
         <v>8</v>
@@ -820,16 +943,16 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G5" t="s">
         <v>8</v>
@@ -867,16 +990,16 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G6" t="s">
         <v>8</v>
@@ -908,25 +1031,28 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G7" t="s">
         <v>8</v>
+      </c>
+      <c r="H7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -937,22 +1063,22 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="G8" t="s">
         <v>8</v>
       </c>
       <c r="H8" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -963,22 +1089,22 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="G9" t="s">
         <v>8</v>
       </c>
       <c r="H9" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -989,22 +1115,22 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="G10" t="s">
         <v>8</v>
       </c>
       <c r="H10" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -1015,22 +1141,22 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="G11" t="s">
         <v>8</v>
       </c>
-      <c r="I11" t="s">
-        <v>36</v>
+      <c r="H11" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -1041,22 +1167,22 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="F12" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="G12" t="s">
         <v>8</v>
       </c>
-      <c r="I12" t="s">
-        <v>37</v>
+      <c r="H12" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -1067,22 +1193,22 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="G13" t="s">
         <v>8</v>
       </c>
-      <c r="I13" t="s">
-        <v>38</v>
+      <c r="H13" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -1093,22 +1219,22 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="G14" t="s">
         <v>8</v>
       </c>
-      <c r="I14" t="s">
-        <v>39</v>
+      <c r="H14" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -1119,22 +1245,22 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="F15" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="G15" t="s">
         <v>8</v>
       </c>
-      <c r="I15" t="s">
-        <v>40</v>
+      <c r="H15" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -1145,22 +1271,22 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="F16" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="G16" t="s">
         <v>8</v>
       </c>
-      <c r="I16" t="s">
-        <v>41</v>
+      <c r="H16" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1171,22 +1297,19 @@
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F17" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="G17" t="s">
         <v>8</v>
-      </c>
-      <c r="I17" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1197,22 +1320,22 @@
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F18" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="G18" t="s">
         <v>8</v>
       </c>
-      <c r="I18" t="s">
-        <v>43</v>
+      <c r="H18" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1223,22 +1346,22 @@
         <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F19" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="G19" t="s">
         <v>8</v>
       </c>
-      <c r="I19" t="s">
-        <v>44</v>
+      <c r="H19" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1249,22 +1372,22 @@
         <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="D20" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="E20" t="s">
         <v>35</v>
       </c>
       <c r="F20" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="G20" t="s">
         <v>8</v>
       </c>
       <c r="I20" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1275,19 +1398,22 @@
         <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="E21" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="F21" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="G21" t="s">
         <v>8</v>
+      </c>
+      <c r="I21" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1298,19 +1424,22 @@
         <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="D22" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="E22" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="F22" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="G22" t="s">
         <v>8</v>
+      </c>
+      <c r="I22" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1321,19 +1450,22 @@
         <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="D23" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="E23" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="F23" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="G23" t="s">
         <v>8</v>
+      </c>
+      <c r="I23" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1344,19 +1476,22 @@
         <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="D24" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="E24" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="G24" t="s">
         <v>8</v>
+      </c>
+      <c r="I24" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1367,19 +1502,22 @@
         <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="D25" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="E25" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F25" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="G25" t="s">
         <v>8</v>
+      </c>
+      <c r="I25" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1390,19 +1528,22 @@
         <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="D26" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="E26" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F26" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="G26" t="s">
         <v>8</v>
+      </c>
+      <c r="I26" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1413,19 +1554,22 @@
         <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="D27" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="E27" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F27" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="G27" t="s">
         <v>8</v>
+      </c>
+      <c r="I27" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1436,35 +1580,288 @@
         <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="D28" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="E28" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F28" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="G28" t="s">
         <v>8</v>
       </c>
+      <c r="I28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" t="s">
+        <v>101</v>
+      </c>
+      <c r="G29" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" t="s">
+        <v>40</v>
+      </c>
+      <c r="F30" t="s">
+        <v>51</v>
+      </c>
+      <c r="G30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" t="s">
+        <v>52</v>
+      </c>
+      <c r="G31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" t="s">
+        <v>40</v>
+      </c>
+      <c r="F32" t="s">
+        <v>53</v>
+      </c>
+      <c r="G32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" t="s">
+        <v>40</v>
+      </c>
+      <c r="F33" t="s">
+        <v>54</v>
+      </c>
+      <c r="G33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34" t="s">
+        <v>41</v>
+      </c>
+      <c r="F34" t="s">
+        <v>55</v>
+      </c>
+      <c r="G34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" t="s">
+        <v>41</v>
+      </c>
+      <c r="F35" t="s">
+        <v>56</v>
+      </c>
+      <c r="G35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" t="s">
+        <v>41</v>
+      </c>
+      <c r="F36" t="s">
+        <v>57</v>
+      </c>
+      <c r="G36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" t="s">
+        <v>41</v>
+      </c>
+      <c r="F37" t="s">
+        <v>58</v>
+      </c>
+      <c r="G37" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:P1048576">
-    <cfRule type="expression" dxfId="2" priority="3">
+  <conditionalFormatting sqref="J1:P6 J38:P1048576">
+    <cfRule type="expression" dxfId="11" priority="12">
       <formula>IF(OR($B1="O365Group",$B1="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:P3">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="10" priority="11">
       <formula>IF(OR($B3="O365Group",$B3="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J9:P10">
+  <conditionalFormatting sqref="J7:P7 J11:P11 J17:P37">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>IF(OR($B7="O365Group",$B7="Type"),faslch,TRUE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12:P12">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>IF(OR($B12="O365Group",$B12="Type"),faslch,TRUE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8:P8">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>IF(OR($B8="O365Group",$B8="Type"),faslch,TRUE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9:P9">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>IF(OR($B9="O365Group",$B9="Type"),faslch,TRUE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14:P14">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>IF(OR($B14="O365Group",$B14="Type"),faslch,TRUE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15:P15">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>IF(OR($B15="O365Group",$B15="Type"),faslch,TRUE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10:P10">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>IF(OR($B10="O365Group",$B10="Type"),faslch,TRUE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13:P13">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>IF(OR($B13="O365Group",$B13="Type"),faslch,TRUE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16:P16">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>IF(OR($B9="O365Group",$B9="Type"),faslch,TRUE)</formula>
+      <formula>IF(OR($B16="O365Group",$B16="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1482,12 +1879,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100DBA446ED503E744880217BF491FB0C7B" ma:contentTypeVersion="10" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="27f6ebb53777ae95e550442d3878210b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="353a1f37-f986-455b-adc7-292fbd315350" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="71df197f0939a0ed9a29c200b6a3be36" ns2:_="">
     <xsd:import namespace="353a1f37-f986-455b-adc7-292fbd315350"/>
@@ -1671,6 +2062,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB80E815-258B-4085-B06C-0327483055A8}">
   <ds:schemaRefs>
@@ -1680,22 +2077,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18209EA7-04F6-445D-8F30-F19FC7D76916}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="e7596eec-0011-44fa-9047-92dcd650b5d7"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2534DDDA-BE8A-43DA-A0C1-B6D96DC767B2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1711,4 +2092,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18209EA7-04F6-445D-8F30-F19FC7D76916}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e7596eec-0011-44fa-9047-92dcd650b5d7"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/aad/Gruppen.xlsx
+++ b/data/aad/Gruppen.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="184" documentId="13_ncr:1_{D16535C0-5386-409B-B31B-BE7B156E7CE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{75AA26AF-1F6E-4635-9F38-A6C1E5523B8E}"/>
+  <xr:revisionPtr revIDLastSave="185" documentId="13_ncr:1_{D16535C0-5386-409B-B31B-BE7B156E7CE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D5AE5E61-C5FA-481C-A334-23F900FE2C02}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11736" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,9 +66,6 @@
     <t>(user.userType -eq "Guest")</t>
   </si>
   <si>
-    <t>(user.userType -eq "User")</t>
-  </si>
-  <si>
     <t>SecurityGroup</t>
   </si>
   <si>
@@ -331,6 +328,9 @@
   </si>
   <si>
     <t>XXXXSG-ADM-LICExchangeKiosk</t>
+  </si>
+  <si>
+    <t>(user.userType -eq "Member")</t>
   </si>
 </sst>
 </file>
@@ -381,14 +381,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <fill>
         <patternFill>
@@ -818,7 +811,7 @@
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -842,48 +835,48 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
@@ -891,22 +884,22 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
         <v>26</v>
       </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
@@ -914,22 +907,22 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G4" t="s">
         <v>8</v>
@@ -937,28 +930,28 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G5" t="s">
         <v>8</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="J5" t="b">
         <v>1</v>
@@ -984,22 +977,22 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G6" t="s">
         <v>8</v>
@@ -1031,282 +1024,282 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" t="s">
         <v>29</v>
-      </c>
-      <c r="F7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" t="s">
         <v>59</v>
-      </c>
-      <c r="F8" t="s">
-        <v>83</v>
-      </c>
-      <c r="G8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" t="s">
         <v>61</v>
-      </c>
-      <c r="F9" t="s">
-        <v>84</v>
-      </c>
-      <c r="G9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" t="s">
         <v>63</v>
-      </c>
-      <c r="F10" t="s">
-        <v>85</v>
-      </c>
-      <c r="G10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" t="s">
         <v>65</v>
-      </c>
-      <c r="F11" t="s">
-        <v>86</v>
-      </c>
-      <c r="G11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" t="s">
         <v>67</v>
-      </c>
-      <c r="F12" t="s">
-        <v>87</v>
-      </c>
-      <c r="G12" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" t="s">
         <v>69</v>
-      </c>
-      <c r="F13" t="s">
-        <v>88</v>
-      </c>
-      <c r="G13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" t="s">
         <v>71</v>
-      </c>
-      <c r="F14" t="s">
-        <v>89</v>
-      </c>
-      <c r="G14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" t="s">
         <v>73</v>
-      </c>
-      <c r="F15" t="s">
-        <v>90</v>
-      </c>
-      <c r="G15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" t="s">
         <v>75</v>
-      </c>
-      <c r="F16" t="s">
-        <v>91</v>
-      </c>
-      <c r="G16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G17" t="s">
         <v>8</v>
@@ -1314,334 +1307,334 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" t="s">
         <v>31</v>
-      </c>
-      <c r="F18" t="s">
-        <v>49</v>
-      </c>
-      <c r="G18" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" t="s">
         <v>33</v>
-      </c>
-      <c r="F19" t="s">
-        <v>50</v>
-      </c>
-      <c r="G19" t="s">
-        <v>8</v>
-      </c>
-      <c r="H19" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G20" t="s">
         <v>8</v>
       </c>
       <c r="I20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G21" t="s">
         <v>8</v>
       </c>
       <c r="I21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" t="s">
+        <v>93</v>
+      </c>
+      <c r="G22" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" t="s">
         <v>35</v>
-      </c>
-      <c r="F22" t="s">
-        <v>94</v>
-      </c>
-      <c r="G22" t="s">
-        <v>8</v>
-      </c>
-      <c r="I22" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G23" t="s">
         <v>8</v>
       </c>
       <c r="I23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G24" t="s">
         <v>8</v>
       </c>
       <c r="I24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G25" t="s">
         <v>8</v>
       </c>
       <c r="I25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G26" t="s">
         <v>8</v>
       </c>
       <c r="I26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G27" t="s">
         <v>8</v>
       </c>
       <c r="I27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G28" t="s">
         <v>8</v>
       </c>
       <c r="I28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G29" t="s">
         <v>8</v>
       </c>
       <c r="I29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G30" t="s">
         <v>8</v>
@@ -1649,22 +1642,22 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G31" t="s">
         <v>8</v>
@@ -1672,22 +1665,22 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G32" t="s">
         <v>8</v>
@@ -1695,22 +1688,22 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G33" t="s">
         <v>8</v>
@@ -1718,22 +1711,22 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G34" t="s">
         <v>8</v>
@@ -1741,22 +1734,22 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G35" t="s">
         <v>8</v>
@@ -1764,22 +1757,22 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G36" t="s">
         <v>8</v>
@@ -1787,22 +1780,22 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G37" t="s">
         <v>8</v>
@@ -1810,12 +1803,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J1:P6 J38:P1048576">
-    <cfRule type="expression" dxfId="11" priority="12">
+    <cfRule type="expression" dxfId="10" priority="12">
       <formula>IF(OR($B1="O365Group",$B1="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:P3">
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="9" priority="11">
       <formula>IF(OR($B3="O365Group",$B3="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1870,15 +1863,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100DBA446ED503E744880217BF491FB0C7B" ma:contentTypeVersion="10" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="27f6ebb53777ae95e550442d3878210b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="353a1f37-f986-455b-adc7-292fbd315350" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="71df197f0939a0ed9a29c200b6a3be36" ns2:_="">
     <xsd:import namespace="353a1f37-f986-455b-adc7-292fbd315350"/>
@@ -2062,6 +2046,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2069,14 +2062,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB80E815-258B-4085-B06C-0327483055A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2534DDDA-BE8A-43DA-A0C1-B6D96DC767B2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2090,6 +2075,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB80E815-258B-4085-B06C-0327483055A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data/aad/Gruppen.xlsx
+++ b/data/aad/Gruppen.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC611CFA-295A-4728-ABFB-574074160EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{AC611CFA-295A-4728-ABFB-574074160EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{971CFC8F-FD81-43F6-9659-706A43D2720F}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11736" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1380" yWindow="1260" windowWidth="22668" windowHeight="11808" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gruppen" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="155">
   <si>
     <t>Type</t>
   </si>
@@ -192,322 +192,304 @@
     <t>ALYAOG-ADM-AlleExternen</t>
   </si>
   <si>
-    <t>ALYASG-ADM-DEVICEADMINS</t>
-  </si>
-  <si>
-    <t>ALYASG-ADM-DEVICESTANDARD</t>
-  </si>
-  <si>
-    <t>ALYASG-ADM-DEVICEAUTOPILOT</t>
-  </si>
-  <si>
-    <t>ALYASG-ADM-DEVICEAUTOPILOTSTANDARD</t>
-  </si>
-  <si>
-    <t>ALYASG-ADM-DEVICEMACALL</t>
-  </si>
-  <si>
     <t>(device.deviceOSType -match "Mac")</t>
   </si>
   <si>
-    <t>ALYASG-ADM-DEVICEMACMDM</t>
-  </si>
-  <si>
     <t>Holds all mdm mac devices</t>
   </si>
   <si>
     <t>(device.deviceOSType -match "Mac") -and (device.managementType -eq "MDM")</t>
   </si>
   <si>
-    <t>ALYASG-ADM-DEVICEMACMDMOWNED</t>
-  </si>
-  <si>
     <t>Holds all mdm mac company owned devices</t>
   </si>
   <si>
     <t>(device.deviceOSType -match "Mac") -and (device.deviceOwnership -eq "Company") -and (device.managementType -eq "MDM")</t>
   </si>
   <si>
-    <t>ALYASG-ADM-DEVICEMACMDMPERSONAL</t>
-  </si>
-  <si>
     <t>Holds all mdm mac personal owned devices</t>
   </si>
   <si>
     <t>(device.deviceOSType -match "Mac") -and (device.deviceOwnership -ne "Company") -and (device.managementType -eq "MDM")</t>
   </si>
   <si>
-    <t>ALYASG-ADM-DEVICEMACADE</t>
-  </si>
-  <si>
     <t>Holds all ade mac devices</t>
   </si>
   <si>
     <t>(device.deviceOSType -match "Mac") -and (device.enrollmentProfileName -eq "ALYA-MAC-ADE-Profile")</t>
   </si>
   <si>
-    <t>ALYASG-ADM-DEVICEANDROIDALL</t>
-  </si>
-  <si>
-    <t>ALYASG-ADM-DEVICEANDROIDALLSAMSUNG</t>
-  </si>
-  <si>
-    <t>ALYASG-ADM-DEVICEANDROIDSAMSUNG</t>
-  </si>
-  <si>
     <t>Holds all android Samsung devices</t>
   </si>
   <si>
     <t>(device.deviceOSType -match "Android") -and (device.deviceManufacturer -eq "samsung")</t>
   </si>
   <si>
-    <t>ALYASG-ADM-DEVICEANDROIDALLBLACKBERRY</t>
-  </si>
-  <si>
-    <t>ALYASG-ADM-DEVICEANDROIDBLACKBERRY</t>
-  </si>
-  <si>
     <t>Holds all android BlackBerry devices</t>
   </si>
   <si>
     <t>(device.deviceOSType -match "Android") -and (device.deviceManufacturer -eq "BlackBerry")</t>
   </si>
   <si>
-    <t>ALYASG-ADM-DEVICEANDROIDALLGOOGLE</t>
-  </si>
-  <si>
-    <t>ALYASG-ADM-DEVICEANDROIDGOOGLE</t>
-  </si>
-  <si>
     <t>Holds all android Google devices</t>
   </si>
   <si>
     <t>(device.deviceOSType -match "Android") -and (device.deviceManufacturer -eq "Google")</t>
   </si>
   <si>
-    <t>ALYASG-ADM-DEVICEANDROIDALLONEPLUS</t>
-  </si>
-  <si>
-    <t>ALYASG-ADM-DEVICEANDROIDONEPLUS</t>
-  </si>
-  <si>
     <t>Holds all android OnePlus devices</t>
   </si>
   <si>
     <t>(device.deviceOSType -match "Android") -and (device.deviceManufacturer -eq "OnePlus")</t>
   </si>
   <si>
-    <t>ALYASG-ADM-DEVICEANDROIDMDM</t>
-  </si>
-  <si>
     <t>Holds all mdm android devices</t>
   </si>
   <si>
     <t>(device.deviceOSType -match "Android") -and (device.managementType -eq "MDM")</t>
   </si>
   <si>
-    <t>ALYASG-ADM-DEVICEANDROIDMDMOWNED</t>
-  </si>
-  <si>
     <t>Holds all mdm android company owned devices</t>
   </si>
   <si>
     <t>(device.deviceOSType -match "Android") -and (device.deviceOwnership -eq "Company") -and (device.managementType -eq "MDM")</t>
   </si>
   <si>
-    <t>ALYASG-ADM-DEVICEANDROIDMDMPERSONAL</t>
-  </si>
-  <si>
     <t>Holds all mdm android personal owned devices</t>
   </si>
   <si>
     <t>(device.deviceOSType -match "Android") -and (device.deviceOwnership -ne "Company") -and (device.managementType -eq "MDM")</t>
   </si>
   <si>
-    <t>ALYASG-ADM-DEVICEIOSALL</t>
-  </si>
-  <si>
     <t>(device.deviceOSType -match "iOs" -or device.deviceOSType -match "iPad" -or device.deviceOSType -match "iPhone")</t>
   </si>
   <si>
-    <t>ALYASG-ADM-DEVICEIOSMDM</t>
-  </si>
-  <si>
     <t>Holds all mdm ios devices</t>
   </si>
   <si>
     <t>(device.deviceOSType -match "iOs" -or device.deviceOSType -match "iPad" -or device.deviceOSType -match "iPhone") -and (device.managementType -eq "MDM")</t>
   </si>
   <si>
-    <t>ALYASG-ADM-DEVICEIOSMDMOWNED</t>
-  </si>
-  <si>
     <t>Holds all mdm ios company owned devices</t>
   </si>
   <si>
     <t>(device.deviceOSType -match "iOs" -or device.deviceOSType -match "iPad" -or device.deviceOSType -match "iPhone") -and (device.deviceOwnership -eq "Company") -and (device.managementType -eq "MDM")</t>
   </si>
   <si>
-    <t>ALYASG-ADM-DEVICEIOSMDMPERSONAL</t>
-  </si>
-  <si>
     <t>Holds all mdm ios personal owned devices</t>
   </si>
   <si>
     <t>(device.deviceOSType -match "iOs" -or device.deviceOSType -match "iPad" -or device.deviceOSType -match "iPhone") -and (device.deviceOwnership -ne "Company") -and (device.managementType -eq "MDM")</t>
   </si>
   <si>
-    <t>ALYASG-ADM-DEVICEIOSADE</t>
-  </si>
-  <si>
     <t>Holds all ade ios devices</t>
   </si>
   <si>
     <t>(device.deviceOSType -match "iOs" -or device.deviceOSType -match "iPad" -or device.deviceOSType -match "iPhone") -and (device.enrollmentProfileName -eq "ALYA-iOS-ADE-Profile")</t>
   </si>
   <si>
-    <t>ALYASG-ADM-LICAADBASIC</t>
-  </si>
-  <si>
     <t>AAD_BASIC</t>
   </si>
   <si>
-    <t>ALYASG-ADM-LICAADP2</t>
-  </si>
-  <si>
     <t>AAD_PREMIUM_P2</t>
   </si>
   <si>
-    <t>ALYASG-ADM-LICCOMMPHONE</t>
-  </si>
-  <si>
     <t>MCOCAP</t>
   </si>
   <si>
-    <t>ALYASG-ADM-LICDYN365P1</t>
-  </si>
-  <si>
     <t>DYN365_ENTERPRISE_PLAN1</t>
   </si>
   <si>
-    <t>ALYASG-ADM-LICEMS</t>
-  </si>
-  <si>
     <t>EMS</t>
   </si>
   <si>
-    <t>ALYASG-ADM-LICEXCHKIOSK</t>
-  </si>
-  <si>
-    <t>ALYASG-ADM-LICEXCHP1</t>
-  </si>
-  <si>
     <t>EXCHANGESTANDARD</t>
   </si>
   <si>
-    <t>ALYASG-ADM-LICFLOWFREE</t>
-  </si>
-  <si>
-    <t>ALYASG-ADM-LICINTUNE</t>
-  </si>
-  <si>
     <t>INTUNE_A</t>
   </si>
   <si>
-    <t>ALYASG-ADM-LICMS365BUSBASICFULL</t>
-  </si>
-  <si>
-    <t>ALYASG-ADM-LICMS365BUSBASIC</t>
-  </si>
-  <si>
     <t>O365_BUSINESS_ESSENTIALS</t>
   </si>
   <si>
-    <t>ALYASG-ADM-LICMS365BUSSTDFULL</t>
-  </si>
-  <si>
-    <t>ALYASG-ADM-LICMS365BusinessStdFull</t>
-  </si>
-  <si>
-    <t>ALYASG-ADM-LICMS365E3FULL</t>
-  </si>
-  <si>
     <t>SPE_E3</t>
   </si>
   <si>
-    <t>ALYASG-ADM-LICMS365E5FULL</t>
-  </si>
-  <si>
-    <t>ALYASG-ADM-LICMS365E5Full</t>
-  </si>
-  <si>
-    <t>ALYASG-ADM-LICO365E1FULL</t>
-  </si>
-  <si>
-    <t>ALYASG-ADM-LICO365E3FULL</t>
-  </si>
-  <si>
     <t>ENTERPRISEPACK</t>
   </si>
   <si>
-    <t>ALYASG-ADM-LICPBIFREE</t>
-  </si>
-  <si>
-    <t>ALYASG-ADM-LICPBIPRO</t>
-  </si>
-  <si>
-    <t>ALYASG-ADM-LICPowerBIPro</t>
-  </si>
-  <si>
-    <t>ALYASG-ADM-LICSMBAPPS</t>
-  </si>
-  <si>
     <t>SMB_APPS</t>
   </si>
   <si>
-    <t>ALYASG-ADM-LICSPP1</t>
-  </si>
-  <si>
     <t>SHAREPOINTSTANDARD</t>
   </si>
   <si>
-    <t>ALYASG-ADM-LICVIRTPHONE</t>
-  </si>
-  <si>
     <t>PHONESYSTEM_VIRTUALUSER</t>
   </si>
   <si>
-    <t>ALYASG-ADM-LICVISIO2</t>
-  </si>
-  <si>
-    <t>ALYASG-ADM-LICVIVATOP</t>
-  </si>
-  <si>
     <t>TOPIC_EXPERIENCES</t>
   </si>
   <si>
-    <t>ALYASG-ADM-APPTDSKTP</t>
-  </si>
-  <si>
-    <t>ALYASG-ADM-APPTSTD</t>
-  </si>
-  <si>
-    <t>ALYASG-ADM-APPTVISIO</t>
-  </si>
-  <si>
-    <t>ALYASG-ADM-APPTPRJCT</t>
-  </si>
-  <si>
-    <t>ALYASG-ADM-APPDSKTP</t>
-  </si>
-  <si>
-    <t>ALYASG-ADM-APPSTD</t>
-  </si>
-  <si>
-    <t>ALYASG-ADM-APPVISIO</t>
-  </si>
-  <si>
-    <t>ALYASG-ADM-APPPRJCT</t>
+    <t>ALYASG-DEV-ADMINS</t>
+  </si>
+  <si>
+    <t>ALYASG-DEV-STANDARD</t>
+  </si>
+  <si>
+    <t>ALYASG-DEV-AUTOPILOT</t>
+  </si>
+  <si>
+    <t>ALYASG-DEV-AUTOPILOTSTANDARD</t>
+  </si>
+  <si>
+    <t>ALYASG-DEV-MACALL</t>
+  </si>
+  <si>
+    <t>ALYASG-DEV-MACMDM</t>
+  </si>
+  <si>
+    <t>ALYASG-DEV-MACMDMOWNED</t>
+  </si>
+  <si>
+    <t>ALYASG-DEV-MACMDMPERSONAL</t>
+  </si>
+  <si>
+    <t>ALYASG-DEV-MACADE</t>
+  </si>
+  <si>
+    <t>ALYASG-DEV-ANDROIDALL</t>
+  </si>
+  <si>
+    <t>ALYASG-DEV-ANDROIDALLSAMSUNG</t>
+  </si>
+  <si>
+    <t>ALYASG-DEV-ANDROIDALLBLACKBERRY</t>
+  </si>
+  <si>
+    <t>ALYASG-DEV-ANDROIDALLGOOGLE</t>
+  </si>
+  <si>
+    <t>ALYASG-DEV-ANDROIDALLONEPLUS</t>
+  </si>
+  <si>
+    <t>ALYASG-DEV-ANDROIDMDM</t>
+  </si>
+  <si>
+    <t>ALYASG-DEV-ANDROIDMDMOWNED</t>
+  </si>
+  <si>
+    <t>ALYASG-DEV-ANDROIDMDMPERSONAL</t>
+  </si>
+  <si>
+    <t>ALYASG-DEV-IOSALL</t>
+  </si>
+  <si>
+    <t>ALYASG-DEV-IOSMDM</t>
+  </si>
+  <si>
+    <t>ALYASG-DEV-IOSMDMOWNED</t>
+  </si>
+  <si>
+    <t>ALYASG-DEV-IOSMDMPERSONAL</t>
+  </si>
+  <si>
+    <t>ALYASG-DEV-IOSADE</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-AADBASIC</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-AADP2</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-COMMPHONE</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-DYN365P1</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-EMS</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-EXCHKIOSK</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-EXCHP1</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-FLOWFREE</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-INTUNE</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-MS365BUSBASICFULL</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-MS365BUSSTDFULL</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-MS365E3FULL</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-MS365E5FULL</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-O365E1FULL</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-O365E3FULL</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-PBIFREE</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-PBIPRO</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-SMBAPPS</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-SPP1</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-VIRTPHONE</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-VISIO2</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-VIVATOP</t>
+  </si>
+  <si>
+    <t>ALYASG-APP-TDSKTP</t>
+  </si>
+  <si>
+    <t>ALYASG-APP-TSTD</t>
+  </si>
+  <si>
+    <t>ALYASG-APP-TVISIO</t>
+  </si>
+  <si>
+    <t>ALYASG-APP-TPRJCT</t>
+  </si>
+  <si>
+    <t>ALYASG-APP-DSKTP</t>
+  </si>
+  <si>
+    <t>ALYASG-APP-STD</t>
+  </si>
+  <si>
+    <t>ALYASG-APP-VISIO</t>
+  </si>
+  <si>
+    <t>ALYASG-APP-PRJCT</t>
+  </si>
+  <si>
+    <t>SPB</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-MS365BUSPREMFULL</t>
   </si>
 </sst>
 </file>
@@ -579,77 +561,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill>
@@ -1040,24 +952,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P58"/>
+  <dimension ref="A1:P59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7890625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.89453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.1015625" customWidth="1"/>
-    <col min="4" max="4" width="11.26171875" customWidth="1"/>
-    <col min="5" max="5" width="26.5234375" customWidth="1"/>
-    <col min="6" max="6" width="31.5234375" customWidth="1"/>
-    <col min="7" max="7" width="7.62890625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.7890625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" customWidth="1"/>
+    <col min="5" max="5" width="26.5546875" customWidth="1"/>
+    <col min="6" max="6" width="31.5546875" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -1107,7 +1019,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1127,7 +1039,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -1148,7 +1060,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1169,7 +1081,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1216,7 +1128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1263,7 +1175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
@@ -1271,10 +1183,10 @@
         <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>27</v>
@@ -1283,7 +1195,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -1291,10 +1203,10 @@
         <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>28</v>
@@ -1306,7 +1218,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
@@ -1314,10 +1226,10 @@
         <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>30</v>
@@ -1329,7 +1241,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
@@ -1337,10 +1249,10 @@
         <v>13</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>32</v>
@@ -1352,7 +1264,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
@@ -1360,10 +1272,10 @@
         <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>41</v>
@@ -1372,102 +1284,102 @@
         <v>8</v>
       </c>
       <c r="H11" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="G14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="2" t="s">
+    </row>
+    <row r="15" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="2" t="s">
+      <c r="G15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>25</v>
       </c>
@@ -1475,10 +1387,10 @@
         <v>13</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>42</v>
@@ -1490,7 +1402,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>25</v>
       </c>
@@ -1498,160 +1410,160 @@
         <v>13</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="G22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E17" s="2" t="s">
+    </row>
+    <row r="23" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17" s="2" t="s">
+      <c r="G23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
@@ -1659,10 +1571,10 @@
         <v>13</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>44</v>
@@ -1671,10 +1583,10 @@
         <v>8</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
@@ -1682,22 +1594,22 @@
         <v>13</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -1705,22 +1617,22 @@
         <v>13</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
@@ -1728,22 +1640,22 @@
         <v>13</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>25</v>
       </c>
@@ -1751,22 +1663,22 @@
         <v>13</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>25</v>
       </c>
@@ -1774,10 +1686,10 @@
         <v>13</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>34</v>
@@ -1786,10 +1698,10 @@
         <v>8</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>25</v>
       </c>
@@ -1797,10 +1709,10 @@
         <v>13</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>34</v>
@@ -1809,10 +1721,10 @@
         <v>8</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>25</v>
       </c>
@@ -1820,10 +1732,10 @@
         <v>13</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>34</v>
@@ -1832,10 +1744,10 @@
         <v>8</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>25</v>
       </c>
@@ -1843,10 +1755,10 @@
         <v>13</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>34</v>
@@ -1855,10 +1767,10 @@
         <v>8</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>25</v>
       </c>
@@ -1866,10 +1778,10 @@
         <v>13</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>34</v>
@@ -1878,10 +1790,10 @@
         <v>8</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>25</v>
       </c>
@@ -1889,10 +1801,10 @@
         <v>13</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>34</v>
@@ -1904,7 +1816,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>25</v>
       </c>
@@ -1912,10 +1824,10 @@
         <v>13</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>34</v>
@@ -1924,10 +1836,10 @@
         <v>8</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>25</v>
       </c>
@@ -1935,10 +1847,10 @@
         <v>13</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>34</v>
@@ -1950,7 +1862,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>25</v>
       </c>
@@ -1958,10 +1870,10 @@
         <v>13</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>34</v>
@@ -1970,10 +1882,10 @@
         <v>8</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>25</v>
       </c>
@@ -1981,10 +1893,10 @@
         <v>13</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>34</v>
@@ -1993,10 +1905,10 @@
         <v>8</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>25</v>
       </c>
@@ -2004,7 +1916,7 @@
         <v>13</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>133</v>
@@ -2019,7 +1931,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>25</v>
       </c>
@@ -2027,10 +1939,10 @@
         <v>13</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>34</v>
@@ -2039,10 +1951,10 @@
         <v>8</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>25</v>
       </c>
@@ -2050,10 +1962,10 @@
         <v>13</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>34</v>
@@ -2062,10 +1974,10 @@
         <v>8</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>25</v>
       </c>
@@ -2073,10 +1985,10 @@
         <v>13</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>34</v>
@@ -2085,10 +1997,10 @@
         <v>8</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>25</v>
       </c>
@@ -2096,10 +2008,10 @@
         <v>13</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>34</v>
@@ -2108,10 +2020,10 @@
         <v>8</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>25</v>
       </c>
@@ -2119,10 +2031,10 @@
         <v>13</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>34</v>
@@ -2131,10 +2043,10 @@
         <v>8</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>25</v>
       </c>
@@ -2142,10 +2054,10 @@
         <v>13</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>34</v>
@@ -2154,10 +2066,10 @@
         <v>8</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>25</v>
       </c>
@@ -2165,10 +2077,10 @@
         <v>13</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>34</v>
@@ -2177,10 +2089,10 @@
         <v>8</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>25</v>
       </c>
@@ -2188,10 +2100,10 @@
         <v>13</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>34</v>
@@ -2200,10 +2112,10 @@
         <v>8</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>25</v>
       </c>
@@ -2211,10 +2123,10 @@
         <v>13</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>34</v>
@@ -2223,10 +2135,10 @@
         <v>8</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>25</v>
       </c>
@@ -2234,10 +2146,10 @@
         <v>13</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>34</v>
@@ -2246,10 +2158,10 @@
         <v>8</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>25</v>
       </c>
@@ -2257,10 +2169,10 @@
         <v>13</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>34</v>
@@ -2269,30 +2181,33 @@
         <v>8</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>25</v>
       </c>
@@ -2300,10 +2215,10 @@
         <v>13</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>39</v>
@@ -2312,7 +2227,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>25</v>
       </c>
@@ -2320,10 +2235,10 @@
         <v>13</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>39</v>
@@ -2332,7 +2247,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>25</v>
       </c>
@@ -2340,10 +2255,10 @@
         <v>13</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>39</v>
@@ -2352,7 +2267,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>25</v>
       </c>
@@ -2360,19 +2275,19 @@
         <v>13</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>25</v>
       </c>
@@ -2380,10 +2295,10 @@
         <v>13</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>40</v>
@@ -2392,7 +2307,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>25</v>
       </c>
@@ -2400,10 +2315,10 @@
         <v>13</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>40</v>
@@ -2412,7 +2327,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>25</v>
       </c>
@@ -2420,10 +2335,10 @@
         <v>13</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>40</v>
@@ -2432,40 +2347,65 @@
         <v>8</v>
       </c>
     </row>
+    <row r="59" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:P2 J4:P10 J12:P14 J22:P23 J25:P27 J16:P20 J29:P1048576">
-    <cfRule type="expression" dxfId="6" priority="7">
+  <conditionalFormatting sqref="J1:P2 J4:P10 J12:P14 J22:P23 J25:P27 J16:P20 J29:P39 J41:P1048576">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>IF(OR($B1="O365Group",$B1="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:P3">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>IF(OR($B3="O365Group",$B3="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:P11">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>IF(OR($B11="O365Group",$B11="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21:P21">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>IF(OR($B21="O365Group",$B21="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24:P24">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>IF(OR($B24="O365Group",$B24="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28:P28">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>IF(OR($B28="O365Group",$B28="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15:P15">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>IF(OR($B15="O365Group",$B15="Type"),faslch,TRUE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J40:P40">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>IF(OR($B15="O365Group",$B15="Type"),faslch,TRUE)</formula>
+      <formula>IF(OR($B40="O365Group",$B40="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2474,18 +2414,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2673,6 +2613,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB80E815-258B-4085-B06C-0327483055A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18209EA7-04F6-445D-8F30-F19FC7D76916}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -2684,14 +2632,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB80E815-258B-4085-B06C-0327483055A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data/aad/Gruppen.xlsx
+++ b/data/aad/Gruppen.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{AC611CFA-295A-4728-ABFB-574074160EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{971CFC8F-FD81-43F6-9659-706A43D2720F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F950694-B411-427B-94B4-E48E3BB14795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="1260" windowWidth="22668" windowHeight="11808" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2160" yWindow="2160" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gruppen" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="175">
   <si>
     <t>Type</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Private</t>
   </si>
   <si>
-    <t>Members of this group can manage O365 groups</t>
-  </si>
-  <si>
     <t>Holds all internal users</t>
   </si>
   <si>
@@ -69,9 +66,6 @@
     <t>SecurityGroup</t>
   </si>
   <si>
-    <t>O365Group</t>
-  </si>
-  <si>
     <t>Activ</t>
   </si>
   <si>
@@ -183,15 +177,6 @@
     <t>ALYASG-ADM-MFAENABLED</t>
   </si>
   <si>
-    <t>ALYASG-ADM-O365GROUPMANAGERS</t>
-  </si>
-  <si>
-    <t>ALYAOG-ADM-AlleInternen</t>
-  </si>
-  <si>
-    <t>ALYAOG-ADM-AlleExternen</t>
-  </si>
-  <si>
     <t>(device.deviceOSType -match "Mac")</t>
   </si>
   <si>
@@ -490,6 +475,81 @@
   </si>
   <si>
     <t>ALYASG-LIC-MS365BUSPREMFULL</t>
+  </si>
+  <si>
+    <t>SSPR is enabled for members in this group</t>
+  </si>
+  <si>
+    <t>Password change is disabled for members in this group</t>
+  </si>
+  <si>
+    <t>ALYASG-ADM-M365GROUPMANAGERS</t>
+  </si>
+  <si>
+    <t>Members of this group can manage M365 groups</t>
+  </si>
+  <si>
+    <t>Holds all windows devices</t>
+  </si>
+  <si>
+    <t>(device.deviceOSType -match "Windows")</t>
+  </si>
+  <si>
+    <t>Holds all mdm windows devices</t>
+  </si>
+  <si>
+    <t>(device.deviceOSType -match "Windows") -and (device.managementType -eq "MDM")</t>
+  </si>
+  <si>
+    <t>Holds all mdm windows company owned devices</t>
+  </si>
+  <si>
+    <t>(device.deviceOSType -match "Windows") -and (device.deviceOwnership -eq "Company") -and (device.managementType -eq "MDM")</t>
+  </si>
+  <si>
+    <t>Holds all mdm windows personal owned devices</t>
+  </si>
+  <si>
+    <t>(device.deviceOSType -match "Windows") -and (device.deviceOwnership -ne "Company") -and (device.managementType -eq "MDM")</t>
+  </si>
+  <si>
+    <t>AAD_PREMIUM</t>
+  </si>
+  <si>
+    <t>MCOEV</t>
+  </si>
+  <si>
+    <t>ALYASG-ADM-SSPRENABLED</t>
+  </si>
+  <si>
+    <t>ALYASG-ADM-PWDCHNGDISABLED</t>
+  </si>
+  <si>
+    <t>ALYASG-DEV-WINALL</t>
+  </si>
+  <si>
+    <t>ALYASG-DEV-WINMDM</t>
+  </si>
+  <si>
+    <t>ALYASG-DEV-WINMDMOWNED</t>
+  </si>
+  <si>
+    <t>ALYASG-DEV-WINMDMPERSONAL</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-AADP1</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-PHONESTD</t>
+  </si>
+  <si>
+    <t>ALYAMG-ADM-AlleInternen</t>
+  </si>
+  <si>
+    <t>ALYAMG-ADM-AlleExternen</t>
+  </si>
+  <si>
+    <t>M365Group</t>
   </si>
 </sst>
 </file>
@@ -561,7 +621,35 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -952,9 +1040,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P59"/>
+  <dimension ref="A1:P67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -971,7 +1061,7 @@
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -995,42 +1085,42 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -1041,19 +1131,19 @@
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F3"/>
       <c r="G3" t="s">
@@ -1062,1350 +1152,1550 @@
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>164</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>164</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>150</v>
       </c>
       <c r="F4"/>
       <c r="G4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E6" t="s">
+        <v>153</v>
+      </c>
+      <c r="F6"/>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D7" t="s">
+        <v>172</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" t="b">
+        <v>1</v>
+      </c>
+      <c r="M7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O7" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C8" t="s">
+        <v>173</v>
+      </c>
+      <c r="D8" t="s">
+        <v>173</v>
+      </c>
+      <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J5" t="b">
+      <c r="F8" t="s">
+        <v>173</v>
+      </c>
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" t="b">
         <v>1</v>
       </c>
-      <c r="K5" t="b">
+      <c r="K8" t="b">
         <v>1</v>
       </c>
-      <c r="L5" t="b">
+      <c r="L8" t="b">
         <v>1</v>
       </c>
-      <c r="M5" t="b">
+      <c r="M8" t="b">
         <v>0</v>
       </c>
-      <c r="N5" t="b">
+      <c r="N8" t="b">
         <v>0</v>
       </c>
-      <c r="O5" t="b">
+      <c r="O8" t="b">
         <v>0</v>
       </c>
-      <c r="P5" t="b">
+      <c r="P8" t="b">
         <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" t="b">
-        <v>1</v>
-      </c>
-      <c r="K6" t="b">
-        <v>1</v>
-      </c>
-      <c r="L6" t="b">
-        <v>1</v>
-      </c>
-      <c r="M6" t="b">
-        <v>0</v>
-      </c>
-      <c r="N6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O6" t="b">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="G9" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="G26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="E27" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="E28" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="E29" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H25" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E26" s="2" t="s">
+      <c r="G30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>36</v>
+    </row>
+    <row r="31" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>38</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>45</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>153</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="E42" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>96</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>97</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>98</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C51" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D64" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="E51" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C52" s="4" t="s">
+      <c r="E64" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D65" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E52" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C53" s="4" t="s">
+      <c r="E65" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D66" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="E53" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C54" s="4" t="s">
+      <c r="E66" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D67" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E54" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G59" s="4" t="s">
+      <c r="E67" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G67" s="4" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:P2 J4:P10 J12:P14 J22:P23 J25:P27 J16:P20 J29:P39 J41:P1048576">
-    <cfRule type="expression" dxfId="7" priority="8">
+  <conditionalFormatting sqref="J1:P2 J6:P12 J14:P16 J24:P25 J27:P29 J18:P22 J35:P35 J37:P38 J49:P1048576 J40:P47">
+    <cfRule type="expression" dxfId="11" priority="12">
       <formula>IF(OR($B1="O365Group",$B1="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:P3">
-    <cfRule type="expression" dxfId="6" priority="7">
+  <conditionalFormatting sqref="J3:P5">
+    <cfRule type="expression" dxfId="10" priority="11">
       <formula>IF(OR($B3="O365Group",$B3="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J11:P11">
-    <cfRule type="expression" dxfId="5" priority="6">
-      <formula>IF(OR($B11="O365Group",$B11="Type"),faslch,TRUE)</formula>
+  <conditionalFormatting sqref="J13:P13">
+    <cfRule type="expression" dxfId="9" priority="10">
+      <formula>IF(OR($B13="O365Group",$B13="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J21:P21">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>IF(OR($B21="O365Group",$B21="Type"),faslch,TRUE)</formula>
+  <conditionalFormatting sqref="J23:P23">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>IF(OR($B23="O365Group",$B23="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J24:P24">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>IF(OR($B24="O365Group",$B24="Type"),faslch,TRUE)</formula>
+  <conditionalFormatting sqref="J26:P26">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>IF(OR($B26="O365Group",$B26="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J28:P28">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>IF(OR($B28="O365Group",$B28="Type"),faslch,TRUE)</formula>
+  <conditionalFormatting sqref="J30:P30">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>IF(OR($B30="O365Group",$B30="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J15:P15">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>IF(OR($B15="O365Group",$B15="Type"),faslch,TRUE)</formula>
+  <conditionalFormatting sqref="J17:P17">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>IF(OR($B17="O365Group",$B17="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J40:P40">
+  <conditionalFormatting sqref="J48:P48">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>IF(OR($B48="O365Group",$B48="Type"),faslch,TRUE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J32:P34">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>IF(OR($B32="O365Group",$B32="Type"),faslch,TRUE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J31:P31">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>IF(OR($B31="O365Group",$B31="Type"),faslch,TRUE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J36:P36">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>IF(OR($B36="O365Group",$B36="Type"),faslch,TRUE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J39:P39">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>IF(OR($B40="O365Group",$B40="Type"),faslch,TRUE)</formula>
+      <formula>IF(OR($B39="O365Group",$B39="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/aad/Gruppen.xlsx
+++ b/data/aad/Gruppen.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F950694-B411-427B-94B4-E48E3BB14795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0353B1B5-FA76-4349-B814-961782206CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="2160" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11400" yWindow="2676" windowWidth="21456" windowHeight="12624" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gruppen" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="180">
   <si>
     <t>Type</t>
   </si>
@@ -550,13 +550,28 @@
   </si>
   <si>
     <t>M365Group</t>
+  </si>
+  <si>
+    <t>(user.assignedPlans -any (assignedPlan.servicePlanId -eq "##SEE##REMARKS##" -and assignedPlan.capabilityStatus -eq "Enabled"))</t>
+  </si>
+  <si>
+    <t>(Get-AzureADSubscribedSku -ObjectId (Get-AzureADSubscribedSKU | where {$_.SkuPartNumber -eq "SPB"}).ObjectId | select -expand serviceplans | where {$_.ServicePlanName -eq "ATP_ENTERPRISE"}).ServicePlanId</t>
+  </si>
+  <si>
+    <t>https://learn.microsoft.com/en-us/azure/active-directory/enterprise-users/licensing-service-plan-reference</t>
+  </si>
+  <si>
+    <t>ALYAMG-ADM-ByPlanToBeSpecified</t>
+  </si>
+  <si>
+    <t>Holds all users with specified plan assigned</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -568,6 +583,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -608,20 +631,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="13">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1040,11 +1073,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P67"/>
+  <dimension ref="A1:R68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1059,7 +1090,7 @@
     <col min="9" max="9" width="24.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -1109,7 +1140,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1129,7 +1160,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1150,7 +1181,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1171,7 +1202,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -1192,7 +1223,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1213,7 +1244,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1260,7 +1291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1307,185 +1338,215 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2" t="s">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>174</v>
+      </c>
+      <c r="C9" t="s">
+        <v>178</v>
+      </c>
+      <c r="D9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E9" t="s">
+        <v>179</v>
+      </c>
+      <c r="F9" t="s">
+        <v>178</v>
+      </c>
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" t="s">
+        <v>175</v>
+      </c>
+      <c r="J9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>176</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="G10" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="2" t="s">
+      <c r="G11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="2" t="s">
+    <row r="12" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="2" t="s">
+      <c r="G12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="2" t="s">
+    <row r="13" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="2" t="s">
+      <c r="G13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="2" t="s">
+    <row r="14" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" s="2" t="s">
+      <c r="G14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="2" t="s">
+    <row r="15" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="2" t="s">
+      <c r="G15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="2" t="s">
+    <row r="16" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="2" t="s">
+      <c r="G16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1496,19 +1557,19 @@
         <v>12</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1519,19 +1580,19 @@
         <v>12</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1542,19 +1603,19 @@
         <v>12</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1565,19 +1626,19 @@
         <v>12</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1588,19 +1649,19 @@
         <v>12</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1611,19 +1672,19 @@
         <v>12</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1634,19 +1695,19 @@
         <v>12</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1657,19 +1718,19 @@
         <v>12</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1680,19 +1741,19 @@
         <v>12</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1703,19 +1764,19 @@
         <v>12</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1726,19 +1787,19 @@
         <v>12</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1749,19 +1810,19 @@
         <v>12</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1772,19 +1833,19 @@
         <v>12</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1795,19 +1856,19 @@
         <v>12</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1818,19 +1879,19 @@
         <v>12</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>166</v>
+        <v>117</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>166</v>
+        <v>117</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>155</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1841,19 +1902,19 @@
         <v>12</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1864,19 +1925,19 @@
         <v>12</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1887,42 +1948,42 @@
         <v>12</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="G34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H34" s="2" t="s">
+      <c r="G35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" s="2" t="s">
         <v>161</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1933,10 +1994,10 @@
         <v>12</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>170</v>
+        <v>118</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>170</v>
+        <v>118</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>32</v>
@@ -1945,7 +2006,7 @@
         <v>8</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>162</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1956,10 +2017,10 @@
         <v>12</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>119</v>
+        <v>170</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>119</v>
+        <v>170</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>32</v>
@@ -1968,7 +2029,7 @@
         <v>8</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>83</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1979,10 +2040,10 @@
         <v>12</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>32</v>
@@ -1991,7 +2052,7 @@
         <v>8</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2002,10 +2063,10 @@
         <v>12</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>171</v>
+        <v>120</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>171</v>
+        <v>120</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>32</v>
@@ -2014,7 +2075,7 @@
         <v>8</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>163</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2025,10 +2086,10 @@
         <v>12</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>121</v>
+        <v>171</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>121</v>
+        <v>171</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>32</v>
@@ -2037,7 +2098,7 @@
         <v>8</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>85</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2048,10 +2109,10 @@
         <v>12</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>32</v>
@@ -2060,7 +2121,7 @@
         <v>8</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2071,10 +2132,10 @@
         <v>12</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>32</v>
@@ -2083,7 +2144,7 @@
         <v>8</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2094,10 +2155,10 @@
         <v>12</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>32</v>
@@ -2106,7 +2167,7 @@
         <v>8</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2117,10 +2178,10 @@
         <v>12</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>32</v>
@@ -2129,7 +2190,7 @@
         <v>8</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2140,10 +2201,10 @@
         <v>12</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>32</v>
@@ -2152,7 +2213,7 @@
         <v>8</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2163,10 +2224,10 @@
         <v>12</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>32</v>
@@ -2175,7 +2236,7 @@
         <v>8</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2186,10 +2247,10 @@
         <v>12</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>32</v>
@@ -2198,7 +2259,7 @@
         <v>8</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2209,10 +2270,10 @@
         <v>12</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>32</v>
@@ -2221,7 +2282,7 @@
         <v>8</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>148</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2232,10 +2293,10 @@
         <v>12</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>32</v>
@@ -2244,7 +2305,7 @@
         <v>8</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>90</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2255,10 +2316,10 @@
         <v>12</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>32</v>
@@ -2267,7 +2328,7 @@
         <v>8</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2278,10 +2339,10 @@
         <v>12</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>32</v>
@@ -2290,7 +2351,7 @@
         <v>8</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2301,10 +2362,10 @@
         <v>12</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>32</v>
@@ -2313,7 +2374,7 @@
         <v>8</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2324,10 +2385,10 @@
         <v>12</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>32</v>
@@ -2336,7 +2397,7 @@
         <v>8</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2347,10 +2408,10 @@
         <v>12</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>32</v>
@@ -2359,7 +2420,7 @@
         <v>8</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2370,10 +2431,10 @@
         <v>12</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>32</v>
@@ -2382,7 +2443,7 @@
         <v>8</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2393,10 +2454,10 @@
         <v>12</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>32</v>
@@ -2405,7 +2466,7 @@
         <v>8</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2416,10 +2477,10 @@
         <v>12</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>32</v>
@@ -2428,7 +2489,7 @@
         <v>8</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2439,10 +2500,10 @@
         <v>12</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>32</v>
@@ -2451,7 +2512,7 @@
         <v>8</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
     </row>
     <row r="59" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2462,10 +2523,10 @@
         <v>12</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>32</v>
@@ -2474,27 +2535,30 @@
         <v>8</v>
       </c>
       <c r="I59" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I60" s="3" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -2505,10 +2569,10 @@
         <v>12</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>37</v>
@@ -2525,10 +2589,10 @@
         <v>12</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>37</v>
@@ -2545,10 +2609,10 @@
         <v>12</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>37</v>
@@ -2565,13 +2629,13 @@
         <v>12</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>8</v>
@@ -2585,10 +2649,10 @@
         <v>12</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>38</v>
@@ -2605,10 +2669,10 @@
         <v>12</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>38</v>
@@ -2625,10 +2689,10 @@
         <v>12</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>38</v>
@@ -2637,88 +2701,101 @@
         <v>8</v>
       </c>
     </row>
+    <row r="68" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:P2 J6:P12 J14:P16 J24:P25 J27:P29 J18:P22 J35:P35 J37:P38 J49:P1048576 J40:P47">
-    <cfRule type="expression" dxfId="11" priority="12">
+  <conditionalFormatting sqref="J1:P2 J6:P8 J15:P17 J25:P26 J28:P30 J19:P23 J36:P36 J38:P39 J41:P48 J50:P1048576 J10:P13">
+    <cfRule type="expression" dxfId="12" priority="13">
       <formula>IF(OR($B1="O365Group",$B1="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:P5">
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="11" priority="12">
       <formula>IF(OR($B3="O365Group",$B3="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J13:P13">
-    <cfRule type="expression" dxfId="9" priority="10">
-      <formula>IF(OR($B13="O365Group",$B13="Type"),faslch,TRUE)</formula>
+  <conditionalFormatting sqref="J14:P14">
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>IF(OR($B14="O365Group",$B14="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J23:P23">
-    <cfRule type="expression" dxfId="8" priority="9">
-      <formula>IF(OR($B23="O365Group",$B23="Type"),faslch,TRUE)</formula>
+  <conditionalFormatting sqref="J24:P24">
+    <cfRule type="expression" dxfId="9" priority="10">
+      <formula>IF(OR($B24="O365Group",$B24="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J26:P26">
-    <cfRule type="expression" dxfId="7" priority="8">
-      <formula>IF(OR($B26="O365Group",$B26="Type"),faslch,TRUE)</formula>
+  <conditionalFormatting sqref="J27:P27">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>IF(OR($B27="O365Group",$B27="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J30:P30">
-    <cfRule type="expression" dxfId="6" priority="7">
-      <formula>IF(OR($B30="O365Group",$B30="Type"),faslch,TRUE)</formula>
+  <conditionalFormatting sqref="J31:P31">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>IF(OR($B31="O365Group",$B31="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J17:P17">
-    <cfRule type="expression" dxfId="5" priority="6">
-      <formula>IF(OR($B17="O365Group",$B17="Type"),faslch,TRUE)</formula>
+  <conditionalFormatting sqref="J18:P18">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>IF(OR($B18="O365Group",$B18="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J48:P48">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>IF(OR($B48="O365Group",$B48="Type"),faslch,TRUE)</formula>
+  <conditionalFormatting sqref="J49:P49">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>IF(OR($B49="O365Group",$B49="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J32:P34">
+  <conditionalFormatting sqref="J33:P35">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>IF(OR($B33="O365Group",$B33="Type"),faslch,TRUE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J32:P32">
     <cfRule type="expression" dxfId="3" priority="4">
       <formula>IF(OR($B32="O365Group",$B32="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J31:P31">
+  <conditionalFormatting sqref="J37:P37">
     <cfRule type="expression" dxfId="2" priority="3">
-      <formula>IF(OR($B31="O365Group",$B31="Type"),faslch,TRUE)</formula>
+      <formula>IF(OR($B37="O365Group",$B37="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J36:P36">
+  <conditionalFormatting sqref="J40:P40">
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>IF(OR($B36="O365Group",$B36="Type"),faslch,TRUE)</formula>
+      <formula>IF(OR($B40="O365Group",$B40="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J39:P39">
+  <conditionalFormatting sqref="J9:P9">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>IF(OR($B39="O365Group",$B39="Type"),faslch,TRUE)</formula>
+      <formula>IF(OR($B9="O365Group",$B9="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="R9" r:id="rId1" xr:uid="{6406F3B4-332F-49FC-A4BF-E9A46FEED504}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100DBA446ED503E744880217BF491FB0C7B" ma:contentTypeVersion="10" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="27f6ebb53777ae95e550442d3878210b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="353a1f37-f986-455b-adc7-292fbd315350" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="71df197f0939a0ed9a29c200b6a3be36" ns2:_="">
     <xsd:import namespace="353a1f37-f986-455b-adc7-292fbd315350"/>
@@ -2902,10 +2979,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB80E815-258B-4085-B06C-0327483055A8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2534DDDA-BE8A-43DA-A0C1-B6D96DC767B2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="353a1f37-f986-455b-adc7-292fbd315350"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2927,19 +3029,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2534DDDA-BE8A-43DA-A0C1-B6D96DC767B2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB80E815-258B-4085-B06C-0327483055A8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="353a1f37-f986-455b-adc7-292fbd315350"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/aad/Gruppen.xlsx
+++ b/data/aad/Gruppen.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0353B1B5-FA76-4349-B814-961782206CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D165C9EC-935C-415A-BD00-409EE9B90799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11400" yWindow="2676" windowWidth="21456" windowHeight="12624" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7056" yWindow="3192" windowWidth="30960" windowHeight="12312" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gruppen" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="181">
   <si>
     <t>Type</t>
   </si>
@@ -102,9 +102,6 @@
     <t>MFA is enabled for members in this group</t>
   </si>
   <si>
-    <t>Members of this group can register devices</t>
-  </si>
-  <si>
     <t>Holds all devices with a standard configuration</t>
   </si>
   <si>
@@ -565,6 +562,12 @@
   </si>
   <si>
     <t>Holds all users with specified plan assigned</t>
+  </si>
+  <si>
+    <t>Members of this group can register devices and have local admin rights</t>
+  </si>
+  <si>
+    <t>AllowAzureAdRoles</t>
   </si>
 </sst>
 </file>
@@ -1075,7 +1078,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1139,6 +1144,9 @@
       <c r="P1" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="Q1" s="1" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -1148,10 +1156,10 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -1168,10 +1176,10 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
         <v>24</v>
@@ -1189,13 +1197,13 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F4"/>
       <c r="G4" t="s">
@@ -1210,13 +1218,13 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F5"/>
       <c r="G5" t="s">
@@ -1231,13 +1239,13 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E6" t="s">
         <v>152</v>
-      </c>
-      <c r="D6" t="s">
-        <v>152</v>
-      </c>
-      <c r="E6" t="s">
-        <v>153</v>
       </c>
       <c r="F6"/>
       <c r="G6" t="s">
@@ -1249,25 +1257,25 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G7" t="s">
         <v>8</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J7" t="b">
         <v>1</v>
@@ -1296,19 +1304,19 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G8" t="s">
         <v>8</v>
@@ -1343,25 +1351,25 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9" t="s">
+        <v>177</v>
+      </c>
+      <c r="D9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E9" t="s">
+        <v>178</v>
+      </c>
+      <c r="F9" t="s">
+        <v>177</v>
+      </c>
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" t="s">
         <v>174</v>
-      </c>
-      <c r="C9" t="s">
-        <v>178</v>
-      </c>
-      <c r="D9" t="s">
-        <v>178</v>
-      </c>
-      <c r="E9" t="s">
-        <v>179</v>
-      </c>
-      <c r="F9" t="s">
-        <v>178</v>
-      </c>
-      <c r="G9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" t="s">
-        <v>175</v>
       </c>
       <c r="J9" t="b">
         <v>1</v>
@@ -1385,10 +1393,10 @@
         <v>1</v>
       </c>
       <c r="Q9" t="s">
+        <v>175</v>
+      </c>
+      <c r="R9" s="5" t="s">
         <v>176</v>
-      </c>
-      <c r="R9" s="5" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1399,16 +1407,19 @@
         <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>25</v>
+        <v>179</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="Q10" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1419,19 +1430,19 @@
         <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1442,19 +1453,19 @@
         <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1465,19 +1476,19 @@
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1488,19 +1499,19 @@
         <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1511,19 +1522,19 @@
         <v>12</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1534,19 +1545,19 @@
         <v>12</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1557,19 +1568,19 @@
         <v>12</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1580,19 +1591,19 @@
         <v>12</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1603,19 +1614,19 @@
         <v>12</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1626,19 +1637,19 @@
         <v>12</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1649,19 +1660,19 @@
         <v>12</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1672,19 +1683,19 @@
         <v>12</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1695,19 +1706,19 @@
         <v>12</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1718,19 +1729,19 @@
         <v>12</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1741,19 +1752,19 @@
         <v>12</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E25" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1764,19 +1775,19 @@
         <v>12</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1787,19 +1798,19 @@
         <v>12</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1810,19 +1821,19 @@
         <v>12</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E28" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1833,19 +1844,19 @@
         <v>12</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E29" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1856,19 +1867,19 @@
         <v>12</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E30" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1879,19 +1890,19 @@
         <v>12</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E31" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1902,19 +1913,19 @@
         <v>12</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E32" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1925,19 +1936,19 @@
         <v>12</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E33" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="34" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1948,19 +1959,19 @@
         <v>12</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E34" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H34" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="35" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1971,19 +1982,19 @@
         <v>12</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E35" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1994,19 +2005,19 @@
         <v>12</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2017,19 +2028,19 @@
         <v>12</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2040,19 +2051,19 @@
         <v>12</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2063,19 +2074,19 @@
         <v>12</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2086,19 +2097,19 @@
         <v>12</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2109,19 +2120,19 @@
         <v>12</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2132,19 +2143,19 @@
         <v>12</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2155,19 +2166,19 @@
         <v>12</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2178,19 +2189,19 @@
         <v>12</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2201,19 +2212,19 @@
         <v>12</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2224,19 +2235,19 @@
         <v>12</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2247,19 +2258,19 @@
         <v>12</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2270,19 +2281,19 @@
         <v>12</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2293,19 +2304,19 @@
         <v>12</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="50" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2316,19 +2327,19 @@
         <v>12</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2339,19 +2350,19 @@
         <v>12</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2362,19 +2373,19 @@
         <v>12</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E52" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="53" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2385,19 +2396,19 @@
         <v>12</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2408,19 +2419,19 @@
         <v>12</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2431,19 +2442,19 @@
         <v>12</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2454,19 +2465,19 @@
         <v>12</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2477,19 +2488,19 @@
         <v>12</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2500,19 +2511,19 @@
         <v>12</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2523,19 +2534,19 @@
         <v>12</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2546,19 +2557,19 @@
         <v>12</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="61" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -2569,13 +2580,13 @@
         <v>12</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>8</v>
@@ -2589,13 +2600,13 @@
         <v>12</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>8</v>
@@ -2609,13 +2620,13 @@
         <v>12</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>8</v>
@@ -2629,13 +2640,13 @@
         <v>12</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>8</v>
@@ -2649,13 +2660,13 @@
         <v>12</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>8</v>
@@ -2669,13 +2680,13 @@
         <v>12</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>8</v>
@@ -2689,13 +2700,13 @@
         <v>12</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>8</v>
@@ -2709,13 +2720,13 @@
         <v>12</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>8</v>

--- a/data/aad/Gruppen.xlsx
+++ b/data/aad/Gruppen.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D165C9EC-935C-415A-BD00-409EE9B90799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ABC1CCE-3435-4AA0-8D56-4BAE95B4C285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7056" yWindow="3192" windowWidth="30960" windowHeight="12312" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="372" yWindow="348" windowWidth="33456" windowHeight="15528" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gruppen" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="182">
   <si>
     <t>Type</t>
   </si>
@@ -568,6 +568,9 @@
   </si>
   <si>
     <t>AllowAzureAdRoles</t>
+  </si>
+  <si>
+    <t>Remarks</t>
   </si>
 </sst>
 </file>
@@ -1076,11 +1079,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R68"/>
+  <dimension ref="A1:S68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1095,7 +1096,7 @@
     <col min="9" max="9" width="24.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -1147,8 +1148,11 @@
       <c r="Q1" s="1" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R1" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1168,7 +1172,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1189,7 +1193,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1210,7 +1214,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -1231,7 +1235,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1252,7 +1256,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1299,7 +1303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1346,7 +1350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1392,14 +1396,14 @@
       <c r="P9" t="b">
         <v>1</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>175</v>
       </c>
-      <c r="R9" s="5" t="s">
+      <c r="S9" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
@@ -1422,7 +1426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
@@ -1445,7 +1449,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -1468,7 +1472,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
@@ -1491,7 +1495,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
@@ -1514,7 +1518,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
@@ -1537,7 +1541,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
@@ -2799,7 +2803,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="R9" r:id="rId1" xr:uid="{6406F3B4-332F-49FC-A4BF-E9A46FEED504}"/>
+    <hyperlink ref="S9" r:id="rId1" xr:uid="{6406F3B4-332F-49FC-A4BF-E9A46FEED504}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -2807,6 +2811,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100DBA446ED503E744880217BF491FB0C7B" ma:contentTypeVersion="10" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="27f6ebb53777ae95e550442d3878210b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="353a1f37-f986-455b-adc7-292fbd315350" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="71df197f0939a0ed9a29c200b6a3be36" ns2:_="">
     <xsd:import namespace="353a1f37-f986-455b-adc7-292fbd315350"/>
@@ -2990,12 +3000,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3006,6 +3010,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18209EA7-04F6-445D-8F30-F19FC7D76916}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e7596eec-0011-44fa-9047-92dcd650b5d7"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2534DDDA-BE8A-43DA-A0C1-B6D96DC767B2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3023,22 +3043,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18209EA7-04F6-445D-8F30-F19FC7D76916}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="e7596eec-0011-44fa-9047-92dcd650b5d7"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB80E815-258B-4085-B06C-0327483055A8}">
   <ds:schemaRefs>

--- a/data/aad/Gruppen.xlsx
+++ b/data/aad/Gruppen.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ABC1CCE-3435-4AA0-8D56-4BAE95B4C285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99A5C8D-B390-4133-932C-62E202C49DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="372" yWindow="348" windowWidth="33456" windowHeight="15528" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3516" yWindow="1464" windowWidth="26940" windowHeight="14508" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gruppen" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="194">
   <si>
     <t>Type</t>
   </si>
@@ -571,6 +571,42 @@
   </si>
   <si>
     <t>Remarks</t>
+  </si>
+  <si>
+    <t>Holds all Win10 devices with a standard configuration</t>
+  </si>
+  <si>
+    <t>(device.deviceCategory -eq "Standard") -and (device.deviceOSType -match "Windows") -and (device.deviceOSVersion -startsWith "10.0.1")</t>
+  </si>
+  <si>
+    <t>Holds all Win11 devices with a standard configuration</t>
+  </si>
+  <si>
+    <t>(device.deviceCategory -eq "Standard") -and (device.deviceOSType -match "Windows") -and (device.deviceOSVersion -startsWith "10.0.2")</t>
+  </si>
+  <si>
+    <t>Holds all mdm windows 10 devices</t>
+  </si>
+  <si>
+    <t>(device.deviceOSType -match "Windows") -and (device.managementType -eq "MDM") -and (device.deviceOSVersion -startsWith "10.0.1")</t>
+  </si>
+  <si>
+    <t>Holds all mdm windows 11 devices</t>
+  </si>
+  <si>
+    <t>(device.deviceOSType -match "Windows") -and (device.managementType -eq "MDM") -and (device.deviceOSVersion -startsWith "10.0.2")</t>
+  </si>
+  <si>
+    <t>ALYASG-DEV-STANDARDWIN10</t>
+  </si>
+  <si>
+    <t>ALYASG-DEV-STANDARDWIN11</t>
+  </si>
+  <si>
+    <t>ALYASG-DEV-WINMDM10</t>
+  </si>
+  <si>
+    <t>ALYASG-DEV-WINMDM11</t>
   </si>
 </sst>
 </file>
@@ -653,7 +689,35 @@
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1079,7 +1143,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S68"/>
+  <dimension ref="A1:S72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -1457,19 +1521,19 @@
         <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>97</v>
+        <v>190</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>97</v>
+        <v>190</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>27</v>
+        <v>182</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>28</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1480,19 +1544,19 @@
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>98</v>
+        <v>191</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>98</v>
+        <v>191</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>29</v>
+        <v>184</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>30</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1503,19 +1567,19 @@
         <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1526,19 +1590,19 @@
         <v>12</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1549,19 +1613,19 @@
         <v>12</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1572,19 +1636,19 @@
         <v>12</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1595,19 +1659,19 @@
         <v>12</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1618,19 +1682,19 @@
         <v>12</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1641,19 +1705,19 @@
         <v>12</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1664,19 +1728,19 @@
         <v>12</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1687,19 +1751,19 @@
         <v>12</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1710,19 +1774,19 @@
         <v>12</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1733,19 +1797,19 @@
         <v>12</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1756,19 +1820,19 @@
         <v>12</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1779,19 +1843,19 @@
         <v>12</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1802,19 +1866,19 @@
         <v>12</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1825,19 +1889,19 @@
         <v>12</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1848,19 +1912,19 @@
         <v>12</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1871,19 +1935,19 @@
         <v>12</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1894,19 +1958,19 @@
         <v>12</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1917,19 +1981,19 @@
         <v>12</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>165</v>
+        <v>115</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>165</v>
+        <v>115</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>154</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1940,19 +2004,19 @@
         <v>12</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>166</v>
+        <v>116</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>166</v>
+        <v>116</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>155</v>
+        <v>79</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>156</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1963,19 +2027,19 @@
         <v>12</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1986,111 +2050,111 @@
         <v>12</v>
       </c>
       <c r="C35" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H35" s="2" t="s">
+      <c r="G39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H39" s="2" t="s">
         <v>160</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2101,10 +2165,10 @@
         <v>12</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>170</v>
+        <v>117</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>170</v>
+        <v>117</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>31</v>
@@ -2113,7 +2177,7 @@
         <v>8</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>162</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2124,10 +2188,10 @@
         <v>12</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>120</v>
+        <v>169</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>120</v>
+        <v>169</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>31</v>
@@ -2136,7 +2200,7 @@
         <v>8</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>84</v>
+        <v>161</v>
       </c>
     </row>
     <row r="42" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2147,10 +2211,10 @@
         <v>12</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>31</v>
@@ -2159,7 +2223,7 @@
         <v>8</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2170,10 +2234,10 @@
         <v>12</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>31</v>
@@ -2182,7 +2246,7 @@
         <v>8</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2193,10 +2257,10 @@
         <v>12</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>123</v>
+        <v>170</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>123</v>
+        <v>170</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>31</v>
@@ -2205,7 +2269,7 @@
         <v>8</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>86</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2216,10 +2280,10 @@
         <v>12</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>31</v>
@@ -2228,7 +2292,7 @@
         <v>8</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2239,10 +2303,10 @@
         <v>12</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>31</v>
@@ -2251,7 +2315,7 @@
         <v>8</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2262,10 +2326,10 @@
         <v>12</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>31</v>
@@ -2274,7 +2338,7 @@
         <v>8</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2285,10 +2349,10 @@
         <v>12</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>31</v>
@@ -2297,7 +2361,7 @@
         <v>8</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2308,10 +2372,10 @@
         <v>12</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>31</v>
@@ -2320,7 +2384,7 @@
         <v>8</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>147</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2331,10 +2395,10 @@
         <v>12</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>31</v>
@@ -2343,7 +2407,7 @@
         <v>8</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2354,10 +2418,10 @@
         <v>12</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>31</v>
@@ -2366,7 +2430,7 @@
         <v>8</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2377,10 +2441,10 @@
         <v>12</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>31</v>
@@ -2389,7 +2453,7 @@
         <v>8</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2400,10 +2464,10 @@
         <v>12</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>31</v>
@@ -2412,7 +2476,7 @@
         <v>8</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
     </row>
     <row r="54" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2423,10 +2487,10 @@
         <v>12</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>31</v>
@@ -2435,7 +2499,7 @@
         <v>8</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
     </row>
     <row r="55" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2446,10 +2510,10 @@
         <v>12</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>31</v>
@@ -2458,7 +2522,7 @@
         <v>8</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2469,10 +2533,10 @@
         <v>12</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>31</v>
@@ -2481,7 +2545,7 @@
         <v>8</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>91</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2492,10 +2556,10 @@
         <v>12</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>31</v>
@@ -2504,7 +2568,7 @@
         <v>8</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2515,10 +2579,10 @@
         <v>12</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>31</v>
@@ -2527,7 +2591,7 @@
         <v>8</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2538,10 +2602,10 @@
         <v>12</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>31</v>
@@ -2550,7 +2614,7 @@
         <v>8</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2561,10 +2625,10 @@
         <v>12</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>31</v>
@@ -2573,87 +2637,99 @@
         <v>8</v>
       </c>
       <c r="I60" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I64" s="3" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -2664,13 +2740,13 @@
         <v>12</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>8</v>
@@ -2684,13 +2760,13 @@
         <v>12</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>8</v>
@@ -2704,13 +2780,13 @@
         <v>12</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>8</v>
@@ -2724,82 +2800,182 @@
         <v>12</v>
       </c>
       <c r="C68" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D72" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="E68" s="4" t="s">
+      <c r="E72" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G68" s="4" t="s">
+      <c r="G72" s="4" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:P2 J6:P8 J15:P17 J25:P26 J28:P30 J19:P23 J36:P36 J38:P39 J41:P48 J50:P1048576 J10:P13">
-    <cfRule type="expression" dxfId="12" priority="13">
+  <conditionalFormatting sqref="J1:P2 J6:P8 J17:P19 J27:P28 J30:P32 J21:P25 J40:P40 J42:P43 J45:P52 J10:P11 J14:P15 J54:P1048576">
+    <cfRule type="expression" dxfId="16" priority="17">
       <formula>IF(OR($B1="O365Group",$B1="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:P5">
-    <cfRule type="expression" dxfId="11" priority="12">
+    <cfRule type="expression" dxfId="15" priority="16">
       <formula>IF(OR($B3="O365Group",$B3="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J14:P14">
-    <cfRule type="expression" dxfId="10" priority="11">
-      <formula>IF(OR($B14="O365Group",$B14="Type"),faslch,TRUE)</formula>
+  <conditionalFormatting sqref="J16:P16">
+    <cfRule type="expression" dxfId="14" priority="15">
+      <formula>IF(OR($B16="O365Group",$B16="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J24:P24">
-    <cfRule type="expression" dxfId="9" priority="10">
-      <formula>IF(OR($B24="O365Group",$B24="Type"),faslch,TRUE)</formula>
+  <conditionalFormatting sqref="J26:P26">
+    <cfRule type="expression" dxfId="13" priority="14">
+      <formula>IF(OR($B26="O365Group",$B26="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J27:P27">
-    <cfRule type="expression" dxfId="8" priority="9">
-      <formula>IF(OR($B27="O365Group",$B27="Type"),faslch,TRUE)</formula>
+  <conditionalFormatting sqref="J29:P29">
+    <cfRule type="expression" dxfId="12" priority="13">
+      <formula>IF(OR($B29="O365Group",$B29="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J31:P31">
-    <cfRule type="expression" dxfId="7" priority="8">
-      <formula>IF(OR($B31="O365Group",$B31="Type"),faslch,TRUE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18:P18">
-    <cfRule type="expression" dxfId="6" priority="7">
-      <formula>IF(OR($B18="O365Group",$B18="Type"),faslch,TRUE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J49:P49">
-    <cfRule type="expression" dxfId="5" priority="6">
-      <formula>IF(OR($B49="O365Group",$B49="Type"),faslch,TRUE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J33:P35">
-    <cfRule type="expression" dxfId="4" priority="5">
+  <conditionalFormatting sqref="J33:P33">
+    <cfRule type="expression" dxfId="11" priority="12">
       <formula>IF(OR($B33="O365Group",$B33="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J32:P32">
+  <conditionalFormatting sqref="J20:P20">
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>IF(OR($B20="O365Group",$B20="Type"),faslch,TRUE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J53:P53">
+    <cfRule type="expression" dxfId="9" priority="10">
+      <formula>IF(OR($B53="O365Group",$B53="Type"),faslch,TRUE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J35:P35 J38:P39">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>IF(OR($B35="O365Group",$B35="Type"),faslch,TRUE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J34:P34">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>IF(OR($B34="O365Group",$B34="Type"),faslch,TRUE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J41:P41">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>IF(OR($B41="O365Group",$B41="Type"),faslch,TRUE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J44:P44">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>IF(OR($B44="O365Group",$B44="Type"),faslch,TRUE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9:P9">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>IF(OR($B9="O365Group",$B9="Type"),faslch,TRUE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12:P12">
     <cfRule type="expression" dxfId="3" priority="4">
-      <formula>IF(OR($B32="O365Group",$B32="Type"),faslch,TRUE)</formula>
+      <formula>IF(OR($B12="O365Group",$B12="Type"),faslch,TRUE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13:P13">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>IF(OR($B13="O365Group",$B13="Type"),faslch,TRUE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J36:P36">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>IF(OR($B36="O365Group",$B36="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37:P37">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>IF(OR($B37="O365Group",$B37="Type"),faslch,TRUE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J40:P40">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>IF(OR($B40="O365Group",$B40="Type"),faslch,TRUE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J9:P9">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>IF(OR($B9="O365Group",$B9="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -2811,12 +2987,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100DBA446ED503E744880217BF491FB0C7B" ma:contentTypeVersion="10" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="27f6ebb53777ae95e550442d3878210b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="353a1f37-f986-455b-adc7-292fbd315350" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="71df197f0939a0ed9a29c200b6a3be36" ns2:_="">
     <xsd:import namespace="353a1f37-f986-455b-adc7-292fbd315350"/>
@@ -3000,6 +3170,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3010,22 +3186,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18209EA7-04F6-445D-8F30-F19FC7D76916}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="e7596eec-0011-44fa-9047-92dcd650b5d7"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2534DDDA-BE8A-43DA-A0C1-B6D96DC767B2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3043,6 +3203,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18209EA7-04F6-445D-8F30-F19FC7D76916}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e7596eec-0011-44fa-9047-92dcd650b5d7"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB80E815-258B-4085-B06C-0327483055A8}">
   <ds:schemaRefs>

--- a/data/aad/Gruppen.xlsx
+++ b/data/aad/Gruppen.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99A5C8D-B390-4133-932C-62E202C49DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19BEC981-3CDF-4525-A5CD-0E8F5ABA96A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3516" yWindow="1464" windowWidth="26940" windowHeight="14508" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="972" yWindow="2352" windowWidth="20652" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gruppen" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="257">
   <si>
     <t>Type</t>
   </si>
@@ -276,9 +276,6 @@
     <t>AAD_PREMIUM_P2</t>
   </si>
   <si>
-    <t>MCOCAP</t>
-  </si>
-  <si>
     <t>DYN365_ENTERPRISE_PLAN1</t>
   </si>
   <si>
@@ -384,9 +381,6 @@
     <t>ALYASG-LIC-AADP2</t>
   </si>
   <si>
-    <t>ALYASG-LIC-COMMPHONE</t>
-  </si>
-  <si>
     <t>ALYASG-LIC-DYN365P1</t>
   </si>
   <si>
@@ -513,9 +507,6 @@
     <t>AAD_PREMIUM</t>
   </si>
   <si>
-    <t>MCOEV</t>
-  </si>
-  <si>
     <t>ALYASG-ADM-SSPRENABLED</t>
   </si>
   <si>
@@ -537,9 +528,6 @@
     <t>ALYASG-LIC-AADP1</t>
   </si>
   <si>
-    <t>ALYASG-LIC-PHONESTD</t>
-  </si>
-  <si>
     <t>ALYAMG-ADM-AlleInternen</t>
   </si>
   <si>
@@ -607,6 +595,207 @@
   </si>
   <si>
     <t>ALYASG-DEV-WINMDM11</t>
+  </si>
+  <si>
+    <t>ADGroup</t>
+  </si>
+  <si>
+    <t>ALYASG-ADM-MFADISABLEDCLOUD</t>
+  </si>
+  <si>
+    <t>ALYASG-ADM-MFADISABLEDONPREM</t>
+  </si>
+  <si>
+    <t>ALYASG-ADM-MFAENABLEDCLOUD</t>
+  </si>
+  <si>
+    <t>ALYASG-ADM-MFAENABLEDONPREM</t>
+  </si>
+  <si>
+    <t>ALYASG-ADM-M365GROUPMANAGERSONPREM</t>
+  </si>
+  <si>
+    <t>ALYASG-ADM-M365GROUPMANAGERSCLOUD</t>
+  </si>
+  <si>
+    <t>ALYASG-DEV-ADMINSONPREM</t>
+  </si>
+  <si>
+    <t>ALYASG-DEV-ADMINSCLOUD</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-PHONESTD?DOnotUSE</t>
+  </si>
+  <si>
+    <t>MCOEV needs to be added to an other group containing teams</t>
+  </si>
+  <si>
+    <t>MCOCAP needs to be added to an other group containing teams</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-COMMPHONE?DOnotUSE</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-EXCHARCHIVE</t>
+  </si>
+  <si>
+    <t>EXCHANGEARCHIVE_ADDON</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-AADBASICONPREM</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-AADP1ONPREM</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-AADP2ONPREM</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-COMMPHONEONPREM?DOnotUSE</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-PHONESTDONPREM?DOnotUSE</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-DYN365P1ONPREM</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-EMSONPREM</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-EXCHKIOSKONPREM</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-EXCHP1ONPREM</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-FLOWFREEONPREM</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-INTUNEONPREM</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-MS365BUSBASICFULLONPREM</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-MS365BUSSTDFULLONPREM</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-MS365BUSPREMFULLONPREM</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-MS365E3FULLONPREM</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-MS365E5FULLONPREM</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-O365E1FULLONPREM</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-O365E3FULLONPREM</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-PBIFREEONPREM</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-PBIPROONPREM</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-SMBAPPSONPREM</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-VIRTPHONEONPREM</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-SPP1ONPREM</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-VISIO2ONPREM</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-VIVATOPONPREM</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-EXCHARCHIVEONPREM</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-AADBASICCLOUD</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-AADP1CLOUD</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-AADP2CLOUD</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-COMMPHONECLOUD?DOnotUSE</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-PHONESTDCLOUD?DOnotUSE</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-DYN365P1CLOUD</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-EMSCLOUD</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-EXCHKIOSKCLOUD</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-EXCHP1CLOUD</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-FLOWFREECLOUD</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-INTUNECLOUD</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-MS365BUSBASICFULLCLOUD</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-MS365BUSSTDFULLCLOUD</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-MS365BUSPREMFULLCLOUD</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-MS365E3FULLCLOUD</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-MS365E5FULLCLOUD</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-O365E1FULLCLOUD</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-O365E3FULLCLOUD</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-PBIFREECLOUD</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-PBIPROCLOUD</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-SMBAPPSCLOUD</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-SPP1CLOUD</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-VIRTPHONECLOUD</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-VISIO2CLOUD</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-VIVATOPCLOUD</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-EXCHARCHIVECLOUD</t>
   </si>
 </sst>
 </file>
@@ -638,7 +827,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -663,6 +852,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -677,19 +872,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="23">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1143,9 +1381,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S72"/>
+  <dimension ref="A1:S133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1210,10 +1448,10 @@
         <v>22</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -1236,7 +1474,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1244,36 +1482,34 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>191</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>191</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3"/>
+        <v>7</v>
+      </c>
       <c r="G3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="C4" t="s">
-        <v>163</v>
+        <v>192</v>
       </c>
       <c r="D4" t="s">
-        <v>163</v>
+        <v>192</v>
       </c>
       <c r="E4" t="s">
-        <v>149</v>
-      </c>
-      <c r="F4"/>
+        <v>7</v>
+      </c>
       <c r="G4" t="s">
         <v>8</v>
       </c>
@@ -1286,13 +1522,13 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>164</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>164</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>150</v>
+        <v>24</v>
       </c>
       <c r="F5"/>
       <c r="G5" t="s">
@@ -1301,308 +1537,296 @@
     </row>
     <row r="6" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>151</v>
+        <v>193</v>
       </c>
       <c r="D6" t="s">
-        <v>151</v>
+        <v>193</v>
       </c>
       <c r="E6" t="s">
-        <v>152</v>
+        <v>24</v>
       </c>
       <c r="F6"/>
       <c r="G6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7"/>
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F8"/>
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E9" t="s">
+        <v>148</v>
+      </c>
+      <c r="F9"/>
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E10" t="s">
+        <v>150</v>
+      </c>
+      <c r="F10"/>
+      <c r="G10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>196</v>
+      </c>
+      <c r="D11" t="s">
+        <v>196</v>
+      </c>
+      <c r="E11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F11"/>
+      <c r="G11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C12" t="s">
+        <v>195</v>
+      </c>
+      <c r="D12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E12" t="s">
+        <v>150</v>
+      </c>
+      <c r="F12"/>
+      <c r="G12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>169</v>
+      </c>
+      <c r="C13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D13" t="s">
+        <v>167</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>167</v>
+      </c>
+      <c r="G13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" t="b">
+        <v>1</v>
+      </c>
+      <c r="M13" t="b">
+        <v>0</v>
+      </c>
+      <c r="N13" t="b">
+        <v>0</v>
+      </c>
+      <c r="O13" t="b">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>169</v>
+      </c>
+      <c r="C14" t="s">
+        <v>168</v>
+      </c>
+      <c r="D14" t="s">
+        <v>168</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>168</v>
+      </c>
+      <c r="G14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" t="b">
+        <v>1</v>
+      </c>
+      <c r="M14" t="b">
+        <v>0</v>
+      </c>
+      <c r="N14" t="b">
+        <v>0</v>
+      </c>
+      <c r="O14" t="b">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>169</v>
+      </c>
+      <c r="C15" t="s">
         <v>173</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D15" t="s">
+        <v>173</v>
+      </c>
+      <c r="E15" t="s">
+        <v>174</v>
+      </c>
+      <c r="F15" t="s">
+        <v>173</v>
+      </c>
+      <c r="G15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" t="s">
+        <v>170</v>
+      </c>
+      <c r="J15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" t="b">
+        <v>1</v>
+      </c>
+      <c r="M15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N15" t="b">
+        <v>0</v>
+      </c>
+      <c r="O15" t="b">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>1</v>
+      </c>
+      <c r="R15" t="s">
         <v>171</v>
       </c>
-      <c r="D7" t="s">
-        <v>171</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" t="s">
-        <v>46</v>
-      </c>
-      <c r="J7" t="b">
-        <v>1</v>
-      </c>
-      <c r="K7" t="b">
-        <v>1</v>
-      </c>
-      <c r="L7" t="b">
-        <v>1</v>
-      </c>
-      <c r="M7" t="b">
-        <v>0</v>
-      </c>
-      <c r="N7" t="b">
-        <v>0</v>
-      </c>
-      <c r="O7" t="b">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>173</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="S15" s="5" t="s">
         <v>172</v>
-      </c>
-      <c r="D8" t="s">
-        <v>172</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
-        <v>172</v>
-      </c>
-      <c r="G8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" t="b">
-        <v>1</v>
-      </c>
-      <c r="K8" t="b">
-        <v>1</v>
-      </c>
-      <c r="L8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M8" t="b">
-        <v>0</v>
-      </c>
-      <c r="N8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O8" t="b">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>173</v>
-      </c>
-      <c r="C9" t="s">
-        <v>177</v>
-      </c>
-      <c r="D9" t="s">
-        <v>177</v>
-      </c>
-      <c r="E9" t="s">
-        <v>178</v>
-      </c>
-      <c r="F9" t="s">
-        <v>177</v>
-      </c>
-      <c r="G9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" t="s">
-        <v>174</v>
-      </c>
-      <c r="J9" t="b">
-        <v>1</v>
-      </c>
-      <c r="K9" t="b">
-        <v>1</v>
-      </c>
-      <c r="L9" t="b">
-        <v>1</v>
-      </c>
-      <c r="M9" t="b">
-        <v>0</v>
-      </c>
-      <c r="N9" t="b">
-        <v>0</v>
-      </c>
-      <c r="O9" t="b">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>1</v>
-      </c>
-      <c r="R9" t="s">
-        <v>175</v>
-      </c>
-      <c r="S9" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q10" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1613,387 +1837,384 @@
         <v>12</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q16" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q17" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="E25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="E26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="E27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="E28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="E29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="E30" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="E31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E24" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H24" s="2" t="s">
+      <c r="G32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="2" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2004,19 +2225,19 @@
         <v>12</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2027,19 +2248,19 @@
         <v>12</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>165</v>
+        <v>108</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>165</v>
+        <v>108</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>153</v>
+        <v>66</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>154</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2050,19 +2271,19 @@
         <v>12</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>166</v>
+        <v>109</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>166</v>
+        <v>109</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>155</v>
+        <v>68</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>156</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2073,19 +2294,19 @@
         <v>12</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>192</v>
+        <v>110</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>192</v>
+        <v>110</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>186</v>
+        <v>70</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>187</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2096,19 +2317,19 @@
         <v>12</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>193</v>
+        <v>111</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>193</v>
+        <v>111</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>188</v>
+        <v>41</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>189</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2119,19 +2340,19 @@
         <v>12</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>167</v>
+        <v>112</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>167</v>
+        <v>112</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>158</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2142,203 +2363,203 @@
         <v>12</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>168</v>
+        <v>113</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>168</v>
+        <v>113</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>159</v>
+        <v>75</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I44" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>33</v>
+      <c r="D42" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="48" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2349,10 +2570,10 @@
         <v>12</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>31</v>
@@ -2361,7 +2582,7 @@
         <v>8</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2372,10 +2593,10 @@
         <v>12</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>31</v>
@@ -2384,7 +2605,7 @@
         <v>8</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>35</v>
+        <v>159</v>
       </c>
     </row>
     <row r="50" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2395,10 +2616,10 @@
         <v>12</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>31</v>
@@ -2407,7 +2628,7 @@
         <v>8</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2418,10 +2639,10 @@
         <v>12</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>126</v>
+        <v>202</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>126</v>
+        <v>202</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>31</v>
@@ -2430,7 +2651,7 @@
         <v>8</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>88</v>
+        <v>201</v>
       </c>
     </row>
     <row r="52" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2441,10 +2662,10 @@
         <v>12</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>127</v>
+        <v>199</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>127</v>
+        <v>199</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>31</v>
@@ -2453,7 +2674,7 @@
         <v>8</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>42</v>
+        <v>200</v>
       </c>
     </row>
     <row r="53" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2464,10 +2685,10 @@
         <v>12</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>31</v>
@@ -2476,7 +2697,7 @@
         <v>8</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>147</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2487,10 +2708,10 @@
         <v>12</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>31</v>
@@ -2499,7 +2720,7 @@
         <v>8</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2510,10 +2731,10 @@
         <v>12</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>31</v>
@@ -2522,7 +2743,7 @@
         <v>8</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2533,10 +2754,10 @@
         <v>12</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>31</v>
@@ -2545,7 +2766,7 @@
         <v>8</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2556,10 +2777,10 @@
         <v>12</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>31</v>
@@ -2568,7 +2789,7 @@
         <v>8</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2579,10 +2800,10 @@
         <v>12</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>31</v>
@@ -2591,7 +2812,7 @@
         <v>8</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2602,10 +2823,10 @@
         <v>12</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>31</v>
@@ -2614,7 +2835,7 @@
         <v>8</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2625,10 +2846,10 @@
         <v>12</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>31</v>
@@ -2637,7 +2858,7 @@
         <v>8</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
     </row>
     <row r="61" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2648,10 +2869,10 @@
         <v>12</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>31</v>
@@ -2660,7 +2881,7 @@
         <v>8</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>92</v>
+        <v>145</v>
       </c>
     </row>
     <row r="62" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2671,10 +2892,10 @@
         <v>12</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>31</v>
@@ -2683,7 +2904,7 @@
         <v>8</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="63" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2694,10 +2915,10 @@
         <v>12</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>31</v>
@@ -2706,7 +2927,7 @@
         <v>8</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2717,269 +2938,1702 @@
         <v>12</v>
       </c>
       <c r="C64" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I74" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I75" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I76" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I77" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I78" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I79" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I80" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I81" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I82" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I83" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I84" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I85" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I86" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G87" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I87" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I88" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I89" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I90" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I91" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I92" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I93" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I94" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G95" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I95" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G96" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I96" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G97" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I97" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G98" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I98" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G99" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I99" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I103" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I107" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I109" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I111" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I112" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I113" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I114" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I118" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I119" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I121" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I123" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I124" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I125" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G126" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C127" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D127" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E64" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I64" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C65" s="4" t="s">
+      <c r="E127" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G127" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C128" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="D128" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E65" s="4" t="s">
+      <c r="E128" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G65" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C66" s="4" t="s">
+      <c r="G128" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C129" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D129" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="E66" s="4" t="s">
+      <c r="E129" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G66" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C67" s="4" t="s">
+      <c r="G129" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C130" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="D130" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E67" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C68" s="4" t="s">
+      <c r="E130" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C131" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D131" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="E68" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C69" s="4" t="s">
+      <c r="E131" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C132" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D132" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E69" s="4" t="s">
+      <c r="E132" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G69" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C70" s="4" t="s">
+      <c r="G132" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C133" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D133" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="E70" s="4" t="s">
+      <c r="E133" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G70" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G72" s="4" t="s">
+      <c r="G133" s="4" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:P2 J6:P8 J17:P19 J27:P28 J30:P32 J21:P25 J40:P40 J42:P43 J45:P52 J10:P11 J14:P15 J54:P1048576">
-    <cfRule type="expression" dxfId="16" priority="17">
+  <conditionalFormatting sqref="J25:P27 J35:P36 J38:P40 J29:P33 J48:P48 J50:P51 J53:P60 J22:P23 J1:P7 J10:P14 J16:P19 J62:P74 J76:P77 J79:P86 J88:P100 J102:P103 J105:P112 J114:P1048576">
+    <cfRule type="expression" dxfId="22" priority="25">
       <formula>IF(OR($B1="O365Group",$B1="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:P5">
-    <cfRule type="expression" dxfId="15" priority="16">
-      <formula>IF(OR($B3="O365Group",$B3="Type"),faslch,TRUE)</formula>
+  <conditionalFormatting sqref="J8:P9">
+    <cfRule type="expression" dxfId="21" priority="24">
+      <formula>IF(OR($B8="O365Group",$B8="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J16:P16">
-    <cfRule type="expression" dxfId="14" priority="15">
-      <formula>IF(OR($B16="O365Group",$B16="Type"),faslch,TRUE)</formula>
+  <conditionalFormatting sqref="J24:P24">
+    <cfRule type="expression" dxfId="20" priority="23">
+      <formula>IF(OR($B24="O365Group",$B24="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J26:P26">
-    <cfRule type="expression" dxfId="13" priority="14">
-      <formula>IF(OR($B26="O365Group",$B26="Type"),faslch,TRUE)</formula>
+  <conditionalFormatting sqref="J34:P34">
+    <cfRule type="expression" dxfId="19" priority="22">
+      <formula>IF(OR($B34="O365Group",$B34="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J29:P29">
-    <cfRule type="expression" dxfId="12" priority="13">
-      <formula>IF(OR($B29="O365Group",$B29="Type"),faslch,TRUE)</formula>
+  <conditionalFormatting sqref="J37:P37">
+    <cfRule type="expression" dxfId="18" priority="21">
+      <formula>IF(OR($B37="O365Group",$B37="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J33:P33">
-    <cfRule type="expression" dxfId="11" priority="12">
-      <formula>IF(OR($B33="O365Group",$B33="Type"),faslch,TRUE)</formula>
+  <conditionalFormatting sqref="J41:P41">
+    <cfRule type="expression" dxfId="17" priority="20">
+      <formula>IF(OR($B41="O365Group",$B41="Type"),faslch,TRUE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J28:P28">
+    <cfRule type="expression" dxfId="16" priority="19">
+      <formula>IF(OR($B28="O365Group",$B28="Type"),faslch,TRUE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J61:P61">
+    <cfRule type="expression" dxfId="15" priority="18">
+      <formula>IF(OR($B61="O365Group",$B61="Type"),faslch,TRUE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J43:P43 J46:P47">
+    <cfRule type="expression" dxfId="14" priority="17">
+      <formula>IF(OR($B43="O365Group",$B43="Type"),faslch,TRUE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J42:P42">
+    <cfRule type="expression" dxfId="13" priority="16">
+      <formula>IF(OR($B42="O365Group",$B42="Type"),faslch,TRUE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J49:P49">
+    <cfRule type="expression" dxfId="12" priority="15">
+      <formula>IF(OR($B49="O365Group",$B49="Type"),faslch,TRUE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J52:P52">
+    <cfRule type="expression" dxfId="11" priority="14">
+      <formula>IF(OR($B52="O365Group",$B52="Type"),faslch,TRUE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15:P15">
+    <cfRule type="expression" dxfId="10" priority="13">
+      <formula>IF(OR($B15="O365Group",$B15="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20:P20">
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="9" priority="12">
       <formula>IF(OR($B20="O365Group",$B20="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J53:P53">
-    <cfRule type="expression" dxfId="9" priority="10">
-      <formula>IF(OR($B53="O365Group",$B53="Type"),faslch,TRUE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J35:P35 J38:P39">
-    <cfRule type="expression" dxfId="8" priority="9">
-      <formula>IF(OR($B35="O365Group",$B35="Type"),faslch,TRUE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J34:P34">
-    <cfRule type="expression" dxfId="7" priority="8">
-      <formula>IF(OR($B34="O365Group",$B34="Type"),faslch,TRUE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J41:P41">
-    <cfRule type="expression" dxfId="6" priority="7">
-      <formula>IF(OR($B41="O365Group",$B41="Type"),faslch,TRUE)</formula>
+  <conditionalFormatting sqref="J21:P21">
+    <cfRule type="expression" dxfId="8" priority="11">
+      <formula>IF(OR($B21="O365Group",$B21="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44:P44">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="7" priority="10">
       <formula>IF(OR($B44="O365Group",$B44="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J9:P9">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>IF(OR($B9="O365Group",$B9="Type"),faslch,TRUE)</formula>
+  <conditionalFormatting sqref="J45:P45">
+    <cfRule type="expression" dxfId="6" priority="9">
+      <formula>IF(OR($B45="O365Group",$B45="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J12:P12">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>IF(OR($B12="O365Group",$B12="Type"),faslch,TRUE)</formula>
+  <conditionalFormatting sqref="J87:P87">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>IF(OR($B87="O365Group",$B87="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J13:P13">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>IF(OR($B13="O365Group",$B13="Type"),faslch,TRUE)</formula>
+  <conditionalFormatting sqref="J75:P75">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>IF(OR($B75="O365Group",$B75="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J36:P36">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>IF(OR($B36="O365Group",$B36="Type"),faslch,TRUE)</formula>
+  <conditionalFormatting sqref="J78:P78">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>IF(OR($B78="O365Group",$B78="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J37:P37">
+  <conditionalFormatting sqref="J113:P113">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>IF(OR($B113="O365Group",$B113="Type"),faslch,TRUE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J101:P101">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>IF(OR($B101="O365Group",$B101="Type"),faslch,TRUE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J104:P104">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>IF(OR($B37="O365Group",$B37="Type"),faslch,TRUE)</formula>
+      <formula>IF(OR($B104="O365Group",$B104="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="S9" r:id="rId1" xr:uid="{6406F3B4-332F-49FC-A4BF-E9A46FEED504}"/>
+    <hyperlink ref="S15" r:id="rId1" xr:uid="{6406F3B4-332F-49FC-A4BF-E9A46FEED504}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -2987,6 +4641,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100DBA446ED503E744880217BF491FB0C7B" ma:contentTypeVersion="10" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="27f6ebb53777ae95e550442d3878210b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="353a1f37-f986-455b-adc7-292fbd315350" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="71df197f0939a0ed9a29c200b6a3be36" ns2:_="">
     <xsd:import namespace="353a1f37-f986-455b-adc7-292fbd315350"/>
@@ -3170,35 +4839,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2534DDDA-BE8A-43DA-A0C1-B6D96DC767B2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB80E815-258B-4085-B06C-0327483055A8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="353a1f37-f986-455b-adc7-292fbd315350"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3220,9 +4864,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB80E815-258B-4085-B06C-0327483055A8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2534DDDA-BE8A-43DA-A0C1-B6D96DC767B2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="353a1f37-f986-455b-adc7-292fbd315350"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/aad/Gruppen.xlsx
+++ b/data/aad/Gruppen.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19BEC981-3CDF-4525-A5CD-0E8F5ABA96A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41C8C55-6337-48D9-A6C2-0623A92D9321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="972" yWindow="2352" windowWidth="20652" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4704" yWindow="3012" windowWidth="30960" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gruppen" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="261">
   <si>
     <t>Type</t>
   </si>
@@ -796,6 +796,18 @@
   </si>
   <si>
     <t>ALYASG-LIC-EXCHARCHIVECLOUD</t>
+  </si>
+  <si>
+    <t>ALYASG-ADM-KEYENABLED</t>
+  </si>
+  <si>
+    <t>ALYASG-ADM-KEYENABLEDCLOUD</t>
+  </si>
+  <si>
+    <t>ALYASG-ADM-KEYENABLEDONPREM</t>
+  </si>
+  <si>
+    <t>KEY sign-in is enabled for members in this group</t>
   </si>
 </sst>
 </file>
@@ -1381,7 +1393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S133"/>
+  <dimension ref="A1:S136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
@@ -1398,7 +1410,7 @@
     <col min="9" max="9" width="24.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -1454,7 +1466,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1474,7 +1486,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1494,7 +1506,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1514,7 +1526,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -1535,7 +1547,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -1556,7 +1568,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -1577,7 +1589,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -1585,20 +1597,20 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>160</v>
+        <v>257</v>
       </c>
       <c r="D8" t="s">
-        <v>160</v>
+        <v>257</v>
       </c>
       <c r="E8" t="s">
-        <v>147</v>
+        <v>260</v>
       </c>
       <c r="F8"/>
       <c r="G8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1606,41 +1618,41 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>161</v>
+        <v>258</v>
       </c>
       <c r="D9" t="s">
-        <v>161</v>
+        <v>258</v>
       </c>
       <c r="E9" t="s">
-        <v>148</v>
+        <v>260</v>
       </c>
       <c r="F9"/>
       <c r="G9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="C10" t="s">
-        <v>149</v>
+        <v>259</v>
       </c>
       <c r="D10" t="s">
-        <v>149</v>
+        <v>259</v>
       </c>
       <c r="E10" t="s">
-        <v>150</v>
+        <v>260</v>
       </c>
       <c r="F10"/>
       <c r="G10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1648,987 +1660,981 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>196</v>
+        <v>160</v>
       </c>
       <c r="D11" t="s">
-        <v>196</v>
+        <v>160</v>
       </c>
       <c r="E11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F11"/>
       <c r="G11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>190</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>195</v>
+        <v>161</v>
       </c>
       <c r="D12" t="s">
-        <v>195</v>
+        <v>161</v>
       </c>
       <c r="E12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F12"/>
       <c r="G12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D13" t="s">
+        <v>149</v>
+      </c>
+      <c r="E13" t="s">
+        <v>150</v>
+      </c>
+      <c r="F13"/>
+      <c r="G13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>196</v>
+      </c>
+      <c r="D14" t="s">
+        <v>196</v>
+      </c>
+      <c r="E14" t="s">
+        <v>150</v>
+      </c>
+      <c r="F14"/>
+      <c r="G14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>190</v>
+      </c>
+      <c r="C15" t="s">
+        <v>195</v>
+      </c>
+      <c r="D15" t="s">
+        <v>195</v>
+      </c>
+      <c r="E15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F15"/>
+      <c r="G15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
         <v>169</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C16" t="s">
         <v>167</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D16" t="s">
         <v>167</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E16" t="s">
         <v>9</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F16" t="s">
         <v>167</v>
       </c>
-      <c r="G13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="G16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" t="s">
         <v>46</v>
       </c>
-      <c r="J13" t="b">
+      <c r="J16" t="b">
         <v>1</v>
       </c>
-      <c r="K13" t="b">
+      <c r="K16" t="b">
         <v>1</v>
       </c>
-      <c r="L13" t="b">
+      <c r="L16" t="b">
         <v>1</v>
       </c>
-      <c r="M13" t="b">
+      <c r="M16" t="b">
         <v>0</v>
       </c>
-      <c r="N13" t="b">
+      <c r="N16" t="b">
         <v>0</v>
       </c>
-      <c r="O13" t="b">
+      <c r="O16" t="b">
         <v>0</v>
       </c>
-      <c r="P13" t="b">
+      <c r="P16" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B17" t="s">
         <v>169</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C17" t="s">
         <v>168</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D17" t="s">
         <v>168</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E17" t="s">
         <v>10</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F17" t="s">
         <v>168</v>
       </c>
-      <c r="G14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="G17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" t="s">
         <v>11</v>
       </c>
-      <c r="J14" t="b">
+      <c r="J17" t="b">
         <v>1</v>
       </c>
-      <c r="K14" t="b">
+      <c r="K17" t="b">
         <v>1</v>
       </c>
-      <c r="L14" t="b">
+      <c r="L17" t="b">
         <v>1</v>
       </c>
-      <c r="M14" t="b">
+      <c r="M17" t="b">
         <v>0</v>
       </c>
-      <c r="N14" t="b">
+      <c r="N17" t="b">
         <v>0</v>
       </c>
-      <c r="O14" t="b">
+      <c r="O17" t="b">
         <v>0</v>
       </c>
-      <c r="P14" t="b">
+      <c r="P17" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
         <v>169</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C18" t="s">
         <v>173</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D18" t="s">
         <v>173</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E18" t="s">
         <v>174</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F18" t="s">
         <v>173</v>
       </c>
-      <c r="G15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="G18" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" t="s">
         <v>170</v>
       </c>
-      <c r="J15" t="b">
+      <c r="J18" t="b">
         <v>1</v>
       </c>
-      <c r="K15" t="b">
+      <c r="K18" t="b">
         <v>1</v>
       </c>
-      <c r="L15" t="b">
+      <c r="L18" t="b">
         <v>1</v>
       </c>
-      <c r="M15" t="b">
+      <c r="M18" t="b">
         <v>0</v>
       </c>
-      <c r="N15" t="b">
+      <c r="N18" t="b">
         <v>0</v>
       </c>
-      <c r="O15" t="b">
+      <c r="O18" t="b">
         <v>0</v>
       </c>
-      <c r="P15" t="b">
+      <c r="P18" t="b">
         <v>1</v>
       </c>
-      <c r="R15" t="s">
+      <c r="R18" t="s">
         <v>171</v>
       </c>
-      <c r="S15" s="5" t="s">
+      <c r="S18" s="5" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="2" t="s">
+    <row r="19" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q16" s="2" t="b">
+      <c r="G19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q19" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="2" t="s">
+    <row r="20" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q17" s="2" t="b">
+      <c r="G20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q20" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="2" t="s">
+    <row r="21" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="G21" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H19" s="2" t="s">
+      <c r="G22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="2" t="s">
+    <row r="23" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" s="2" t="s">
+      <c r="G23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="21" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="2" t="s">
+    <row r="24" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21" s="2" t="s">
+      <c r="G24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="22" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="2" t="s">
+    <row r="25" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="2" t="s">
+      <c r="G25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="2" t="s">
+    <row r="26" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23" s="2" t="s">
+      <c r="G26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="2" t="s">
+    <row r="27" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H24" s="2" t="s">
+      <c r="G27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="2" t="s">
+    <row r="28" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H25" s="2" t="s">
+      <c r="G28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="2" t="s">
+    <row r="29" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H26" s="2" t="s">
+      <c r="G29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="2" t="s">
+    <row r="30" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H27" s="2" t="s">
+      <c r="G30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="2" t="s">
+    <row r="31" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H28" s="2" t="s">
+      <c r="G31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="2" t="s">
+    <row r="32" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="2" t="s">
+      <c r="G32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="2" t="s">
+    <row r="33" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H30" s="2" t="s">
+      <c r="G33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="2" t="s">
+    <row r="34" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H31" s="2" t="s">
+      <c r="G34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H34" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="2" t="s">
+    <row r="35" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H32" s="2" t="s">
+      <c r="G35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="2" t="s">
+    <row r="36" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H33" s="2" t="s">
+      <c r="G36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H36" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="2" t="s">
+    <row r="37" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H34" s="2" t="s">
+      <c r="G37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H37" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="2" t="s">
+    <row r="38" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H35" s="2" t="s">
+      <c r="G38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H38" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="2" t="s">
+    <row r="39" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H36" s="2" t="s">
+      <c r="G39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H39" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="2" t="s">
+    <row r="40" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H37" s="2" t="s">
+      <c r="G40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H40" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="2" t="s">
+    <row r="41" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H38" s="2" t="s">
+      <c r="G41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H41" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" s="2" t="s">
+    <row r="42" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H39" s="2" t="s">
+      <c r="G42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" s="2" t="s">
+    <row r="43" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G40" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H40" s="2" t="s">
+      <c r="G43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="2" t="s">
+    <row r="44" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G41" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H41" s="2" t="s">
+      <c r="G44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" s="2" t="s">
+    <row r="45" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="G42" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H42" s="2" t="s">
+      <c r="G45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" s="2" t="s">
+    <row r="46" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="G43" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H43" s="2" t="s">
+      <c r="G46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H46" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44" s="2" t="s">
+    <row r="47" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D47" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E47" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G44" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H44" s="2" t="s">
+      <c r="G47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="2" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" s="2" t="s">
+    <row r="48" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D48" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E48" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="G45" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H45" s="2" t="s">
+      <c r="G48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H48" s="2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="46" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46" s="2" t="s">
+    <row r="49" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E49" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="G46" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H46" s="2" t="s">
+      <c r="G49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47" s="2" t="s">
+    <row r="50" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E50" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G47" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H47" s="2" t="s">
+      <c r="G50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H50" s="2" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2639,10 +2645,10 @@
         <v>12</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>202</v>
+        <v>116</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>202</v>
+        <v>116</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>31</v>
@@ -2651,7 +2657,7 @@
         <v>8</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>201</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2662,10 +2668,10 @@
         <v>12</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>31</v>
@@ -2674,7 +2680,7 @@
         <v>8</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>200</v>
+        <v>159</v>
       </c>
     </row>
     <row r="53" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2685,10 +2691,10 @@
         <v>12</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>31</v>
@@ -2697,7 +2703,7 @@
         <v>8</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2708,10 +2714,10 @@
         <v>12</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>119</v>
+        <v>202</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>119</v>
+        <v>202</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>31</v>
@@ -2720,7 +2726,7 @@
         <v>8</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>84</v>
+        <v>201</v>
       </c>
     </row>
     <row r="55" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2731,10 +2737,10 @@
         <v>12</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>120</v>
+        <v>199</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>120</v>
+        <v>199</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>31</v>
@@ -2743,7 +2749,7 @@
         <v>8</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>33</v>
+        <v>200</v>
       </c>
     </row>
     <row r="56" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2754,10 +2760,10 @@
         <v>12</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>31</v>
@@ -2766,7 +2772,7 @@
         <v>8</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2777,10 +2783,10 @@
         <v>12</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>31</v>
@@ -2789,7 +2795,7 @@
         <v>8</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2800,10 +2806,10 @@
         <v>12</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>31</v>
@@ -2812,7 +2818,7 @@
         <v>8</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2823,10 +2829,10 @@
         <v>12</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>31</v>
@@ -2835,7 +2841,7 @@
         <v>8</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2846,10 +2852,10 @@
         <v>12</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>31</v>
@@ -2858,7 +2864,7 @@
         <v>8</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2869,10 +2875,10 @@
         <v>12</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>31</v>
@@ -2881,7 +2887,7 @@
         <v>8</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>145</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2892,10 +2898,10 @@
         <v>12</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>31</v>
@@ -2904,7 +2910,7 @@
         <v>8</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="63" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2915,10 +2921,10 @@
         <v>12</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>31</v>
@@ -2927,7 +2933,7 @@
         <v>8</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="64" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2938,10 +2944,10 @@
         <v>12</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>31</v>
@@ -2950,7 +2956,7 @@
         <v>8</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>32</v>
+        <v>145</v>
       </c>
     </row>
     <row r="65" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2961,10 +2967,10 @@
         <v>12</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>31</v>
@@ -2973,7 +2979,7 @@
         <v>8</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="66" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2984,10 +2990,10 @@
         <v>12</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>31</v>
@@ -2996,7 +3002,7 @@
         <v>8</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="67" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3007,10 +3013,10 @@
         <v>12</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>31</v>
@@ -3019,7 +3025,7 @@
         <v>8</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3030,10 +3036,10 @@
         <v>12</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>31</v>
@@ -3042,7 +3048,7 @@
         <v>8</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3053,10 +3059,10 @@
         <v>12</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>31</v>
@@ -3065,7 +3071,7 @@
         <v>8</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3076,10 +3082,10 @@
         <v>12</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>31</v>
@@ -3088,7 +3094,7 @@
         <v>8</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3099,10 +3105,10 @@
         <v>12</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>31</v>
@@ -3111,7 +3117,7 @@
         <v>8</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3122,10 +3128,10 @@
         <v>12</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>31</v>
@@ -3134,7 +3140,7 @@
         <v>8</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3145,88 +3151,88 @@
         <v>12</v>
       </c>
       <c r="C73" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="D76" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E73" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I73" s="3" t="s">
+      <c r="E76" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I76" s="3" t="s">
         <v>204</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G74" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I74" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G75" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I75" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G76" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I76" s="6" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="77" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3237,10 +3243,10 @@
         <v>190</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E77" s="6" t="s">
         <v>31</v>
@@ -3249,7 +3255,7 @@
         <v>8</v>
       </c>
       <c r="I77" s="6" t="s">
-        <v>201</v>
+        <v>81</v>
       </c>
     </row>
     <row r="78" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3260,10 +3266,10 @@
         <v>190</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E78" s="6" t="s">
         <v>31</v>
@@ -3272,7 +3278,7 @@
         <v>8</v>
       </c>
       <c r="I78" s="6" t="s">
-        <v>200</v>
+        <v>159</v>
       </c>
     </row>
     <row r="79" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3283,10 +3289,10 @@
         <v>190</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E79" s="6" t="s">
         <v>31</v>
@@ -3295,7 +3301,7 @@
         <v>8</v>
       </c>
       <c r="I79" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="80" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3306,10 +3312,10 @@
         <v>190</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E80" s="6" t="s">
         <v>31</v>
@@ -3318,7 +3324,7 @@
         <v>8</v>
       </c>
       <c r="I80" s="6" t="s">
-        <v>84</v>
+        <v>201</v>
       </c>
     </row>
     <row r="81" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3329,10 +3335,10 @@
         <v>190</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E81" s="6" t="s">
         <v>31</v>
@@ -3341,7 +3347,7 @@
         <v>8</v>
       </c>
       <c r="I81" s="6" t="s">
-        <v>33</v>
+        <v>200</v>
       </c>
     </row>
     <row r="82" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3352,10 +3358,10 @@
         <v>190</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E82" s="6" t="s">
         <v>31</v>
@@ -3364,7 +3370,7 @@
         <v>8</v>
       </c>
       <c r="I82" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="83" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3375,10 +3381,10 @@
         <v>190</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E83" s="6" t="s">
         <v>31</v>
@@ -3387,7 +3393,7 @@
         <v>8</v>
       </c>
       <c r="I83" s="6" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3398,10 +3404,10 @@
         <v>190</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E84" s="6" t="s">
         <v>31</v>
@@ -3410,7 +3416,7 @@
         <v>8</v>
       </c>
       <c r="I84" s="6" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
     </row>
     <row r="85" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3421,10 +3427,10 @@
         <v>190</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E85" s="6" t="s">
         <v>31</v>
@@ -3433,7 +3439,7 @@
         <v>8</v>
       </c>
       <c r="I85" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="86" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3444,10 +3450,10 @@
         <v>190</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E86" s="6" t="s">
         <v>31</v>
@@ -3456,7 +3462,7 @@
         <v>8</v>
       </c>
       <c r="I86" s="6" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="87" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3467,10 +3473,10 @@
         <v>190</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E87" s="6" t="s">
         <v>31</v>
@@ -3479,7 +3485,7 @@
         <v>8</v>
       </c>
       <c r="I87" s="6" t="s">
-        <v>145</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3490,10 +3496,10 @@
         <v>190</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E88" s="6" t="s">
         <v>31</v>
@@ -3502,7 +3508,7 @@
         <v>8</v>
       </c>
       <c r="I88" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3513,10 +3519,10 @@
         <v>190</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E89" s="6" t="s">
         <v>31</v>
@@ -3525,7 +3531,7 @@
         <v>8</v>
       </c>
       <c r="I89" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="90" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3536,10 +3542,10 @@
         <v>190</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E90" s="6" t="s">
         <v>31</v>
@@ -3548,7 +3554,7 @@
         <v>8</v>
       </c>
       <c r="I90" s="6" t="s">
-        <v>32</v>
+        <v>145</v>
       </c>
     </row>
     <row r="91" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3559,10 +3565,10 @@
         <v>190</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E91" s="6" t="s">
         <v>31</v>
@@ -3571,7 +3577,7 @@
         <v>8</v>
       </c>
       <c r="I91" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="92" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3582,10 +3588,10 @@
         <v>190</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E92" s="6" t="s">
         <v>31</v>
@@ -3594,7 +3600,7 @@
         <v>8</v>
       </c>
       <c r="I92" s="6" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="93" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3605,10 +3611,10 @@
         <v>190</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E93" s="6" t="s">
         <v>31</v>
@@ -3617,7 +3623,7 @@
         <v>8</v>
       </c>
       <c r="I93" s="6" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="94" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3628,10 +3634,10 @@
         <v>190</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E94" s="6" t="s">
         <v>31</v>
@@ -3640,7 +3646,7 @@
         <v>8</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="95" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3651,10 +3657,10 @@
         <v>190</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E95" s="6" t="s">
         <v>31</v>
@@ -3663,7 +3669,7 @@
         <v>8</v>
       </c>
       <c r="I95" s="6" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
     </row>
     <row r="96" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3674,10 +3680,10 @@
         <v>190</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E96" s="6" t="s">
         <v>31</v>
@@ -3686,7 +3692,7 @@
         <v>8</v>
       </c>
       <c r="I96" s="6" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
     </row>
     <row r="97" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3697,10 +3703,10 @@
         <v>190</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E97" s="6" t="s">
         <v>31</v>
@@ -3709,7 +3715,7 @@
         <v>8</v>
       </c>
       <c r="I97" s="6" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
     </row>
     <row r="98" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3720,10 +3726,10 @@
         <v>190</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E98" s="6" t="s">
         <v>31</v>
@@ -3732,7 +3738,7 @@
         <v>8</v>
       </c>
       <c r="I98" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="99" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3743,88 +3749,88 @@
         <v>190</v>
       </c>
       <c r="C99" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G99" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I99" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G100" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I100" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I101" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C102" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="D99" s="6" t="s">
+      <c r="D102" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="E99" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G99" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I99" s="6" t="s">
+      <c r="E102" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I102" s="6" t="s">
         <v>204</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="103" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3835,10 +3841,10 @@
         <v>12</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>31</v>
@@ -3847,7 +3853,7 @@
         <v>8</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>201</v>
+        <v>81</v>
       </c>
     </row>
     <row r="104" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3858,10 +3864,10 @@
         <v>12</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>31</v>
@@ -3870,7 +3876,7 @@
         <v>8</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>200</v>
+        <v>159</v>
       </c>
     </row>
     <row r="105" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3881,10 +3887,10 @@
         <v>12</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>31</v>
@@ -3893,7 +3899,7 @@
         <v>8</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="106" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3904,10 +3910,10 @@
         <v>12</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E106" s="3" t="s">
         <v>31</v>
@@ -3916,7 +3922,7 @@
         <v>8</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>84</v>
+        <v>201</v>
       </c>
     </row>
     <row r="107" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3927,10 +3933,10 @@
         <v>12</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>31</v>
@@ -3939,7 +3945,7 @@
         <v>8</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>33</v>
+        <v>200</v>
       </c>
     </row>
     <row r="108" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3950,10 +3956,10 @@
         <v>12</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>31</v>
@@ -3962,7 +3968,7 @@
         <v>8</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="109" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3973,10 +3979,10 @@
         <v>12</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>31</v>
@@ -3985,7 +3991,7 @@
         <v>8</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
     </row>
     <row r="110" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3996,10 +4002,10 @@
         <v>12</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>31</v>
@@ -4008,7 +4014,7 @@
         <v>8</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
     </row>
     <row r="111" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4019,10 +4025,10 @@
         <v>12</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>31</v>
@@ -4031,7 +4037,7 @@
         <v>8</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="112" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4042,10 +4048,10 @@
         <v>12</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>31</v>
@@ -4054,7 +4060,7 @@
         <v>8</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="113" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4065,10 +4071,10 @@
         <v>12</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>31</v>
@@ -4077,7 +4083,7 @@
         <v>8</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>145</v>
+        <v>86</v>
       </c>
     </row>
     <row r="114" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4088,10 +4094,10 @@
         <v>12</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>31</v>
@@ -4100,7 +4106,7 @@
         <v>8</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="115" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4111,10 +4117,10 @@
         <v>12</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>31</v>
@@ -4123,7 +4129,7 @@
         <v>8</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="116" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4134,10 +4140,10 @@
         <v>12</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>31</v>
@@ -4146,7 +4152,7 @@
         <v>8</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>32</v>
+        <v>145</v>
       </c>
     </row>
     <row r="117" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4157,10 +4163,10 @@
         <v>12</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>31</v>
@@ -4169,7 +4175,7 @@
         <v>8</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="118" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4180,10 +4186,10 @@
         <v>12</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>31</v>
@@ -4192,7 +4198,7 @@
         <v>8</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="119" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4203,10 +4209,10 @@
         <v>12</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>31</v>
@@ -4215,7 +4221,7 @@
         <v>8</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="120" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4226,10 +4232,10 @@
         <v>12</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E120" s="3" t="s">
         <v>31</v>
@@ -4238,7 +4244,7 @@
         <v>8</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="121" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4249,10 +4255,10 @@
         <v>12</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>31</v>
@@ -4261,7 +4267,7 @@
         <v>8</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
     </row>
     <row r="122" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4272,10 +4278,10 @@
         <v>12</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>31</v>
@@ -4284,7 +4290,7 @@
         <v>8</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
     </row>
     <row r="123" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4295,10 +4301,10 @@
         <v>12</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E123" s="3" t="s">
         <v>31</v>
@@ -4307,7 +4313,7 @@
         <v>8</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
     </row>
     <row r="124" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4318,10 +4324,10 @@
         <v>12</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E124" s="3" t="s">
         <v>31</v>
@@ -4330,7 +4336,7 @@
         <v>8</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="125" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4341,79 +4347,88 @@
         <v>12</v>
       </c>
       <c r="C125" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I125" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I126" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I127" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C128" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="D125" s="3" t="s">
+      <c r="D128" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="E125" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G125" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I125" s="3" t="s">
+      <c r="E128" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I128" s="3" t="s">
         <v>204</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D126" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E126" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G126" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D127" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="E127" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G127" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D128" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E128" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G128" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="129" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -4424,10 +4439,10 @@
         <v>12</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E129" s="4" t="s">
         <v>36</v>
@@ -4444,13 +4459,13 @@
         <v>12</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G130" s="4" t="s">
         <v>8</v>
@@ -4464,13 +4479,13 @@
         <v>12</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G131" s="4" t="s">
         <v>8</v>
@@ -4484,13 +4499,13 @@
         <v>12</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G132" s="4" t="s">
         <v>8</v>
@@ -4504,10 +4519,10 @@
         <v>12</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E133" s="4" t="s">
         <v>37</v>
@@ -4516,124 +4531,184 @@
         <v>8</v>
       </c>
     </row>
+    <row r="134" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G134" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G135" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G136" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J25:P27 J35:P36 J38:P40 J29:P33 J48:P48 J50:P51 J53:P60 J22:P23 J1:P7 J10:P14 J16:P19 J62:P74 J76:P77 J79:P86 J88:P100 J102:P103 J105:P112 J114:P1048576">
+  <conditionalFormatting sqref="J28:P30 J38:P39 J41:P43 J32:P36 J51:P51 J53:P54 J56:P63 J25:P26 J13:P17 J19:P22 J65:P77 J79:P80 J82:P89 J91:P103 J105:P106 J108:P115 J117:P1048576 J1:P10">
     <cfRule type="expression" dxfId="22" priority="25">
       <formula>IF(OR($B1="O365Group",$B1="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8:P9">
+  <conditionalFormatting sqref="J11:P12">
     <cfRule type="expression" dxfId="21" priority="24">
-      <formula>IF(OR($B8="O365Group",$B8="Type"),faslch,TRUE)</formula>
+      <formula>IF(OR($B11="O365Group",$B11="Type"),faslch,TRUE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27:P27">
+    <cfRule type="expression" dxfId="20" priority="23">
+      <formula>IF(OR($B27="O365Group",$B27="Type"),faslch,TRUE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J37:P37">
+    <cfRule type="expression" dxfId="19" priority="22">
+      <formula>IF(OR($B37="O365Group",$B37="Type"),faslch,TRUE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J40:P40">
+    <cfRule type="expression" dxfId="18" priority="21">
+      <formula>IF(OR($B40="O365Group",$B40="Type"),faslch,TRUE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J44:P44">
+    <cfRule type="expression" dxfId="17" priority="20">
+      <formula>IF(OR($B44="O365Group",$B44="Type"),faslch,TRUE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J31:P31">
+    <cfRule type="expression" dxfId="16" priority="19">
+      <formula>IF(OR($B31="O365Group",$B31="Type"),faslch,TRUE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J64:P64">
+    <cfRule type="expression" dxfId="15" priority="18">
+      <formula>IF(OR($B64="O365Group",$B64="Type"),faslch,TRUE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J46:P46 J49:P50">
+    <cfRule type="expression" dxfId="14" priority="17">
+      <formula>IF(OR($B46="O365Group",$B46="Type"),faslch,TRUE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J45:P45">
+    <cfRule type="expression" dxfId="13" priority="16">
+      <formula>IF(OR($B45="O365Group",$B45="Type"),faslch,TRUE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J52:P52">
+    <cfRule type="expression" dxfId="12" priority="15">
+      <formula>IF(OR($B52="O365Group",$B52="Type"),faslch,TRUE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J55:P55">
+    <cfRule type="expression" dxfId="11" priority="14">
+      <formula>IF(OR($B55="O365Group",$B55="Type"),faslch,TRUE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18:P18">
+    <cfRule type="expression" dxfId="10" priority="13">
+      <formula>IF(OR($B18="O365Group",$B18="Type"),faslch,TRUE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23:P23">
+    <cfRule type="expression" dxfId="9" priority="12">
+      <formula>IF(OR($B23="O365Group",$B23="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24:P24">
-    <cfRule type="expression" dxfId="20" priority="23">
+    <cfRule type="expression" dxfId="8" priority="11">
       <formula>IF(OR($B24="O365Group",$B24="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J34:P34">
-    <cfRule type="expression" dxfId="19" priority="22">
-      <formula>IF(OR($B34="O365Group",$B34="Type"),faslch,TRUE)</formula>
+  <conditionalFormatting sqref="J47:P47">
+    <cfRule type="expression" dxfId="7" priority="10">
+      <formula>IF(OR($B47="O365Group",$B47="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J37:P37">
-    <cfRule type="expression" dxfId="18" priority="21">
-      <formula>IF(OR($B37="O365Group",$B37="Type"),faslch,TRUE)</formula>
+  <conditionalFormatting sqref="J48:P48">
+    <cfRule type="expression" dxfId="6" priority="9">
+      <formula>IF(OR($B48="O365Group",$B48="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J41:P41">
-    <cfRule type="expression" dxfId="17" priority="20">
-      <formula>IF(OR($B41="O365Group",$B41="Type"),faslch,TRUE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J28:P28">
-    <cfRule type="expression" dxfId="16" priority="19">
-      <formula>IF(OR($B28="O365Group",$B28="Type"),faslch,TRUE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J61:P61">
-    <cfRule type="expression" dxfId="15" priority="18">
-      <formula>IF(OR($B61="O365Group",$B61="Type"),faslch,TRUE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J43:P43 J46:P47">
-    <cfRule type="expression" dxfId="14" priority="17">
-      <formula>IF(OR($B43="O365Group",$B43="Type"),faslch,TRUE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J42:P42">
-    <cfRule type="expression" dxfId="13" priority="16">
-      <formula>IF(OR($B42="O365Group",$B42="Type"),faslch,TRUE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J49:P49">
-    <cfRule type="expression" dxfId="12" priority="15">
-      <formula>IF(OR($B49="O365Group",$B49="Type"),faslch,TRUE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J52:P52">
-    <cfRule type="expression" dxfId="11" priority="14">
-      <formula>IF(OR($B52="O365Group",$B52="Type"),faslch,TRUE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J15:P15">
-    <cfRule type="expression" dxfId="10" priority="13">
-      <formula>IF(OR($B15="O365Group",$B15="Type"),faslch,TRUE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J20:P20">
-    <cfRule type="expression" dxfId="9" priority="12">
-      <formula>IF(OR($B20="O365Group",$B20="Type"),faslch,TRUE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J21:P21">
-    <cfRule type="expression" dxfId="8" priority="11">
-      <formula>IF(OR($B21="O365Group",$B21="Type"),faslch,TRUE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J44:P44">
-    <cfRule type="expression" dxfId="7" priority="10">
-      <formula>IF(OR($B44="O365Group",$B44="Type"),faslch,TRUE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J45:P45">
-    <cfRule type="expression" dxfId="6" priority="9">
-      <formula>IF(OR($B45="O365Group",$B45="Type"),faslch,TRUE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J87:P87">
+  <conditionalFormatting sqref="J90:P90">
     <cfRule type="expression" dxfId="5" priority="6">
-      <formula>IF(OR($B87="O365Group",$B87="Type"),faslch,TRUE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J75:P75">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>IF(OR($B75="O365Group",$B75="Type"),faslch,TRUE)</formula>
+      <formula>IF(OR($B90="O365Group",$B90="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J78:P78">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>IF(OR($B78="O365Group",$B78="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J113:P113">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>IF(OR($B113="O365Group",$B113="Type"),faslch,TRUE)</formula>
+  <conditionalFormatting sqref="J81:P81">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>IF(OR($B81="O365Group",$B81="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J101:P101">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>IF(OR($B101="O365Group",$B101="Type"),faslch,TRUE)</formula>
+  <conditionalFormatting sqref="J116:P116">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>IF(OR($B116="O365Group",$B116="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J104:P104">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>IF(OR($B104="O365Group",$B104="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="J107:P107">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>IF(OR($B107="O365Group",$B107="Type"),faslch,TRUE)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="S15" r:id="rId1" xr:uid="{6406F3B4-332F-49FC-A4BF-E9A46FEED504}"/>
+    <hyperlink ref="S18" r:id="rId1" xr:uid="{6406F3B4-332F-49FC-A4BF-E9A46FEED504}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -4641,18 +4716,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4840,14 +4915,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB80E815-258B-4085-B06C-0327483055A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18209EA7-04F6-445D-8F30-F19FC7D76916}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -4859,6 +4926,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB80E815-258B-4085-B06C-0327483055A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data/aad/Gruppen.xlsx
+++ b/data/aad/Gruppen.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41C8C55-6337-48D9-A6C2-0623A92D9321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F39EE38-2201-465B-BCF1-5C6915015A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4704" yWindow="3012" windowWidth="30960" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5604" yWindow="48" windowWidth="24480" windowHeight="13428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gruppen" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="269">
   <si>
     <t>Type</t>
   </si>
@@ -808,6 +808,30 @@
   </si>
   <si>
     <t>KEY sign-in is enabled for members in this group</t>
+  </si>
+  <si>
+    <t>PROJECTPROFESSIONAL</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-PROJECT3</t>
+  </si>
+  <si>
+    <t>ALYASG-ADM-KEYAUTHENABLED</t>
+  </si>
+  <si>
+    <t>ALYASG-ADM-KEYAUTHENABLEDCLOUD</t>
+  </si>
+  <si>
+    <t>ALYASG-ADM-KEYAUTHENABLEDONPREM</t>
+  </si>
+  <si>
+    <t>ParentGroup</t>
+  </si>
+  <si>
+    <t>MFA defaults are disabled for members in this group</t>
+  </si>
+  <si>
+    <t>ALYASG-ADM-NOMFADEFAULTS</t>
   </si>
 </sst>
 </file>
@@ -897,7 +921,21 @@
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="25">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1393,7 +1431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S136"/>
+  <dimension ref="A1:T138"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
@@ -1410,7 +1448,7 @@
     <col min="9" max="9" width="24.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -1463,10 +1501,13 @@
         <v>176</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1474,30 +1515,30 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E2" t="s">
+        <v>267</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>47</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>47</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D3" t="s">
-        <v>191</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -1505,19 +1546,22 @@
       <c r="G3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>190</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -1525,40 +1569,45 @@
       <c r="G4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="C5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+      <c r="R5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
         <v>48</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>48</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5"/>
-      <c r="G5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>193</v>
-      </c>
-      <c r="D6" t="s">
-        <v>193</v>
       </c>
       <c r="E6" t="s">
         <v>24</v>
@@ -1568,18 +1617,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>190</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E7" t="s">
         <v>24</v>
@@ -1589,39 +1638,39 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="C8" t="s">
-        <v>257</v>
+        <v>194</v>
       </c>
       <c r="D8" t="s">
-        <v>257</v>
+        <v>194</v>
       </c>
       <c r="E8" t="s">
-        <v>260</v>
+        <v>24</v>
       </c>
       <c r="F8"/>
       <c r="G8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="D9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E9" t="s">
         <v>260</v>
@@ -1630,19 +1679,22 @@
       <c r="G9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R9" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>190</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E10" t="s">
         <v>260</v>
@@ -1651,82 +1703,88 @@
       <c r="G10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R10" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="C11" t="s">
-        <v>160</v>
+        <v>265</v>
       </c>
       <c r="D11" t="s">
-        <v>160</v>
+        <v>259</v>
       </c>
       <c r="E11" t="s">
-        <v>147</v>
+        <v>260</v>
       </c>
       <c r="F11"/>
       <c r="G11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F12"/>
       <c r="G12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="D13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="E13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F13"/>
       <c r="G13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>196</v>
+        <v>149</v>
       </c>
       <c r="D14" t="s">
-        <v>196</v>
+        <v>149</v>
       </c>
       <c r="E14" t="s">
         <v>150</v>
@@ -1736,18 +1794,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>190</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D15" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E15" t="s">
         <v>150</v>
@@ -1757,54 +1815,28 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="C16" t="s">
-        <v>167</v>
+        <v>195</v>
       </c>
       <c r="D16" t="s">
-        <v>167</v>
+        <v>195</v>
       </c>
       <c r="E16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" t="s">
-        <v>167</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="F16"/>
       <c r="G16" t="s">
         <v>8</v>
       </c>
-      <c r="H16" t="s">
-        <v>46</v>
-      </c>
-      <c r="J16" t="b">
-        <v>1</v>
-      </c>
-      <c r="K16" t="b">
-        <v>1</v>
-      </c>
-      <c r="L16" t="b">
-        <v>1</v>
-      </c>
-      <c r="M16" t="b">
-        <v>0</v>
-      </c>
-      <c r="N16" t="b">
-        <v>0</v>
-      </c>
-      <c r="O16" t="b">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1812,22 +1844,22 @@
         <v>169</v>
       </c>
       <c r="C17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G17" t="s">
         <v>8</v>
       </c>
       <c r="H17" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="J17" t="b">
         <v>1</v>
@@ -1851,30 +1883,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
         <v>169</v>
       </c>
       <c r="C18" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D18" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E18" t="s">
-        <v>174</v>
+        <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G18" t="s">
         <v>8</v>
       </c>
       <c r="H18" t="s">
-        <v>170</v>
+        <v>11</v>
       </c>
       <c r="J18" t="b">
         <v>1</v>
@@ -1897,48 +1929,72 @@
       <c r="P18" t="b">
         <v>1</v>
       </c>
-      <c r="R18" t="s">
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>169</v>
+      </c>
+      <c r="C19" t="s">
+        <v>173</v>
+      </c>
+      <c r="D19" t="s">
+        <v>173</v>
+      </c>
+      <c r="E19" t="s">
+        <v>174</v>
+      </c>
+      <c r="F19" t="s">
+        <v>173</v>
+      </c>
+      <c r="G19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" t="s">
+        <v>170</v>
+      </c>
+      <c r="J19" t="b">
+        <v>1</v>
+      </c>
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" t="b">
+        <v>1</v>
+      </c>
+      <c r="M19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N19" t="b">
+        <v>0</v>
+      </c>
+      <c r="O19" t="b">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>1</v>
+      </c>
+      <c r="S19" t="s">
         <v>171</v>
       </c>
-      <c r="S18" s="5" t="s">
+      <c r="T19" s="5" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="19" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="2" t="s">
+    <row r="20" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q19" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>198</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>175</v>
@@ -1950,18 +2006,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>190</v>
+        <v>12</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>175</v>
@@ -1969,258 +2025,258 @@
       <c r="G21" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q21" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="2" t="s">
+      <c r="G23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="2" t="s">
+    <row r="24" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23" s="2" t="s">
+      <c r="G24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="24" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="2" t="s">
+    <row r="25" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H24" s="2" t="s">
+      <c r="G25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="25" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="2" t="s">
+    <row r="26" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H25" s="2" t="s">
+      <c r="G26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="2" t="s">
+    <row r="27" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H26" s="2" t="s">
+      <c r="G27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="2" t="s">
+    <row r="28" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H27" s="2" t="s">
+      <c r="G28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="2" t="s">
+    <row r="29" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H28" s="2" t="s">
+      <c r="G29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="2" t="s">
+    <row r="30" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="2" t="s">
+      <c r="G30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="2" t="s">
+    <row r="31" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H30" s="2" t="s">
+      <c r="G31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="2" t="s">
+    <row r="32" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H31" s="2" t="s">
+      <c r="G32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="2" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2231,19 +2287,19 @@
         <v>12</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2254,19 +2310,19 @@
         <v>12</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2277,19 +2333,19 @@
         <v>12</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2300,19 +2356,19 @@
         <v>12</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2323,19 +2379,19 @@
         <v>12</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2346,19 +2402,19 @@
         <v>12</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2369,19 +2425,19 @@
         <v>12</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2392,19 +2448,19 @@
         <v>12</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2415,19 +2471,19 @@
         <v>12</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2438,19 +2494,19 @@
         <v>12</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2461,19 +2517,19 @@
         <v>12</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2484,19 +2540,19 @@
         <v>12</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2507,19 +2563,19 @@
         <v>12</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>162</v>
+        <v>115</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>162</v>
+        <v>115</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>152</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2530,19 +2586,19 @@
         <v>12</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2553,19 +2609,19 @@
         <v>12</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2576,712 +2632,724 @@
         <v>12</v>
       </c>
       <c r="C48" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E49" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="G48" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H48" s="2" t="s">
+      <c r="G49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="49" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C49" s="2" t="s">
+    <row r="50" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E50" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="G49" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H49" s="2" t="s">
+      <c r="G50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H50" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="50" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C50" s="2" t="s">
+    <row r="51" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E51" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G50" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H50" s="2" t="s">
+      <c r="G51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H51" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="51" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C51" s="3" t="s">
+    <row r="52" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D52" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E51" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I51" s="3" t="s">
+      <c r="E52" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="52" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C52" s="3" t="s">
+    <row r="53" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D53" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I52" s="3" t="s">
+      <c r="E53" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I53" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="53" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C53" s="3" t="s">
+    <row r="54" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D54" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E53" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I53" s="3" t="s">
+      <c r="E54" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I54" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C54" s="3" t="s">
+    <row r="55" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D55" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I54" s="3" t="s">
+      <c r="E55" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I55" s="3" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="55" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C55" s="3" t="s">
+    <row r="56" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D56" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="E55" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I55" s="3" t="s">
+      <c r="E56" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I56" s="3" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C56" s="3" t="s">
+    <row r="57" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D57" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E56" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I56" s="3" t="s">
+      <c r="E57" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I57" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="57" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C57" s="3" t="s">
+    <row r="58" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D58" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I57" s="3" t="s">
+      <c r="E58" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C58" s="3" t="s">
+      <c r="R58" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D59" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I58" s="3" t="s">
+      <c r="E59" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I59" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="59" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C59" s="3" t="s">
+    <row r="60" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D60" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I59" s="3" t="s">
+      <c r="E60" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I60" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="60" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C60" s="3" t="s">
+    <row r="61" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D61" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I60" s="3" t="s">
+      <c r="E61" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I61" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C61" s="3" t="s">
+    <row r="62" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D62" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E61" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I61" s="3" t="s">
+      <c r="E62" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I62" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="62" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C62" s="3" t="s">
+    <row r="63" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D63" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I62" s="3" t="s">
+      <c r="E63" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I63" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="63" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C63" s="3" t="s">
+    <row r="64" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D64" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E63" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I63" s="3" t="s">
+      <c r="E64" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I64" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="64" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C64" s="3" t="s">
+    <row r="65" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D65" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E64" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I64" s="3" t="s">
+      <c r="E65" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I65" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C65" s="3" t="s">
+      <c r="R65" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D66" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E65" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I65" s="3" t="s">
+      <c r="E66" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I66" s="3" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C66" s="3" t="s">
+      <c r="R66" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D67" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I66" s="3" t="s">
+      <c r="E67" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I67" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C67" s="3" t="s">
+      <c r="R67" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D68" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E67" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I67" s="3" t="s">
+      <c r="E68" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I68" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="68" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C68" s="3" t="s">
+    <row r="69" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D69" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E68" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I68" s="3" t="s">
+      <c r="E69" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I69" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="69" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C69" s="3" t="s">
+    <row r="70" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="D70" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E69" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I69" s="3" t="s">
+      <c r="E70" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I70" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="70" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C70" s="3" t="s">
+    <row r="71" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="D71" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="E70" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I70" s="3" t="s">
+      <c r="E71" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I71" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="71" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C71" s="3" t="s">
+    <row r="72" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D72" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="E71" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I71" s="3" t="s">
+      <c r="E72" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I72" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="72" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C72" s="3" t="s">
+    <row r="73" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D73" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I72" s="3" t="s">
+      <c r="E73" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I73" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="73" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C73" s="3" t="s">
+    <row r="74" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="D74" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="E73" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I73" s="3" t="s">
+      <c r="E74" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I74" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C74" s="3" t="s">
+    <row r="75" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="D75" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E74" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I74" s="3" t="s">
+      <c r="E75" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I75" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="75" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C75" s="3" t="s">
+    <row r="76" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="D77" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="E75" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I75" s="3" t="s">
+      <c r="E77" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I77" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="76" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C76" s="3" t="s">
+    <row r="78" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D78" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I76" s="3" t="s">
+      <c r="E78" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I78" s="3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="77" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G77" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I77" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G78" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I78" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>23</v>
       </c>
@@ -3289,10 +3357,10 @@
         <v>190</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E79" s="6" t="s">
         <v>31</v>
@@ -3301,10 +3369,10 @@
         <v>8</v>
       </c>
       <c r="I79" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>23</v>
       </c>
@@ -3312,10 +3380,10 @@
         <v>190</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E80" s="6" t="s">
         <v>31</v>
@@ -3324,10 +3392,10 @@
         <v>8</v>
       </c>
       <c r="I80" s="6" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>23</v>
       </c>
@@ -3335,10 +3403,10 @@
         <v>190</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E81" s="6" t="s">
         <v>31</v>
@@ -3347,10 +3415,10 @@
         <v>8</v>
       </c>
       <c r="I81" s="6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>23</v>
       </c>
@@ -3358,10 +3426,10 @@
         <v>190</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E82" s="6" t="s">
         <v>31</v>
@@ -3370,10 +3438,10 @@
         <v>8</v>
       </c>
       <c r="I82" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
         <v>23</v>
       </c>
@@ -3381,10 +3449,10 @@
         <v>190</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E83" s="6" t="s">
         <v>31</v>
@@ -3393,10 +3461,10 @@
         <v>8</v>
       </c>
       <c r="I83" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
         <v>23</v>
       </c>
@@ -3404,10 +3472,10 @@
         <v>190</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E84" s="6" t="s">
         <v>31</v>
@@ -3416,10 +3484,10 @@
         <v>8</v>
       </c>
       <c r="I84" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
         <v>23</v>
       </c>
@@ -3427,10 +3495,10 @@
         <v>190</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E85" s="6" t="s">
         <v>31</v>
@@ -3439,10 +3507,13 @@
         <v>8</v>
       </c>
       <c r="I85" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+      <c r="R85" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>23</v>
       </c>
@@ -3450,10 +3521,10 @@
         <v>190</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E86" s="6" t="s">
         <v>31</v>
@@ -3462,10 +3533,10 @@
         <v>8</v>
       </c>
       <c r="I86" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>23</v>
       </c>
@@ -3473,10 +3544,10 @@
         <v>190</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E87" s="6" t="s">
         <v>31</v>
@@ -3485,10 +3556,10 @@
         <v>8</v>
       </c>
       <c r="I87" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>23</v>
       </c>
@@ -3496,10 +3567,10 @@
         <v>190</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E88" s="6" t="s">
         <v>31</v>
@@ -3508,10 +3579,10 @@
         <v>8</v>
       </c>
       <c r="I88" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
         <v>23</v>
       </c>
@@ -3519,10 +3590,10 @@
         <v>190</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E89" s="6" t="s">
         <v>31</v>
@@ -3531,10 +3602,10 @@
         <v>8</v>
       </c>
       <c r="I89" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
         <v>23</v>
       </c>
@@ -3542,10 +3613,10 @@
         <v>190</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E90" s="6" t="s">
         <v>31</v>
@@ -3554,10 +3625,10 @@
         <v>8</v>
       </c>
       <c r="I90" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
         <v>23</v>
       </c>
@@ -3565,10 +3636,10 @@
         <v>190</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E91" s="6" t="s">
         <v>31</v>
@@ -3577,10 +3648,10 @@
         <v>8</v>
       </c>
       <c r="I91" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
         <v>23</v>
       </c>
@@ -3588,10 +3659,10 @@
         <v>190</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E92" s="6" t="s">
         <v>31</v>
@@ -3600,10 +3671,13 @@
         <v>8</v>
       </c>
       <c r="I92" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+      <c r="R92" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
         <v>23</v>
       </c>
@@ -3611,10 +3685,10 @@
         <v>190</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E93" s="6" t="s">
         <v>31</v>
@@ -3623,10 +3697,13 @@
         <v>8</v>
       </c>
       <c r="I93" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+      <c r="R93" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
         <v>23</v>
       </c>
@@ -3634,10 +3711,10 @@
         <v>190</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E94" s="6" t="s">
         <v>31</v>
@@ -3646,10 +3723,13 @@
         <v>8</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="R94" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
         <v>23</v>
       </c>
@@ -3657,10 +3737,10 @@
         <v>190</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E95" s="6" t="s">
         <v>31</v>
@@ -3669,10 +3749,10 @@
         <v>8</v>
       </c>
       <c r="I95" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
         <v>23</v>
       </c>
@@ -3680,10 +3760,10 @@
         <v>190</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E96" s="6" t="s">
         <v>31</v>
@@ -3692,10 +3772,10 @@
         <v>8</v>
       </c>
       <c r="I96" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
         <v>23</v>
       </c>
@@ -3703,10 +3783,10 @@
         <v>190</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E97" s="6" t="s">
         <v>31</v>
@@ -3715,10 +3795,10 @@
         <v>8</v>
       </c>
       <c r="I97" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
         <v>23</v>
       </c>
@@ -3726,10 +3806,10 @@
         <v>190</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E98" s="6" t="s">
         <v>31</v>
@@ -3738,10 +3818,10 @@
         <v>8</v>
       </c>
       <c r="I98" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
         <v>23</v>
       </c>
@@ -3749,10 +3829,10 @@
         <v>190</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E99" s="6" t="s">
         <v>31</v>
@@ -3761,10 +3841,10 @@
         <v>8</v>
       </c>
       <c r="I99" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
         <v>23</v>
       </c>
@@ -3772,10 +3852,10 @@
         <v>190</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E100" s="6" t="s">
         <v>31</v>
@@ -3784,10 +3864,10 @@
         <v>8</v>
       </c>
       <c r="I100" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
         <v>23</v>
       </c>
@@ -3795,10 +3875,10 @@
         <v>190</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E101" s="6" t="s">
         <v>31</v>
@@ -3807,10 +3887,10 @@
         <v>8</v>
       </c>
       <c r="I101" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
         <v>23</v>
       </c>
@@ -3818,671 +3898,689 @@
         <v>190</v>
       </c>
       <c r="C102" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I102" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G103" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I103" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C104" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="D102" s="6" t="s">
+      <c r="D104" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="E102" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G102" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I102" s="6" t="s">
+      <c r="E104" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G104" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I104" s="6" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="103" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C103" s="3" t="s">
+    <row r="105" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C105" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="D103" s="3" t="s">
+      <c r="D105" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="E103" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G103" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I103" s="3" t="s">
+      <c r="E105" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I105" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="104" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C104" s="3" t="s">
+    <row r="106" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C106" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="D104" s="3" t="s">
+      <c r="D106" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="E104" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G104" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I104" s="3" t="s">
+      <c r="E106" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I106" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="105" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C105" s="3" t="s">
+    <row r="107" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C107" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="D105" s="3" t="s">
+      <c r="D107" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="E105" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G105" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I105" s="3" t="s">
+      <c r="E107" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I107" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="106" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C106" s="3" t="s">
+    <row r="108" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C108" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="D106" s="3" t="s">
+      <c r="D108" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="E106" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G106" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I106" s="3" t="s">
+      <c r="E108" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I108" s="3" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="107" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C107" s="3" t="s">
+    <row r="109" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C109" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="D107" s="3" t="s">
+      <c r="D109" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="E107" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G107" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I107" s="3" t="s">
+      <c r="E109" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I109" s="3" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="108" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C108" s="3" t="s">
+    <row r="110" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C110" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="D108" s="3" t="s">
+      <c r="D110" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="E108" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G108" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I108" s="3" t="s">
+      <c r="E110" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I110" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="109" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C109" s="3" t="s">
+    <row r="111" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C111" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="D109" s="3" t="s">
+      <c r="D111" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="E109" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G109" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I109" s="3" t="s">
+      <c r="E111" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I111" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C110" s="3" t="s">
+      <c r="R111" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C112" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="D110" s="3" t="s">
+      <c r="D112" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="E110" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G110" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I110" s="3" t="s">
+      <c r="E112" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I112" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="111" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C111" s="3" t="s">
+    <row r="113" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C113" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="D111" s="3" t="s">
+      <c r="D113" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="E111" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G111" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I111" s="3" t="s">
+      <c r="E113" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I113" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="112" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C112" s="3" t="s">
+    <row r="114" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C114" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="D112" s="3" t="s">
+      <c r="D114" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="E112" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G112" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I112" s="3" t="s">
+      <c r="E114" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I114" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="113" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C113" s="3" t="s">
+    <row r="115" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C115" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="D113" s="3" t="s">
+      <c r="D115" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="E113" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G113" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I113" s="3" t="s">
+      <c r="E115" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I115" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="114" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C114" s="3" t="s">
+    <row r="116" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C116" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="D114" s="3" t="s">
+      <c r="D116" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="E114" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G114" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I114" s="3" t="s">
+      <c r="E116" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I116" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="115" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C115" s="3" t="s">
+    <row r="117" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C117" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="D115" s="3" t="s">
+      <c r="D117" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="E115" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G115" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I115" s="3" t="s">
+      <c r="E117" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I117" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="116" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C116" s="3" t="s">
+    <row r="118" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C118" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D116" s="3" t="s">
+      <c r="D118" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="E116" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G116" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I116" s="3" t="s">
+      <c r="E118" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I118" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C117" s="3" t="s">
+      <c r="R118" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C119" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="D117" s="3" t="s">
+      <c r="D119" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="E117" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G117" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I117" s="3" t="s">
+      <c r="E119" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I119" s="3" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C118" s="3" t="s">
+      <c r="R119" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C120" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="D118" s="3" t="s">
+      <c r="D120" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="E118" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G118" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I118" s="3" t="s">
+      <c r="E120" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I120" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C119" s="3" t="s">
+      <c r="R120" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C121" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="D119" s="3" t="s">
+      <c r="D121" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="E119" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G119" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I119" s="3" t="s">
+      <c r="E121" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I121" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="120" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C120" s="3" t="s">
+    <row r="122" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C122" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="D120" s="3" t="s">
+      <c r="D122" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="E120" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G120" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I120" s="3" t="s">
+      <c r="E122" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I122" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="121" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C121" s="3" t="s">
+    <row r="123" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C123" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="D121" s="3" t="s">
+      <c r="D123" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="E121" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G121" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I121" s="3" t="s">
+      <c r="E123" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I123" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="122" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C122" s="3" t="s">
+    <row r="124" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C124" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="D122" s="3" t="s">
+      <c r="D124" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="E122" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G122" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I122" s="3" t="s">
+      <c r="E124" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I124" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="123" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C123" s="3" t="s">
+    <row r="125" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C125" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="D123" s="3" t="s">
+      <c r="D125" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="E123" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G123" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I123" s="3" t="s">
+      <c r="E125" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I125" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="124" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C124" s="3" t="s">
+    <row r="126" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C126" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="D124" s="3" t="s">
+      <c r="D126" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="E124" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G124" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I124" s="3" t="s">
+      <c r="E126" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I126" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="125" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C125" s="3" t="s">
+    <row r="127" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C127" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="D125" s="3" t="s">
+      <c r="D127" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="E125" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G125" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I125" s="3" t="s">
+      <c r="E127" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I127" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="126" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C126" s="3" t="s">
+    <row r="128" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C128" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="D126" s="3" t="s">
+      <c r="D128" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="E126" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G126" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I126" s="3" t="s">
+      <c r="E128" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I128" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="127" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C127" s="3" t="s">
+    <row r="129" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C129" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="D127" s="3" t="s">
+      <c r="D129" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="E127" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G127" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I127" s="3" t="s">
+      <c r="E129" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I129" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="128" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C128" s="3" t="s">
+    <row r="130" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C130" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="D128" s="3" t="s">
+      <c r="D130" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="E128" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G128" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I128" s="3" t="s">
+      <c r="E130" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I130" s="3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="129" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B129" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C129" s="4" t="s">
+    <row r="131" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C131" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D129" s="4" t="s">
+      <c r="D131" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="E129" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G129" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B130" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C130" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D130" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="E130" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G130" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B131" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C131" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D131" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="E131" s="4" t="s">
         <v>36</v>
@@ -4491,7 +4589,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
         <v>23</v>
       </c>
@@ -4499,10 +4597,10 @@
         <v>12</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E132" s="4" t="s">
         <v>36</v>
@@ -4511,7 +4609,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
         <v>23</v>
       </c>
@@ -4519,50 +4617,50 @@
         <v>12</v>
       </c>
       <c r="C133" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G133" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G134" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C135" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D133" s="4" t="s">
+      <c r="D135" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="E133" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G133" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B134" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D134" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E134" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G134" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B135" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C135" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D135" s="4" t="s">
-        <v>143</v>
       </c>
       <c r="E135" s="4" t="s">
         <v>37</v>
@@ -4571,7 +4669,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
         <v>23</v>
       </c>
@@ -4579,10 +4677,10 @@
         <v>12</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E136" s="4" t="s">
         <v>37</v>
@@ -4591,124 +4689,174 @@
         <v>8</v>
       </c>
     </row>
+    <row r="137" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G137" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G138" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J28:P30 J38:P39 J41:P43 J32:P36 J51:P51 J53:P54 J56:P63 J25:P26 J13:P17 J19:P22 J65:P77 J79:P80 J82:P89 J91:P103 J105:P106 J108:P115 J117:P1048576 J1:P10">
-    <cfRule type="expression" dxfId="22" priority="25">
+  <conditionalFormatting sqref="J29:P31 J39:P40 J42:P44 J33:P37 J52:P52 J54:P55 J57:P64 J26:P27 J14:P18 J20:P23 J66:P75 J81:P82 J84:P91 J93:P105 J107:P108 J110:P117 J1:P1 J77:P79 J119:P1048576 J3:P11">
+    <cfRule type="expression" dxfId="24" priority="27">
       <formula>IF(OR($B1="O365Group",$B1="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J11:P12">
-    <cfRule type="expression" dxfId="21" priority="24">
-      <formula>IF(OR($B11="O365Group",$B11="Type"),faslch,TRUE)</formula>
+  <conditionalFormatting sqref="J12:P13">
+    <cfRule type="expression" dxfId="23" priority="26">
+      <formula>IF(OR($B12="O365Group",$B12="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J27:P27">
-    <cfRule type="expression" dxfId="20" priority="23">
-      <formula>IF(OR($B27="O365Group",$B27="Type"),faslch,TRUE)</formula>
+  <conditionalFormatting sqref="J28:P28">
+    <cfRule type="expression" dxfId="22" priority="25">
+      <formula>IF(OR($B28="O365Group",$B28="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J37:P37">
-    <cfRule type="expression" dxfId="19" priority="22">
-      <formula>IF(OR($B37="O365Group",$B37="Type"),faslch,TRUE)</formula>
+  <conditionalFormatting sqref="J38:P38">
+    <cfRule type="expression" dxfId="21" priority="24">
+      <formula>IF(OR($B38="O365Group",$B38="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J40:P40">
-    <cfRule type="expression" dxfId="18" priority="21">
-      <formula>IF(OR($B40="O365Group",$B40="Type"),faslch,TRUE)</formula>
+  <conditionalFormatting sqref="J41:P41">
+    <cfRule type="expression" dxfId="20" priority="23">
+      <formula>IF(OR($B41="O365Group",$B41="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J44:P44">
-    <cfRule type="expression" dxfId="17" priority="20">
-      <formula>IF(OR($B44="O365Group",$B44="Type"),faslch,TRUE)</formula>
+  <conditionalFormatting sqref="J45:P45">
+    <cfRule type="expression" dxfId="19" priority="22">
+      <formula>IF(OR($B45="O365Group",$B45="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J31:P31">
-    <cfRule type="expression" dxfId="16" priority="19">
-      <formula>IF(OR($B31="O365Group",$B31="Type"),faslch,TRUE)</formula>
+  <conditionalFormatting sqref="J32:P32">
+    <cfRule type="expression" dxfId="18" priority="21">
+      <formula>IF(OR($B32="O365Group",$B32="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J64:P64">
-    <cfRule type="expression" dxfId="15" priority="18">
-      <formula>IF(OR($B64="O365Group",$B64="Type"),faslch,TRUE)</formula>
+  <conditionalFormatting sqref="J65:P65">
+    <cfRule type="expression" dxfId="17" priority="20">
+      <formula>IF(OR($B65="O365Group",$B65="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J46:P46 J49:P50">
-    <cfRule type="expression" dxfId="14" priority="17">
+  <conditionalFormatting sqref="J47:P47 J50:P51">
+    <cfRule type="expression" dxfId="16" priority="19">
+      <formula>IF(OR($B47="O365Group",$B47="Type"),faslch,TRUE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J46:P46">
+    <cfRule type="expression" dxfId="15" priority="18">
       <formula>IF(OR($B46="O365Group",$B46="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J45:P45">
-    <cfRule type="expression" dxfId="13" priority="16">
-      <formula>IF(OR($B45="O365Group",$B45="Type"),faslch,TRUE)</formula>
+  <conditionalFormatting sqref="J53:P53">
+    <cfRule type="expression" dxfId="14" priority="17">
+      <formula>IF(OR($B53="O365Group",$B53="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J52:P52">
-    <cfRule type="expression" dxfId="12" priority="15">
-      <formula>IF(OR($B52="O365Group",$B52="Type"),faslch,TRUE)</formula>
+  <conditionalFormatting sqref="J56:P56">
+    <cfRule type="expression" dxfId="13" priority="16">
+      <formula>IF(OR($B56="O365Group",$B56="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J55:P55">
-    <cfRule type="expression" dxfId="11" priority="14">
-      <formula>IF(OR($B55="O365Group",$B55="Type"),faslch,TRUE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18:P18">
-    <cfRule type="expression" dxfId="10" priority="13">
-      <formula>IF(OR($B18="O365Group",$B18="Type"),faslch,TRUE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J23:P23">
-    <cfRule type="expression" dxfId="9" priority="12">
-      <formula>IF(OR($B23="O365Group",$B23="Type"),faslch,TRUE)</formula>
+  <conditionalFormatting sqref="J19:P19">
+    <cfRule type="expression" dxfId="12" priority="15">
+      <formula>IF(OR($B19="O365Group",$B19="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24:P24">
-    <cfRule type="expression" dxfId="8" priority="11">
+    <cfRule type="expression" dxfId="11" priority="14">
       <formula>IF(OR($B24="O365Group",$B24="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J47:P47">
-    <cfRule type="expression" dxfId="7" priority="10">
-      <formula>IF(OR($B47="O365Group",$B47="Type"),faslch,TRUE)</formula>
+  <conditionalFormatting sqref="J25:P25">
+    <cfRule type="expression" dxfId="10" priority="13">
+      <formula>IF(OR($B25="O365Group",$B25="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J48:P48">
-    <cfRule type="expression" dxfId="6" priority="9">
+    <cfRule type="expression" dxfId="9" priority="12">
       <formula>IF(OR($B48="O365Group",$B48="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J90:P90">
-    <cfRule type="expression" dxfId="5" priority="6">
-      <formula>IF(OR($B90="O365Group",$B90="Type"),faslch,TRUE)</formula>
+  <conditionalFormatting sqref="J49:P49">
+    <cfRule type="expression" dxfId="8" priority="11">
+      <formula>IF(OR($B49="O365Group",$B49="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J78:P78">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>IF(OR($B78="O365Group",$B78="Type"),faslch,TRUE)</formula>
+  <conditionalFormatting sqref="J92:P92">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>IF(OR($B92="O365Group",$B92="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J81:P81">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>IF(OR($B81="O365Group",$B81="Type"),faslch,TRUE)</formula>
+  <conditionalFormatting sqref="J80:P80">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>IF(OR($B80="O365Group",$B80="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J116:P116">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>IF(OR($B116="O365Group",$B116="Type"),faslch,TRUE)</formula>
+  <conditionalFormatting sqref="J83:P83">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>IF(OR($B83="O365Group",$B83="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J104:P104">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>IF(OR($B104="O365Group",$B104="Type"),faslch,TRUE)</formula>
+  <conditionalFormatting sqref="J118:P118">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>IF(OR($B118="O365Group",$B118="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J107:P107">
+  <conditionalFormatting sqref="J106:P106">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>IF(OR($B106="O365Group",$B106="Type"),faslch,TRUE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J109:P109">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>IF(OR($B109="O365Group",$B109="Type"),faslch,TRUE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J76:P76">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>IF(OR($B76="O365Group",$B76="Type"),faslch,TRUE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:P2">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>IF(OR($B107="O365Group",$B107="Type"),faslch,TRUE)</formula>
+      <formula>IF(OR($B2="O365Group",$B2="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="S18" r:id="rId1" xr:uid="{6406F3B4-332F-49FC-A4BF-E9A46FEED504}"/>
+    <hyperlink ref="T19" r:id="rId1" xr:uid="{6406F3B4-332F-49FC-A4BF-E9A46FEED504}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/data/aad/Gruppen.xlsx
+++ b/data/aad/Gruppen.xlsx
@@ -3,13 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F39EE38-2201-465B-BCF1-5C6915015A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4286C5EF-E9DE-4BD9-8476-758C4A5DF559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5604" yWindow="48" windowWidth="24480" windowHeight="13428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8112" yWindow="1152" windowWidth="28236" windowHeight="14928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gruppen" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Gruppen!$A$1:$T$140</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="267">
   <si>
     <t>Type</t>
   </si>
@@ -816,15 +819,6 @@
     <t>ALYASG-LIC-PROJECT3</t>
   </si>
   <si>
-    <t>ALYASG-ADM-KEYAUTHENABLED</t>
-  </si>
-  <si>
-    <t>ALYASG-ADM-KEYAUTHENABLEDCLOUD</t>
-  </si>
-  <si>
-    <t>ALYASG-ADM-KEYAUTHENABLEDONPREM</t>
-  </si>
-  <si>
     <t>ParentGroup</t>
   </si>
   <si>
@@ -832,6 +826,9 @@
   </si>
   <si>
     <t>ALYASG-ADM-NOMFADEFAULTS</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-PROJECT3ONPREM</t>
   </si>
 </sst>
 </file>
@@ -921,49 +918,7 @@
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="19">
     <dxf>
       <fill>
         <patternFill>
@@ -1108,6 +1063,86 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>699246</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>116542</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1694329</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>53788</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Textfeld 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37F9DC91-3AD1-B774-DFF3-41E595C9BC86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12129246" y="10874189"/>
+          <a:ext cx="995083" cy="1192305"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100"/>
+            <a:t>Remove these licenses, if you use OnPrem</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" baseline="0"/>
+            <a:t> and Cloud license groups</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-CH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1431,9 +1466,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T138"/>
+  <dimension ref="A1:T140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1501,7 +1538,7 @@
         <v>176</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>177</v>
@@ -1515,13 +1552,13 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
@@ -1547,7 +1584,7 @@
         <v>8</v>
       </c>
       <c r="R3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
@@ -1570,7 +1607,7 @@
         <v>8</v>
       </c>
       <c r="R4" t="s">
-        <v>268</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -1593,7 +1630,7 @@
         <v>8</v>
       </c>
       <c r="R5" t="s">
-        <v>268</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1616,6 +1653,7 @@
       <c r="G6" t="s">
         <v>8</v>
       </c>
+      <c r="R6"/>
     </row>
     <row r="7" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1637,6 +1675,9 @@
       <c r="G7" t="s">
         <v>8</v>
       </c>
+      <c r="R7" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="8" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1657,6 +1698,9 @@
       <c r="F8"/>
       <c r="G8" t="s">
         <v>8</v>
+      </c>
+      <c r="R8" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1667,7 +1711,7 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D9" t="s">
         <v>257</v>
@@ -1680,7 +1724,7 @@
         <v>8</v>
       </c>
       <c r="R9" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1691,7 +1735,7 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D10" t="s">
         <v>258</v>
@@ -1704,7 +1748,7 @@
         <v>8</v>
       </c>
       <c r="R10" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1715,7 +1759,7 @@
         <v>190</v>
       </c>
       <c r="C11" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D11" t="s">
         <v>259</v>
@@ -1728,7 +1772,7 @@
         <v>8</v>
       </c>
       <c r="R11" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1751,6 +1795,7 @@
       <c r="G12" t="s">
         <v>8</v>
       </c>
+      <c r="R12"/>
     </row>
     <row r="13" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -1772,6 +1817,7 @@
       <c r="G13" t="s">
         <v>8</v>
       </c>
+      <c r="R13"/>
     </row>
     <row r="14" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -1793,6 +1839,7 @@
       <c r="G14" t="s">
         <v>8</v>
       </c>
+      <c r="R14"/>
     </row>
     <row r="15" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -1814,6 +1861,9 @@
       <c r="G15" t="s">
         <v>8</v>
       </c>
+      <c r="R15" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="16" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -1834,6 +1884,9 @@
       <c r="F16"/>
       <c r="G16" t="s">
         <v>8</v>
+      </c>
+      <c r="R16" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.3">
@@ -3371,6 +3424,9 @@
       <c r="I79" s="6" t="s">
         <v>81</v>
       </c>
+      <c r="R79" s="6" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="80" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
@@ -3394,6 +3450,9 @@
       <c r="I80" s="6" t="s">
         <v>159</v>
       </c>
+      <c r="R80" s="6" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="81" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
@@ -3417,6 +3476,9 @@
       <c r="I81" s="6" t="s">
         <v>82</v>
       </c>
+      <c r="R81" s="6" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="82" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
@@ -3440,6 +3502,9 @@
       <c r="I82" s="6" t="s">
         <v>201</v>
       </c>
+      <c r="R82" s="6" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="83" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
@@ -3463,6 +3528,9 @@
       <c r="I83" s="6" t="s">
         <v>200</v>
       </c>
+      <c r="R83" s="6" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="84" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
@@ -3486,6 +3554,9 @@
       <c r="I84" s="6" t="s">
         <v>83</v>
       </c>
+      <c r="R84" s="6" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="85" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
@@ -3510,7 +3581,7 @@
         <v>84</v>
       </c>
       <c r="R85" s="6" t="s">
-        <v>160</v>
+        <v>119</v>
       </c>
     </row>
     <row r="86" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3535,6 +3606,9 @@
       <c r="I86" s="6" t="s">
         <v>33</v>
       </c>
+      <c r="R86" s="6" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="87" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
@@ -3558,6 +3632,9 @@
       <c r="I87" s="6" t="s">
         <v>85</v>
       </c>
+      <c r="R87" s="6" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="88" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
@@ -3581,6 +3658,9 @@
       <c r="I88" s="6" t="s">
         <v>35</v>
       </c>
+      <c r="R88" s="6" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="89" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
@@ -3604,6 +3684,9 @@
       <c r="I89" s="6" t="s">
         <v>86</v>
       </c>
+      <c r="R89" s="6" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="90" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
@@ -3627,6 +3710,9 @@
       <c r="I90" s="6" t="s">
         <v>87</v>
       </c>
+      <c r="R90" s="6" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="91" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
@@ -3650,6 +3736,9 @@
       <c r="I91" s="6" t="s">
         <v>42</v>
       </c>
+      <c r="R91" s="6" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="92" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
@@ -3674,7 +3763,7 @@
         <v>145</v>
       </c>
       <c r="R92" s="6" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
     </row>
     <row r="93" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3700,7 +3789,7 @@
         <v>88</v>
       </c>
       <c r="R93" s="6" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
     </row>
     <row r="94" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3726,7 +3815,7 @@
         <v>43</v>
       </c>
       <c r="R94" s="6" t="s">
-        <v>160</v>
+        <v>127</v>
       </c>
     </row>
     <row r="95" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3751,6 +3840,9 @@
       <c r="I95" s="6" t="s">
         <v>32</v>
       </c>
+      <c r="R95" s="6" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="96" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
@@ -3774,6 +3866,9 @@
       <c r="I96" s="6" t="s">
         <v>89</v>
       </c>
+      <c r="R96" s="6" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="97" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
@@ -3797,6 +3892,9 @@
       <c r="I97" s="6" t="s">
         <v>34</v>
       </c>
+      <c r="R97" s="6" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="98" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
@@ -3820,6 +3918,9 @@
       <c r="I98" s="6" t="s">
         <v>45</v>
       </c>
+      <c r="R98" s="6" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="99" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
@@ -3843,6 +3944,9 @@
       <c r="I99" s="6" t="s">
         <v>90</v>
       </c>
+      <c r="R99" s="6" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="100" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
@@ -3866,6 +3970,9 @@
       <c r="I100" s="6" t="s">
         <v>91</v>
       </c>
+      <c r="R100" s="6" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="101" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
@@ -3889,6 +3996,9 @@
       <c r="I101" s="6" t="s">
         <v>92</v>
       </c>
+      <c r="R101" s="6" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="102" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
@@ -3912,6 +4022,9 @@
       <c r="I102" s="6" t="s">
         <v>44</v>
       </c>
+      <c r="R102" s="6" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="103" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
@@ -3921,10 +4034,10 @@
         <v>190</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>229</v>
+        <v>266</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>229</v>
+        <v>266</v>
       </c>
       <c r="E103" s="6" t="s">
         <v>31</v>
@@ -3933,7 +4046,10 @@
         <v>8</v>
       </c>
       <c r="I103" s="6" t="s">
-        <v>93</v>
+        <v>261</v>
+      </c>
+      <c r="R103" s="6" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="104" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3944,42 +4060,48 @@
         <v>190</v>
       </c>
       <c r="C104" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G104" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I104" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="R104" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C105" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="D104" s="6" t="s">
+      <c r="D105" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="E104" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G104" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I104" s="6" t="s">
+      <c r="E105" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G105" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I105" s="6" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="105" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G105" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I105" s="3" t="s">
-        <v>81</v>
+      <c r="R105" s="6" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="106" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3990,10 +4112,10 @@
         <v>12</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E106" s="3" t="s">
         <v>31</v>
@@ -4002,7 +4124,10 @@
         <v>8</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>159</v>
+        <v>81</v>
+      </c>
+      <c r="R106" s="3" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="107" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4013,10 +4138,10 @@
         <v>12</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>31</v>
@@ -4025,7 +4150,10 @@
         <v>8</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>82</v>
+        <v>159</v>
+      </c>
+      <c r="R107" s="3" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="108" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4036,10 +4164,10 @@
         <v>12</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>31</v>
@@ -4048,7 +4176,10 @@
         <v>8</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>201</v>
+        <v>82</v>
+      </c>
+      <c r="R108" s="3" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="109" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4059,10 +4190,10 @@
         <v>12</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>31</v>
@@ -4071,7 +4202,10 @@
         <v>8</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
+      </c>
+      <c r="R109" s="3" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="110" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4082,10 +4216,10 @@
         <v>12</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>31</v>
@@ -4094,7 +4228,10 @@
         <v>8</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>83</v>
+        <v>200</v>
+      </c>
+      <c r="R110" s="3" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="111" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4105,10 +4242,10 @@
         <v>12</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>31</v>
@@ -4117,10 +4254,10 @@
         <v>8</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R111" s="3" t="s">
-        <v>160</v>
+        <v>118</v>
       </c>
     </row>
     <row r="112" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4131,10 +4268,10 @@
         <v>12</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>31</v>
@@ -4143,7 +4280,10 @@
         <v>8</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>33</v>
+        <v>84</v>
+      </c>
+      <c r="R112" s="3" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="113" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4154,10 +4294,10 @@
         <v>12</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>31</v>
@@ -4166,7 +4306,10 @@
         <v>8</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>85</v>
+        <v>33</v>
+      </c>
+      <c r="R113" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="114" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4177,10 +4320,10 @@
         <v>12</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>31</v>
@@ -4189,7 +4332,10 @@
         <v>8</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>35</v>
+        <v>85</v>
+      </c>
+      <c r="R114" s="3" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="115" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4200,10 +4346,10 @@
         <v>12</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>31</v>
@@ -4212,7 +4358,10 @@
         <v>8</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>86</v>
+        <v>35</v>
+      </c>
+      <c r="R115" s="3" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="116" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4223,10 +4372,10 @@
         <v>12</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>31</v>
@@ -4235,7 +4384,10 @@
         <v>8</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="R116" s="3" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="117" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4246,10 +4398,10 @@
         <v>12</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>31</v>
@@ -4258,7 +4410,10 @@
         <v>8</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>42</v>
+        <v>87</v>
+      </c>
+      <c r="R117" s="3" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="118" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4269,10 +4424,10 @@
         <v>12</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>31</v>
@@ -4281,10 +4436,10 @@
         <v>8</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>145</v>
+        <v>42</v>
       </c>
       <c r="R118" s="3" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
     </row>
     <row r="119" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4295,10 +4450,10 @@
         <v>12</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>31</v>
@@ -4307,10 +4462,10 @@
         <v>8</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>88</v>
+        <v>145</v>
       </c>
       <c r="R119" s="3" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
     </row>
     <row r="120" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4321,10 +4476,10 @@
         <v>12</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E120" s="3" t="s">
         <v>31</v>
@@ -4333,10 +4488,10 @@
         <v>8</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="R120" s="3" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
     </row>
     <row r="121" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4347,10 +4502,10 @@
         <v>12</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>31</v>
@@ -4359,7 +4514,10 @@
         <v>8</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>32</v>
+        <v>43</v>
+      </c>
+      <c r="R121" s="3" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="122" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4370,10 +4528,10 @@
         <v>12</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>31</v>
@@ -4382,7 +4540,10 @@
         <v>8</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>89</v>
+        <v>32</v>
+      </c>
+      <c r="R122" s="3" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="123" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4393,10 +4554,10 @@
         <v>12</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E123" s="3" t="s">
         <v>31</v>
@@ -4405,7 +4566,10 @@
         <v>8</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>34</v>
+        <v>89</v>
+      </c>
+      <c r="R123" s="3" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="124" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4416,10 +4580,10 @@
         <v>12</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E124" s="3" t="s">
         <v>31</v>
@@ -4428,7 +4592,10 @@
         <v>8</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>45</v>
+        <v>34</v>
+      </c>
+      <c r="R124" s="3" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="125" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4439,10 +4606,10 @@
         <v>12</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E125" s="3" t="s">
         <v>31</v>
@@ -4451,7 +4618,10 @@
         <v>8</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>90</v>
+        <v>45</v>
+      </c>
+      <c r="R125" s="3" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="126" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4462,10 +4632,10 @@
         <v>12</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E126" s="3" t="s">
         <v>31</v>
@@ -4474,7 +4644,10 @@
         <v>8</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
+      </c>
+      <c r="R126" s="3" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="127" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4485,10 +4658,10 @@
         <v>12</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E127" s="3" t="s">
         <v>31</v>
@@ -4497,7 +4670,10 @@
         <v>8</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
+      </c>
+      <c r="R127" s="3" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="128" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4508,119 +4684,140 @@
         <v>12</v>
       </c>
       <c r="C128" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I128" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="R128" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C129" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="D128" s="3" t="s">
+      <c r="D129" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="E128" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G128" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I128" s="3" t="s">
+      <c r="E129" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I129" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C129" s="3" t="s">
+      <c r="R129" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I130" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="R130" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C131" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="D129" s="3" t="s">
+      <c r="D131" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="E129" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G129" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I129" s="3" t="s">
+      <c r="E131" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I131" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C130" s="3" t="s">
+      <c r="R131" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C132" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="D130" s="3" t="s">
+      <c r="D132" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="E130" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G130" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I130" s="3" t="s">
+      <c r="E132" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I132" s="3" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B131" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C131" s="4" t="s">
+      <c r="R132" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C133" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D131" s="4" t="s">
+      <c r="D133" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="E131" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G131" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D132" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="E132" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G132" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C133" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D133" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="E133" s="4" t="s">
         <v>36</v>
@@ -4629,7 +4826,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
         <v>23</v>
       </c>
@@ -4637,10 +4834,10 @@
         <v>12</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E134" s="4" t="s">
         <v>36</v>
@@ -4649,7 +4846,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
         <v>23</v>
       </c>
@@ -4657,50 +4854,50 @@
         <v>12</v>
       </c>
       <c r="C135" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G135" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G136" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C137" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D135" s="4" t="s">
+      <c r="D137" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="E135" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G135" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B136" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C136" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D136" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E136" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G136" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B137" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C137" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D137" s="4" t="s">
-        <v>143</v>
       </c>
       <c r="E137" s="4" t="s">
         <v>37</v>
@@ -4709,7 +4906,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
         <v>23</v>
       </c>
@@ -4717,10 +4914,10 @@
         <v>12</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E138" s="4" t="s">
         <v>37</v>
@@ -4729,130 +4926,141 @@
         <v>8</v>
       </c>
     </row>
+    <row r="139" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G139" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G140" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J29:P31 J39:P40 J42:P44 J33:P37 J52:P52 J54:P55 J57:P64 J26:P27 J14:P18 J20:P23 J66:P75 J81:P82 J84:P91 J93:P105 J107:P108 J110:P117 J1:P1 J77:P79 J119:P1048576 J3:P11">
-    <cfRule type="expression" dxfId="24" priority="27">
+  <autoFilter ref="A1:T140" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <conditionalFormatting sqref="J52:P52 J54:P55 J57:P64 J14:P18 J66:P75 J81:P82 J84:P91 J93:P102 J108:P109 J111:P118 J1:P1 J77:P79 J3:P11 J104:P106 J120:P129 J131:P1048576">
+    <cfRule type="expression" dxfId="18" priority="32">
       <formula>IF(OR($B1="O365Group",$B1="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:P13">
-    <cfRule type="expression" dxfId="23" priority="26">
+    <cfRule type="expression" dxfId="17" priority="31">
       <formula>IF(OR($B12="O365Group",$B12="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J28:P28">
-    <cfRule type="expression" dxfId="22" priority="25">
-      <formula>IF(OR($B28="O365Group",$B28="Type"),faslch,TRUE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J38:P38">
-    <cfRule type="expression" dxfId="21" priority="24">
-      <formula>IF(OR($B38="O365Group",$B38="Type"),faslch,TRUE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J41:P41">
-    <cfRule type="expression" dxfId="20" priority="23">
-      <formula>IF(OR($B41="O365Group",$B41="Type"),faslch,TRUE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J45:P45">
-    <cfRule type="expression" dxfId="19" priority="22">
-      <formula>IF(OR($B45="O365Group",$B45="Type"),faslch,TRUE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J32:P32">
-    <cfRule type="expression" dxfId="18" priority="21">
-      <formula>IF(OR($B32="O365Group",$B32="Type"),faslch,TRUE)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="J65:P65">
-    <cfRule type="expression" dxfId="17" priority="20">
+    <cfRule type="expression" dxfId="16" priority="25">
       <formula>IF(OR($B65="O365Group",$B65="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J47:P47 J50:P51">
-    <cfRule type="expression" dxfId="16" priority="19">
-      <formula>IF(OR($B47="O365Group",$B47="Type"),faslch,TRUE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J46:P46">
-    <cfRule type="expression" dxfId="15" priority="18">
-      <formula>IF(OR($B46="O365Group",$B46="Type"),faslch,TRUE)</formula>
+  <conditionalFormatting sqref="J50:P51">
+    <cfRule type="expression" dxfId="15" priority="24">
+      <formula>IF(OR($B50="O365Group",$B50="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J53:P53">
-    <cfRule type="expression" dxfId="14" priority="17">
+    <cfRule type="expression" dxfId="14" priority="22">
       <formula>IF(OR($B53="O365Group",$B53="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J56:P56">
-    <cfRule type="expression" dxfId="13" priority="16">
+    <cfRule type="expression" dxfId="13" priority="21">
       <formula>IF(OR($B56="O365Group",$B56="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19:P19">
-    <cfRule type="expression" dxfId="12" priority="15">
+    <cfRule type="expression" dxfId="12" priority="20">
       <formula>IF(OR($B19="O365Group",$B19="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J24:P24">
-    <cfRule type="expression" dxfId="11" priority="14">
-      <formula>IF(OR($B24="O365Group",$B24="Type"),faslch,TRUE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J25:P25">
-    <cfRule type="expression" dxfId="10" priority="13">
-      <formula>IF(OR($B25="O365Group",$B25="Type"),faslch,TRUE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J48:P48">
-    <cfRule type="expression" dxfId="9" priority="12">
-      <formula>IF(OR($B48="O365Group",$B48="Type"),faslch,TRUE)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="J49:P49">
-    <cfRule type="expression" dxfId="8" priority="11">
+    <cfRule type="expression" dxfId="11" priority="16">
       <formula>IF(OR($B49="O365Group",$B49="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J92:P92">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="10" priority="13">
       <formula>IF(OR($B92="O365Group",$B92="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J80:P80">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="9" priority="12">
       <formula>IF(OR($B80="O365Group",$B80="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J83:P83">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="8" priority="11">
       <formula>IF(OR($B83="O365Group",$B83="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J118:P118">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>IF(OR($B118="O365Group",$B118="Type"),faslch,TRUE)</formula>
+  <conditionalFormatting sqref="J119:P119">
+    <cfRule type="expression" dxfId="7" priority="10">
+      <formula>IF(OR($B119="O365Group",$B119="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J106:P106">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>IF(OR($B106="O365Group",$B106="Type"),faslch,TRUE)</formula>
+  <conditionalFormatting sqref="J107:P107">
+    <cfRule type="expression" dxfId="6" priority="9">
+      <formula>IF(OR($B107="O365Group",$B107="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J109:P109">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>IF(OR($B109="O365Group",$B109="Type"),faslch,TRUE)</formula>
+  <conditionalFormatting sqref="J110:P110">
+    <cfRule type="expression" dxfId="5" priority="8">
+      <formula>IF(OR($B110="O365Group",$B110="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J76:P76">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="4" priority="7">
       <formula>IF(OR($B76="O365Group",$B76="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:P2">
+    <cfRule type="expression" dxfId="3" priority="6">
+      <formula>IF(OR($B2="O365Group",$B2="Type"),faslch,TRUE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J103:P103">
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>IF(OR($B103="O365Group",$B103="Type"),faslch,TRUE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J130:P130">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>IF(OR($B130="O365Group",$B130="Type"),faslch,TRUE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20:P48">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>IF(OR($B2="O365Group",$B2="Type"),faslch,TRUE)</formula>
+      <formula>IF(OR($B20="O365Group",$B20="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -4860,6 +5068,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/data/aad/Gruppen.xlsx
+++ b/data/aad/Gruppen.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4286C5EF-E9DE-4BD9-8476-758C4A5DF559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E79AB7D-13EE-4AFF-9F7A-AB7E63D62561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8112" yWindow="1152" windowWidth="28236" windowHeight="14928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6636" yWindow="912" windowWidth="32124" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gruppen" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="268">
   <si>
     <t>Type</t>
   </si>
@@ -829,6 +829,9 @@
   </si>
   <si>
     <t>ALYASG-LIC-PROJECT3ONPREM</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-PROJECT3CLOUD</t>
   </si>
 </sst>
 </file>
@@ -4736,10 +4739,10 @@
         <v>12</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E130" s="3" t="s">
         <v>31</v>
@@ -5073,18 +5076,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5272,6 +5275,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB80E815-258B-4085-B06C-0327483055A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18209EA7-04F6-445D-8F30-F19FC7D76916}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -5283,14 +5294,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB80E815-258B-4085-B06C-0327483055A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data/aad/Gruppen.xlsx
+++ b/data/aad/Gruppen.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E79AB7D-13EE-4AFF-9F7A-AB7E63D62561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C6017E-A141-400E-ADDD-E114177CBEC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6636" yWindow="912" windowWidth="32124" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16068" yWindow="492" windowWidth="22860" windowHeight="16164" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gruppen" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Gruppen!$A$1:$T$140</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Gruppen!$A$1:$T$143</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="272">
   <si>
     <t>Type</t>
   </si>
@@ -832,6 +832,18 @@
   </si>
   <si>
     <t>ALYASG-LIC-PROJECT3CLOUD</t>
+  </si>
+  <si>
+    <t>Microsoft_365_Copilot</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-COPILOT</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-COPILOTONPREM</t>
+  </si>
+  <si>
+    <t>ALYASG-LIC-COPILOTCLOUD</t>
   </si>
 </sst>
 </file>
@@ -1149,9 +1161,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1189,9 +1201,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1224,26 +1236,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1276,26 +1271,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1469,10 +1447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T140"/>
+  <dimension ref="A1:T143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3405,30 +3383,27 @@
         <v>204</v>
       </c>
     </row>
-    <row r="79" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G79" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I79" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="R79" s="6" t="s">
-        <v>116</v>
+    <row r="79" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="80" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3439,10 +3414,10 @@
         <v>190</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E80" s="6" t="s">
         <v>31</v>
@@ -3451,10 +3426,10 @@
         <v>8</v>
       </c>
       <c r="I80" s="6" t="s">
-        <v>159</v>
+        <v>81</v>
       </c>
       <c r="R80" s="6" t="s">
-        <v>166</v>
+        <v>116</v>
       </c>
     </row>
     <row r="81" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3465,10 +3440,10 @@
         <v>190</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E81" s="6" t="s">
         <v>31</v>
@@ -3477,10 +3452,10 @@
         <v>8</v>
       </c>
       <c r="I81" s="6" t="s">
-        <v>82</v>
+        <v>159</v>
       </c>
       <c r="R81" s="6" t="s">
-        <v>117</v>
+        <v>166</v>
       </c>
     </row>
     <row r="82" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3491,10 +3466,10 @@
         <v>190</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E82" s="6" t="s">
         <v>31</v>
@@ -3503,10 +3478,10 @@
         <v>8</v>
       </c>
       <c r="I82" s="6" t="s">
-        <v>201</v>
+        <v>82</v>
       </c>
       <c r="R82" s="6" t="s">
-        <v>202</v>
+        <v>117</v>
       </c>
     </row>
     <row r="83" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3517,10 +3492,10 @@
         <v>190</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E83" s="6" t="s">
         <v>31</v>
@@ -3529,10 +3504,10 @@
         <v>8</v>
       </c>
       <c r="I83" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="R83" s="6" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="84" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3543,10 +3518,10 @@
         <v>190</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E84" s="6" t="s">
         <v>31</v>
@@ -3555,10 +3530,10 @@
         <v>8</v>
       </c>
       <c r="I84" s="6" t="s">
-        <v>83</v>
+        <v>200</v>
       </c>
       <c r="R84" s="6" t="s">
-        <v>118</v>
+        <v>199</v>
       </c>
     </row>
     <row r="85" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3569,10 +3544,10 @@
         <v>190</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E85" s="6" t="s">
         <v>31</v>
@@ -3581,10 +3556,10 @@
         <v>8</v>
       </c>
       <c r="I85" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R85" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="86" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3595,10 +3570,10 @@
         <v>190</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E86" s="6" t="s">
         <v>31</v>
@@ -3607,10 +3582,10 @@
         <v>8</v>
       </c>
       <c r="I86" s="6" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="R86" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="87" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3621,10 +3596,10 @@
         <v>190</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E87" s="6" t="s">
         <v>31</v>
@@ -3633,10 +3608,10 @@
         <v>8</v>
       </c>
       <c r="I87" s="6" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="R87" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="88" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3647,10 +3622,10 @@
         <v>190</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E88" s="6" t="s">
         <v>31</v>
@@ -3659,10 +3634,10 @@
         <v>8</v>
       </c>
       <c r="I88" s="6" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="R88" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="89" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3673,10 +3648,10 @@
         <v>190</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E89" s="6" t="s">
         <v>31</v>
@@ -3685,10 +3660,10 @@
         <v>8</v>
       </c>
       <c r="I89" s="6" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="R89" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="90" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3699,10 +3674,10 @@
         <v>190</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E90" s="6" t="s">
         <v>31</v>
@@ -3711,10 +3686,10 @@
         <v>8</v>
       </c>
       <c r="I90" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R90" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="91" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3725,10 +3700,10 @@
         <v>190</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E91" s="6" t="s">
         <v>31</v>
@@ -3737,10 +3712,10 @@
         <v>8</v>
       </c>
       <c r="I91" s="6" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="R91" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="92" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3751,10 +3726,10 @@
         <v>190</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E92" s="6" t="s">
         <v>31</v>
@@ -3763,10 +3738,10 @@
         <v>8</v>
       </c>
       <c r="I92" s="6" t="s">
-        <v>145</v>
+        <v>42</v>
       </c>
       <c r="R92" s="6" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
     </row>
     <row r="93" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3777,10 +3752,10 @@
         <v>190</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E93" s="6" t="s">
         <v>31</v>
@@ -3789,10 +3764,10 @@
         <v>8</v>
       </c>
       <c r="I93" s="6" t="s">
-        <v>88</v>
+        <v>145</v>
       </c>
       <c r="R93" s="6" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
     </row>
     <row r="94" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3803,10 +3778,10 @@
         <v>190</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E94" s="6" t="s">
         <v>31</v>
@@ -3815,10 +3790,10 @@
         <v>8</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="R94" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="95" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3829,10 +3804,10 @@
         <v>190</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E95" s="6" t="s">
         <v>31</v>
@@ -3841,10 +3816,10 @@
         <v>8</v>
       </c>
       <c r="I95" s="6" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="R95" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="96" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3855,10 +3830,10 @@
         <v>190</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E96" s="6" t="s">
         <v>31</v>
@@ -3867,10 +3842,10 @@
         <v>8</v>
       </c>
       <c r="I96" s="6" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="R96" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="97" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3881,10 +3856,10 @@
         <v>190</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E97" s="6" t="s">
         <v>31</v>
@@ -3893,10 +3868,10 @@
         <v>8</v>
       </c>
       <c r="I97" s="6" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="R97" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="98" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3907,10 +3882,10 @@
         <v>190</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E98" s="6" t="s">
         <v>31</v>
@@ -3919,10 +3894,10 @@
         <v>8</v>
       </c>
       <c r="I98" s="6" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="R98" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="99" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3933,10 +3908,10 @@
         <v>190</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E99" s="6" t="s">
         <v>31</v>
@@ -3945,10 +3920,10 @@
         <v>8</v>
       </c>
       <c r="I99" s="6" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="R99" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="100" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3959,10 +3934,10 @@
         <v>190</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E100" s="6" t="s">
         <v>31</v>
@@ -3971,10 +3946,10 @@
         <v>8</v>
       </c>
       <c r="I100" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R100" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="101" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3985,10 +3960,10 @@
         <v>190</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E101" s="6" t="s">
         <v>31</v>
@@ -3997,10 +3972,10 @@
         <v>8</v>
       </c>
       <c r="I101" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R101" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="102" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -4011,10 +3986,10 @@
         <v>190</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E102" s="6" t="s">
         <v>31</v>
@@ -4023,10 +3998,10 @@
         <v>8</v>
       </c>
       <c r="I102" s="6" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="R102" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="103" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -4037,10 +4012,10 @@
         <v>190</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>266</v>
+        <v>228</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>266</v>
+        <v>228</v>
       </c>
       <c r="E103" s="6" t="s">
         <v>31</v>
@@ -4049,10 +4024,10 @@
         <v>8</v>
       </c>
       <c r="I103" s="6" t="s">
-        <v>261</v>
+        <v>44</v>
       </c>
       <c r="R103" s="6" t="s">
-        <v>262</v>
+        <v>135</v>
       </c>
     </row>
     <row r="104" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -4063,10 +4038,10 @@
         <v>190</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>229</v>
+        <v>266</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>229</v>
+        <v>266</v>
       </c>
       <c r="E104" s="6" t="s">
         <v>31</v>
@@ -4075,10 +4050,10 @@
         <v>8</v>
       </c>
       <c r="I104" s="6" t="s">
-        <v>93</v>
+        <v>261</v>
       </c>
       <c r="R104" s="6" t="s">
-        <v>136</v>
+        <v>262</v>
       </c>
     </row>
     <row r="105" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -4089,74 +4064,74 @@
         <v>190</v>
       </c>
       <c r="C105" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G105" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I105" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="R105" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C106" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="D105" s="6" t="s">
+      <c r="D106" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="E105" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G105" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I105" s="6" t="s">
+      <c r="E106" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G106" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I106" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="R105" s="6" t="s">
+      <c r="R106" s="6" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="106" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G106" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I106" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="R106" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="107" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G107" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I107" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="R107" s="3" t="s">
-        <v>166</v>
+    <row r="107" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G107" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I107" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="R107" s="6" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="108" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4167,10 +4142,10 @@
         <v>12</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>31</v>
@@ -4179,10 +4154,10 @@
         <v>8</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R108" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="109" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4193,10 +4168,10 @@
         <v>12</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>31</v>
@@ -4205,10 +4180,10 @@
         <v>8</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="R109" s="3" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
     </row>
     <row r="110" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4219,10 +4194,10 @@
         <v>12</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>31</v>
@@ -4231,10 +4206,10 @@
         <v>8</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>200</v>
+        <v>82</v>
       </c>
       <c r="R110" s="3" t="s">
-        <v>199</v>
+        <v>117</v>
       </c>
     </row>
     <row r="111" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4245,10 +4220,10 @@
         <v>12</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>31</v>
@@ -4257,10 +4232,10 @@
         <v>8</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>83</v>
+        <v>201</v>
       </c>
       <c r="R111" s="3" t="s">
-        <v>118</v>
+        <v>202</v>
       </c>
     </row>
     <row r="112" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4271,10 +4246,10 @@
         <v>12</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>31</v>
@@ -4283,10 +4258,10 @@
         <v>8</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>84</v>
+        <v>200</v>
       </c>
       <c r="R112" s="3" t="s">
-        <v>119</v>
+        <v>199</v>
       </c>
     </row>
     <row r="113" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4297,10 +4272,10 @@
         <v>12</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>31</v>
@@ -4309,10 +4284,10 @@
         <v>8</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="R113" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="114" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4323,10 +4298,10 @@
         <v>12</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>31</v>
@@ -4335,10 +4310,10 @@
         <v>8</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R114" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="115" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4349,10 +4324,10 @@
         <v>12</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>31</v>
@@ -4361,10 +4336,10 @@
         <v>8</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R115" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="116" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4375,10 +4350,10 @@
         <v>12</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>31</v>
@@ -4387,10 +4362,10 @@
         <v>8</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R116" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="117" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4401,10 +4376,10 @@
         <v>12</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>31</v>
@@ -4413,10 +4388,10 @@
         <v>8</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="R117" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="118" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4427,10 +4402,10 @@
         <v>12</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>31</v>
@@ -4439,10 +4414,10 @@
         <v>8</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="R118" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="119" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4453,10 +4428,10 @@
         <v>12</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>31</v>
@@ -4465,10 +4440,10 @@
         <v>8</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>145</v>
+        <v>87</v>
       </c>
       <c r="R119" s="3" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
     </row>
     <row r="120" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4479,10 +4454,10 @@
         <v>12</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E120" s="3" t="s">
         <v>31</v>
@@ -4491,10 +4466,10 @@
         <v>8</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="R120" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="121" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4505,10 +4480,10 @@
         <v>12</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>31</v>
@@ -4517,10 +4492,10 @@
         <v>8</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="R121" s="3" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="122" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4531,10 +4506,10 @@
         <v>12</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>31</v>
@@ -4543,10 +4518,10 @@
         <v>8</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="R122" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="123" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4557,10 +4532,10 @@
         <v>12</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E123" s="3" t="s">
         <v>31</v>
@@ -4569,10 +4544,10 @@
         <v>8</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="R123" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="124" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4583,10 +4558,10 @@
         <v>12</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E124" s="3" t="s">
         <v>31</v>
@@ -4595,10 +4570,10 @@
         <v>8</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="R124" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="125" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4609,10 +4584,10 @@
         <v>12</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E125" s="3" t="s">
         <v>31</v>
@@ -4621,10 +4596,10 @@
         <v>8</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="R125" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="126" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4635,10 +4610,10 @@
         <v>12</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E126" s="3" t="s">
         <v>31</v>
@@ -4647,10 +4622,10 @@
         <v>8</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="R126" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="127" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4661,10 +4636,10 @@
         <v>12</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E127" s="3" t="s">
         <v>31</v>
@@ -4673,10 +4648,10 @@
         <v>8</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="R127" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="128" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4687,10 +4662,10 @@
         <v>12</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E128" s="3" t="s">
         <v>31</v>
@@ -4699,10 +4674,10 @@
         <v>8</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="R128" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="129" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4713,10 +4688,10 @@
         <v>12</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E129" s="3" t="s">
         <v>31</v>
@@ -4725,10 +4700,10 @@
         <v>8</v>
       </c>
       <c r="I129" s="3" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="R129" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="130" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4739,10 +4714,10 @@
         <v>12</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="E130" s="3" t="s">
         <v>31</v>
@@ -4751,10 +4726,10 @@
         <v>8</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>261</v>
+        <v>92</v>
       </c>
       <c r="R130" s="3" t="s">
-        <v>262</v>
+        <v>134</v>
       </c>
     </row>
     <row r="131" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4765,10 +4740,10 @@
         <v>12</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E131" s="3" t="s">
         <v>31</v>
@@ -4777,10 +4752,10 @@
         <v>8</v>
       </c>
       <c r="I131" s="3" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="R131" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="132" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4791,82 +4766,100 @@
         <v>12</v>
       </c>
       <c r="C132" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I132" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="R132" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I133" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="R133" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C134" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="D132" s="3" t="s">
+      <c r="D134" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="E132" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G132" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I132" s="3" t="s">
+      <c r="E134" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I134" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="R132" s="3" t="s">
+      <c r="R134" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="133" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C133" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D133" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E133" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G133" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="134" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B134" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D134" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="E134" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G134" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="135" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B135" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C135" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D135" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E135" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G135" s="4" t="s">
-        <v>8</v>
+    <row r="135" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I135" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="R135" s="3" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="136" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -4877,10 +4870,10 @@
         <v>12</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E136" s="4" t="s">
         <v>36</v>
@@ -4897,13 +4890,13 @@
         <v>12</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G137" s="4" t="s">
         <v>8</v>
@@ -4917,13 +4910,13 @@
         <v>12</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G138" s="4" t="s">
         <v>8</v>
@@ -4937,13 +4930,13 @@
         <v>12</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G139" s="4" t="s">
         <v>8</v>
@@ -4957,10 +4950,10 @@
         <v>12</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E140" s="4" t="s">
         <v>37</v>
@@ -4969,9 +4962,69 @@
         <v>8</v>
       </c>
     </row>
+    <row r="141" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G141" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G142" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G143" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:T140" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <conditionalFormatting sqref="J52:P52 J54:P55 J57:P64 J14:P18 J66:P75 J81:P82 J84:P91 J93:P102 J108:P109 J111:P118 J1:P1 J77:P79 J3:P11 J104:P106 J120:P129 J131:P1048576">
+  <autoFilter ref="A1:T143" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <conditionalFormatting sqref="J52:P52 J54:P55 J57:P64 J14:P18 J66:P75 J82:P83 J85:P92 J94:P103 J110:P111 J113:P120 J1:P1 J3:P11 J122:P131 J77:P80 J105:P108 J133:P1048576">
     <cfRule type="expression" dxfId="18" priority="32">
       <formula>IF(OR($B1="O365Group",$B1="Type"),faslch,TRUE)</formula>
     </cfRule>
@@ -5011,34 +5064,34 @@
       <formula>IF(OR($B49="O365Group",$B49="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J92:P92">
+  <conditionalFormatting sqref="J93:P93">
     <cfRule type="expression" dxfId="10" priority="13">
-      <formula>IF(OR($B92="O365Group",$B92="Type"),faslch,TRUE)</formula>
+      <formula>IF(OR($B93="O365Group",$B93="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J80:P80">
+  <conditionalFormatting sqref="J81:P81">
     <cfRule type="expression" dxfId="9" priority="12">
-      <formula>IF(OR($B80="O365Group",$B80="Type"),faslch,TRUE)</formula>
+      <formula>IF(OR($B81="O365Group",$B81="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J83:P83">
+  <conditionalFormatting sqref="J84:P84">
     <cfRule type="expression" dxfId="8" priority="11">
-      <formula>IF(OR($B83="O365Group",$B83="Type"),faslch,TRUE)</formula>
+      <formula>IF(OR($B84="O365Group",$B84="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J119:P119">
+  <conditionalFormatting sqref="J121:P121">
     <cfRule type="expression" dxfId="7" priority="10">
-      <formula>IF(OR($B119="O365Group",$B119="Type"),faslch,TRUE)</formula>
+      <formula>IF(OR($B121="O365Group",$B121="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J107:P107">
+  <conditionalFormatting sqref="J109:P109">
     <cfRule type="expression" dxfId="6" priority="9">
-      <formula>IF(OR($B107="O365Group",$B107="Type"),faslch,TRUE)</formula>
+      <formula>IF(OR($B109="O365Group",$B109="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J110:P110">
+  <conditionalFormatting sqref="J112:P112">
     <cfRule type="expression" dxfId="5" priority="8">
-      <formula>IF(OR($B110="O365Group",$B110="Type"),faslch,TRUE)</formula>
+      <formula>IF(OR($B112="O365Group",$B112="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J76:P76">
@@ -5051,14 +5104,14 @@
       <formula>IF(OR($B2="O365Group",$B2="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J103:P103">
+  <conditionalFormatting sqref="J104:P104">
     <cfRule type="expression" dxfId="2" priority="4">
-      <formula>IF(OR($B103="O365Group",$B103="Type"),faslch,TRUE)</formula>
+      <formula>IF(OR($B104="O365Group",$B104="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J130:P130">
+  <conditionalFormatting sqref="J132:P132">
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>IF(OR($B130="O365Group",$B130="Type"),faslch,TRUE)</formula>
+      <formula>IF(OR($B132="O365Group",$B132="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20:P48">
@@ -5076,21 +5129,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100DBA446ED503E744880217BF491FB0C7B" ma:contentTypeVersion="10" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="27f6ebb53777ae95e550442d3878210b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="353a1f37-f986-455b-adc7-292fbd315350" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="71df197f0939a0ed9a29c200b6a3be36" ns2:_="">
     <xsd:import namespace="353a1f37-f986-455b-adc7-292fbd315350"/>
@@ -5274,10 +5312,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB80E815-258B-4085-B06C-0327483055A8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2534DDDA-BE8A-43DA-A0C1-B6D96DC767B2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="353a1f37-f986-455b-adc7-292fbd315350"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5299,19 +5362,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2534DDDA-BE8A-43DA-A0C1-B6D96DC767B2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB80E815-258B-4085-B06C-0327483055A8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="353a1f37-f986-455b-adc7-292fbd315350"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/aad/Gruppen.xlsx
+++ b/data/aad/Gruppen.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C6017E-A141-400E-ADDD-E114177CBEC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EA7DAE-1315-4CFE-B9A2-78BFA14722FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16068" yWindow="492" windowWidth="22860" windowHeight="16164" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2484" yWindow="1176" windowWidth="33540" windowHeight="13680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gruppen" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Gruppen!$A$1:$T$143</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Gruppen!$A$1:$T$145</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="278">
   <si>
     <t>Type</t>
   </si>
@@ -844,6 +844,24 @@
   </si>
   <si>
     <t>ALYASG-LIC-COPILOTCLOUD</t>
+  </si>
+  <si>
+    <t>Holds all mdm windows365 devices</t>
+  </si>
+  <si>
+    <t>(device.deviceOSType -match "Windows") and (device.managementType -eq "MDM") and (device.deviceModel -startsWith "Cloud PC")</t>
+  </si>
+  <si>
+    <t>Holds all mdm windows365 11 devices</t>
+  </si>
+  <si>
+    <t>(device.deviceOSType -match "Windows") -and (device.managementType -eq "MDM") -and (device.deviceOSVersion -startsWith "10.0.2") and (device.deviceModel -startsWith "Cloud PC")</t>
+  </si>
+  <si>
+    <t>ALYASG-DEV-WIN365MDM</t>
+  </si>
+  <si>
+    <t>ALYASG-DEV-WIN365MDM11</t>
   </si>
 </sst>
 </file>
@@ -933,7 +951,14 @@
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="20">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1086,13 +1111,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>699246</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>116542</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1694329</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>53788</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1447,11 +1472,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T143"/>
+  <dimension ref="A1:T145"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2750,50 +2773,50 @@
         <v>158</v>
       </c>
     </row>
-    <row r="52" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>159</v>
+    <row r="52" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="54" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2804,10 +2827,10 @@
         <v>12</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>31</v>
@@ -2816,7 +2839,7 @@
         <v>8</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2827,10 +2850,10 @@
         <v>12</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>31</v>
@@ -2839,7 +2862,7 @@
         <v>8</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2850,10 +2873,10 @@
         <v>12</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>199</v>
+        <v>117</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>199</v>
+        <v>117</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>31</v>
@@ -2862,7 +2885,7 @@
         <v>8</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>200</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2873,10 +2896,10 @@
         <v>12</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>118</v>
+        <v>202</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>118</v>
+        <v>202</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>31</v>
@@ -2885,7 +2908,7 @@
         <v>8</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>83</v>
+        <v>201</v>
       </c>
     </row>
     <row r="58" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2896,10 +2919,10 @@
         <v>12</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>119</v>
+        <v>199</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>119</v>
+        <v>199</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>31</v>
@@ -2908,10 +2931,7 @@
         <v>8</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>160</v>
+        <v>200</v>
       </c>
     </row>
     <row r="59" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2922,10 +2942,10 @@
         <v>12</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>31</v>
@@ -2934,7 +2954,7 @@
         <v>8</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2945,10 +2965,10 @@
         <v>12</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>31</v>
@@ -2957,7 +2977,10 @@
         <v>8</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="61" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2968,10 +2991,10 @@
         <v>12</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>31</v>
@@ -2980,7 +3003,7 @@
         <v>8</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2991,10 +3014,10 @@
         <v>12</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>31</v>
@@ -3003,7 +3026,7 @@
         <v>8</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="63" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3014,10 +3037,10 @@
         <v>12</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>31</v>
@@ -3026,7 +3049,7 @@
         <v>8</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3037,10 +3060,10 @@
         <v>12</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>31</v>
@@ -3049,7 +3072,7 @@
         <v>8</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
     </row>
     <row r="65" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3060,10 +3083,10 @@
         <v>12</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>31</v>
@@ -3072,10 +3095,7 @@
         <v>8</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="R65" s="3" t="s">
-        <v>160</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3086,10 +3106,10 @@
         <v>12</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>31</v>
@@ -3098,10 +3118,7 @@
         <v>8</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="R66" s="3" t="s">
-        <v>160</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3112,10 +3129,10 @@
         <v>12</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>31</v>
@@ -3124,7 +3141,7 @@
         <v>8</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="R67" s="3" t="s">
         <v>160</v>
@@ -3138,10 +3155,10 @@
         <v>12</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>31</v>
@@ -3150,7 +3167,10 @@
         <v>8</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>32</v>
+        <v>88</v>
+      </c>
+      <c r="R68" s="3" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="69" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3161,10 +3181,10 @@
         <v>12</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>31</v>
@@ -3173,7 +3193,10 @@
         <v>8</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>89</v>
+        <v>43</v>
+      </c>
+      <c r="R69" s="3" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="70" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3184,10 +3207,10 @@
         <v>12</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>31</v>
@@ -3196,7 +3219,7 @@
         <v>8</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3207,10 +3230,10 @@
         <v>12</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>31</v>
@@ -3219,7 +3242,7 @@
         <v>8</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3230,10 +3253,10 @@
         <v>12</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>31</v>
@@ -3242,7 +3265,7 @@
         <v>8</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3253,10 +3276,10 @@
         <v>12</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>31</v>
@@ -3265,7 +3288,7 @@
         <v>8</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3276,10 +3299,10 @@
         <v>12</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>31</v>
@@ -3288,7 +3311,7 @@
         <v>8</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3299,10 +3322,10 @@
         <v>12</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>31</v>
@@ -3311,7 +3334,7 @@
         <v>8</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3322,10 +3345,10 @@
         <v>12</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>262</v>
+        <v>134</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>262</v>
+        <v>134</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>31</v>
@@ -3334,7 +3357,7 @@
         <v>8</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>261</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3345,10 +3368,10 @@
         <v>12</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>31</v>
@@ -3357,7 +3380,7 @@
         <v>8</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
     </row>
     <row r="78" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3368,10 +3391,10 @@
         <v>12</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>203</v>
+        <v>262</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>203</v>
+        <v>262</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>31</v>
@@ -3380,7 +3403,7 @@
         <v>8</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>204</v>
+        <v>261</v>
       </c>
     </row>
     <row r="79" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3391,71 +3414,65 @@
         <v>12</v>
       </c>
       <c r="C79" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="D81" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E79" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I79" s="3" t="s">
+      <c r="E81" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I81" s="3" t="s">
         <v>268</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G80" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I80" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="R80" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="E81" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G81" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I81" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="R81" s="6" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="82" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3466,10 +3483,10 @@
         <v>190</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E82" s="6" t="s">
         <v>31</v>
@@ -3478,10 +3495,10 @@
         <v>8</v>
       </c>
       <c r="I82" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R82" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="83" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3492,10 +3509,10 @@
         <v>190</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E83" s="6" t="s">
         <v>31</v>
@@ -3504,10 +3521,10 @@
         <v>8</v>
       </c>
       <c r="I83" s="6" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="R83" s="6" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
     </row>
     <row r="84" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3518,10 +3535,10 @@
         <v>190</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E84" s="6" t="s">
         <v>31</v>
@@ -3530,10 +3547,10 @@
         <v>8</v>
       </c>
       <c r="I84" s="6" t="s">
-        <v>200</v>
+        <v>82</v>
       </c>
       <c r="R84" s="6" t="s">
-        <v>199</v>
+        <v>117</v>
       </c>
     </row>
     <row r="85" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3544,10 +3561,10 @@
         <v>190</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E85" s="6" t="s">
         <v>31</v>
@@ -3556,10 +3573,10 @@
         <v>8</v>
       </c>
       <c r="I85" s="6" t="s">
-        <v>83</v>
+        <v>201</v>
       </c>
       <c r="R85" s="6" t="s">
-        <v>118</v>
+        <v>202</v>
       </c>
     </row>
     <row r="86" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3570,10 +3587,10 @@
         <v>190</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E86" s="6" t="s">
         <v>31</v>
@@ -3582,10 +3599,10 @@
         <v>8</v>
       </c>
       <c r="I86" s="6" t="s">
-        <v>84</v>
+        <v>200</v>
       </c>
       <c r="R86" s="6" t="s">
-        <v>119</v>
+        <v>199</v>
       </c>
     </row>
     <row r="87" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3596,10 +3613,10 @@
         <v>190</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E87" s="6" t="s">
         <v>31</v>
@@ -3608,10 +3625,10 @@
         <v>8</v>
       </c>
       <c r="I87" s="6" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="R87" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="88" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3622,10 +3639,10 @@
         <v>190</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E88" s="6" t="s">
         <v>31</v>
@@ -3634,10 +3651,10 @@
         <v>8</v>
       </c>
       <c r="I88" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R88" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="89" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3648,10 +3665,10 @@
         <v>190</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E89" s="6" t="s">
         <v>31</v>
@@ -3660,10 +3677,10 @@
         <v>8</v>
       </c>
       <c r="I89" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R89" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="90" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3674,10 +3691,10 @@
         <v>190</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E90" s="6" t="s">
         <v>31</v>
@@ -3686,10 +3703,10 @@
         <v>8</v>
       </c>
       <c r="I90" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R90" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="91" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3700,10 +3717,10 @@
         <v>190</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E91" s="6" t="s">
         <v>31</v>
@@ -3712,10 +3729,10 @@
         <v>8</v>
       </c>
       <c r="I91" s="6" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="R91" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="92" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3726,10 +3743,10 @@
         <v>190</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E92" s="6" t="s">
         <v>31</v>
@@ -3738,10 +3755,10 @@
         <v>8</v>
       </c>
       <c r="I92" s="6" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="R92" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="93" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3752,10 +3769,10 @@
         <v>190</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E93" s="6" t="s">
         <v>31</v>
@@ -3764,10 +3781,10 @@
         <v>8</v>
       </c>
       <c r="I93" s="6" t="s">
-        <v>145</v>
+        <v>87</v>
       </c>
       <c r="R93" s="6" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
     </row>
     <row r="94" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3778,10 +3795,10 @@
         <v>190</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E94" s="6" t="s">
         <v>31</v>
@@ -3790,10 +3807,10 @@
         <v>8</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="R94" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="95" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3804,10 +3821,10 @@
         <v>190</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E95" s="6" t="s">
         <v>31</v>
@@ -3816,10 +3833,10 @@
         <v>8</v>
       </c>
       <c r="I95" s="6" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="R95" s="6" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="96" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3830,10 +3847,10 @@
         <v>190</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E96" s="6" t="s">
         <v>31</v>
@@ -3842,10 +3859,10 @@
         <v>8</v>
       </c>
       <c r="I96" s="6" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="R96" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="97" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3856,10 +3873,10 @@
         <v>190</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E97" s="6" t="s">
         <v>31</v>
@@ -3868,10 +3885,10 @@
         <v>8</v>
       </c>
       <c r="I97" s="6" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="R97" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="98" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3882,10 +3899,10 @@
         <v>190</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E98" s="6" t="s">
         <v>31</v>
@@ -3894,10 +3911,10 @@
         <v>8</v>
       </c>
       <c r="I98" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="R98" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="99" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3908,10 +3925,10 @@
         <v>190</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E99" s="6" t="s">
         <v>31</v>
@@ -3920,10 +3937,10 @@
         <v>8</v>
       </c>
       <c r="I99" s="6" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="R99" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="100" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3934,10 +3951,10 @@
         <v>190</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E100" s="6" t="s">
         <v>31</v>
@@ -3946,10 +3963,10 @@
         <v>8</v>
       </c>
       <c r="I100" s="6" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="R100" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="101" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3960,10 +3977,10 @@
         <v>190</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E101" s="6" t="s">
         <v>31</v>
@@ -3972,10 +3989,10 @@
         <v>8</v>
       </c>
       <c r="I101" s="6" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="R101" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="102" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3986,10 +4003,10 @@
         <v>190</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E102" s="6" t="s">
         <v>31</v>
@@ -3998,10 +4015,10 @@
         <v>8</v>
       </c>
       <c r="I102" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="R102" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="103" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -4012,10 +4029,10 @@
         <v>190</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E103" s="6" t="s">
         <v>31</v>
@@ -4024,10 +4041,10 @@
         <v>8</v>
       </c>
       <c r="I103" s="6" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="R103" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="104" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -4038,10 +4055,10 @@
         <v>190</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>266</v>
+        <v>226</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>266</v>
+        <v>226</v>
       </c>
       <c r="E104" s="6" t="s">
         <v>31</v>
@@ -4050,10 +4067,10 @@
         <v>8</v>
       </c>
       <c r="I104" s="6" t="s">
-        <v>261</v>
+        <v>92</v>
       </c>
       <c r="R104" s="6" t="s">
-        <v>262</v>
+        <v>134</v>
       </c>
     </row>
     <row r="105" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -4064,10 +4081,10 @@
         <v>190</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E105" s="6" t="s">
         <v>31</v>
@@ -4076,10 +4093,10 @@
         <v>8</v>
       </c>
       <c r="I105" s="6" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="R105" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="106" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -4090,10 +4107,10 @@
         <v>190</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="E106" s="6" t="s">
         <v>31</v>
@@ -4102,10 +4119,10 @@
         <v>8</v>
       </c>
       <c r="I106" s="6" t="s">
-        <v>204</v>
+        <v>261</v>
       </c>
       <c r="R106" s="6" t="s">
-        <v>203</v>
+        <v>262</v>
       </c>
     </row>
     <row r="107" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -4116,74 +4133,74 @@
         <v>190</v>
       </c>
       <c r="C107" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G107" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I107" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="R107" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G108" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I108" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="R108" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C109" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="D107" s="6" t="s">
+      <c r="D109" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="E107" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G107" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I107" s="6" t="s">
+      <c r="E109" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G109" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I109" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="R107" s="6" t="s">
+      <c r="R109" s="6" t="s">
         <v>269</v>
-      </c>
-    </row>
-    <row r="108" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G108" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I108" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="R108" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="109" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G109" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I109" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="R109" s="3" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="110" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4194,10 +4211,10 @@
         <v>12</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>31</v>
@@ -4206,10 +4223,10 @@
         <v>8</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R110" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="111" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4220,10 +4237,10 @@
         <v>12</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>31</v>
@@ -4232,10 +4249,10 @@
         <v>8</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="R111" s="3" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
     </row>
     <row r="112" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4246,10 +4263,10 @@
         <v>12</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>31</v>
@@ -4258,10 +4275,10 @@
         <v>8</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>200</v>
+        <v>82</v>
       </c>
       <c r="R112" s="3" t="s">
-        <v>199</v>
+        <v>117</v>
       </c>
     </row>
     <row r="113" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4272,10 +4289,10 @@
         <v>12</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>31</v>
@@ -4284,10 +4301,10 @@
         <v>8</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>83</v>
+        <v>201</v>
       </c>
       <c r="R113" s="3" t="s">
-        <v>118</v>
+        <v>202</v>
       </c>
     </row>
     <row r="114" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4298,10 +4315,10 @@
         <v>12</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>31</v>
@@ -4310,10 +4327,10 @@
         <v>8</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>84</v>
+        <v>200</v>
       </c>
       <c r="R114" s="3" t="s">
-        <v>119</v>
+        <v>199</v>
       </c>
     </row>
     <row r="115" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4324,10 +4341,10 @@
         <v>12</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>31</v>
@@ -4336,10 +4353,10 @@
         <v>8</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="R115" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="116" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4350,10 +4367,10 @@
         <v>12</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>31</v>
@@ -4362,10 +4379,10 @@
         <v>8</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R116" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="117" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4376,10 +4393,10 @@
         <v>12</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>31</v>
@@ -4388,10 +4405,10 @@
         <v>8</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R117" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="118" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4402,10 +4419,10 @@
         <v>12</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>31</v>
@@ -4414,10 +4431,10 @@
         <v>8</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R118" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="119" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4428,10 +4445,10 @@
         <v>12</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>31</v>
@@ -4440,10 +4457,10 @@
         <v>8</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="R119" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="120" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4454,10 +4471,10 @@
         <v>12</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E120" s="3" t="s">
         <v>31</v>
@@ -4466,10 +4483,10 @@
         <v>8</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="R120" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="121" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4480,10 +4497,10 @@
         <v>12</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>31</v>
@@ -4492,10 +4509,10 @@
         <v>8</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>145</v>
+        <v>87</v>
       </c>
       <c r="R121" s="3" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
     </row>
     <row r="122" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4506,10 +4523,10 @@
         <v>12</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>31</v>
@@ -4518,10 +4535,10 @@
         <v>8</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="R122" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="123" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4532,10 +4549,10 @@
         <v>12</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E123" s="3" t="s">
         <v>31</v>
@@ -4544,10 +4561,10 @@
         <v>8</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="R123" s="3" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="124" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4558,10 +4575,10 @@
         <v>12</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E124" s="3" t="s">
         <v>31</v>
@@ -4570,10 +4587,10 @@
         <v>8</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="R124" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="125" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4584,10 +4601,10 @@
         <v>12</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E125" s="3" t="s">
         <v>31</v>
@@ -4596,10 +4613,10 @@
         <v>8</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="R125" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="126" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4610,10 +4627,10 @@
         <v>12</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E126" s="3" t="s">
         <v>31</v>
@@ -4622,10 +4639,10 @@
         <v>8</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="R126" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="127" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4636,10 +4653,10 @@
         <v>12</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E127" s="3" t="s">
         <v>31</v>
@@ -4648,10 +4665,10 @@
         <v>8</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="R127" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="128" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4662,10 +4679,10 @@
         <v>12</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E128" s="3" t="s">
         <v>31</v>
@@ -4674,10 +4691,10 @@
         <v>8</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="R128" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="129" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4688,10 +4705,10 @@
         <v>12</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E129" s="3" t="s">
         <v>31</v>
@@ -4700,10 +4717,10 @@
         <v>8</v>
       </c>
       <c r="I129" s="3" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="R129" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="130" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4714,10 +4731,10 @@
         <v>12</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E130" s="3" t="s">
         <v>31</v>
@@ -4726,10 +4743,10 @@
         <v>8</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="R130" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="131" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4740,10 +4757,10 @@
         <v>12</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E131" s="3" t="s">
         <v>31</v>
@@ -4752,10 +4769,10 @@
         <v>8</v>
       </c>
       <c r="I131" s="3" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="R131" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="132" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4766,10 +4783,10 @@
         <v>12</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="E132" s="3" t="s">
         <v>31</v>
@@ -4778,10 +4795,10 @@
         <v>8</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>261</v>
+        <v>92</v>
       </c>
       <c r="R132" s="3" t="s">
-        <v>262</v>
+        <v>134</v>
       </c>
     </row>
     <row r="133" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4792,10 +4809,10 @@
         <v>12</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E133" s="3" t="s">
         <v>31</v>
@@ -4804,10 +4821,10 @@
         <v>8</v>
       </c>
       <c r="I133" s="3" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="R133" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="134" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4818,10 +4835,10 @@
         <v>12</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="E134" s="3" t="s">
         <v>31</v>
@@ -4830,10 +4847,10 @@
         <v>8</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>204</v>
+        <v>261</v>
       </c>
       <c r="R134" s="3" t="s">
-        <v>203</v>
+        <v>262</v>
       </c>
     </row>
     <row r="135" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4844,62 +4861,74 @@
         <v>12</v>
       </c>
       <c r="C135" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I135" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="R135" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I136" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="R136" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C137" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="D135" s="3" t="s">
+      <c r="D137" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="E135" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G135" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I135" s="3" t="s">
+      <c r="E137" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I137" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="R135" s="3" t="s">
+      <c r="R137" s="3" t="s">
         <v>269</v>
-      </c>
-    </row>
-    <row r="136" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B136" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C136" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D136" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E136" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G136" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="137" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B137" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C137" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D137" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="E137" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G137" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="138" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -4910,10 +4939,10 @@
         <v>12</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E138" s="4" t="s">
         <v>36</v>
@@ -4930,10 +4959,10 @@
         <v>12</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E139" s="4" t="s">
         <v>36</v>
@@ -4950,13 +4979,13 @@
         <v>12</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G140" s="4" t="s">
         <v>8</v>
@@ -4970,13 +4999,13 @@
         <v>12</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G141" s="4" t="s">
         <v>8</v>
@@ -4990,10 +5019,10 @@
         <v>12</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E142" s="4" t="s">
         <v>37</v>
@@ -5010,10 +5039,10 @@
         <v>12</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E143" s="4" t="s">
         <v>37</v>
@@ -5022,101 +5051,146 @@
         <v>8</v>
       </c>
     </row>
+    <row r="144" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G144" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G145" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:T143" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <conditionalFormatting sqref="J52:P52 J54:P55 J57:P64 J14:P18 J66:P75 J82:P83 J85:P92 J94:P103 J110:P111 J113:P120 J1:P1 J3:P11 J122:P131 J77:P80 J105:P108 J133:P1048576">
-    <cfRule type="expression" dxfId="18" priority="32">
+  <autoFilter ref="A1:T145" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <conditionalFormatting sqref="J54:P54 J56:P57 J59:P66 J14:P18 J68:P77 J84:P85 J87:P94 J96:P105 J112:P113 J115:P122 J1:P1 J3:P11 J124:P133 J79:P82 J107:P110 J135:P1048576">
+    <cfRule type="expression" dxfId="19" priority="33">
       <formula>IF(OR($B1="O365Group",$B1="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:P13">
-    <cfRule type="expression" dxfId="17" priority="31">
+    <cfRule type="expression" dxfId="18" priority="32">
       <formula>IF(OR($B12="O365Group",$B12="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J65:P65">
-    <cfRule type="expression" dxfId="16" priority="25">
-      <formula>IF(OR($B65="O365Group",$B65="Type"),faslch,TRUE)</formula>
+  <conditionalFormatting sqref="J67:P67">
+    <cfRule type="expression" dxfId="17" priority="26">
+      <formula>IF(OR($B67="O365Group",$B67="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J50:P51">
-    <cfRule type="expression" dxfId="15" priority="24">
+    <cfRule type="expression" dxfId="16" priority="25">
       <formula>IF(OR($B50="O365Group",$B50="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J53:P53">
-    <cfRule type="expression" dxfId="14" priority="22">
-      <formula>IF(OR($B53="O365Group",$B53="Type"),faslch,TRUE)</formula>
+  <conditionalFormatting sqref="J55:P55">
+    <cfRule type="expression" dxfId="15" priority="23">
+      <formula>IF(OR($B55="O365Group",$B55="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J56:P56">
-    <cfRule type="expression" dxfId="13" priority="21">
-      <formula>IF(OR($B56="O365Group",$B56="Type"),faslch,TRUE)</formula>
+  <conditionalFormatting sqref="J58:P58">
+    <cfRule type="expression" dxfId="14" priority="22">
+      <formula>IF(OR($B58="O365Group",$B58="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19:P19">
-    <cfRule type="expression" dxfId="12" priority="20">
+    <cfRule type="expression" dxfId="13" priority="21">
       <formula>IF(OR($B19="O365Group",$B19="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J49:P49">
-    <cfRule type="expression" dxfId="11" priority="16">
+    <cfRule type="expression" dxfId="12" priority="17">
       <formula>IF(OR($B49="O365Group",$B49="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J93:P93">
-    <cfRule type="expression" dxfId="10" priority="13">
-      <formula>IF(OR($B93="O365Group",$B93="Type"),faslch,TRUE)</formula>
+  <conditionalFormatting sqref="J95:P95">
+    <cfRule type="expression" dxfId="11" priority="14">
+      <formula>IF(OR($B95="O365Group",$B95="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J81:P81">
-    <cfRule type="expression" dxfId="9" priority="12">
-      <formula>IF(OR($B81="O365Group",$B81="Type"),faslch,TRUE)</formula>
+  <conditionalFormatting sqref="J83:P83">
+    <cfRule type="expression" dxfId="10" priority="13">
+      <formula>IF(OR($B83="O365Group",$B83="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J84:P84">
-    <cfRule type="expression" dxfId="8" priority="11">
-      <formula>IF(OR($B84="O365Group",$B84="Type"),faslch,TRUE)</formula>
+  <conditionalFormatting sqref="J86:P86">
+    <cfRule type="expression" dxfId="9" priority="12">
+      <formula>IF(OR($B86="O365Group",$B86="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J121:P121">
-    <cfRule type="expression" dxfId="7" priority="10">
-      <formula>IF(OR($B121="O365Group",$B121="Type"),faslch,TRUE)</formula>
+  <conditionalFormatting sqref="J123:P123">
+    <cfRule type="expression" dxfId="8" priority="11">
+      <formula>IF(OR($B123="O365Group",$B123="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J109:P109">
-    <cfRule type="expression" dxfId="6" priority="9">
-      <formula>IF(OR($B109="O365Group",$B109="Type"),faslch,TRUE)</formula>
+  <conditionalFormatting sqref="J111:P111">
+    <cfRule type="expression" dxfId="7" priority="10">
+      <formula>IF(OR($B111="O365Group",$B111="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J112:P112">
-    <cfRule type="expression" dxfId="5" priority="8">
-      <formula>IF(OR($B112="O365Group",$B112="Type"),faslch,TRUE)</formula>
+  <conditionalFormatting sqref="J114:P114">
+    <cfRule type="expression" dxfId="6" priority="9">
+      <formula>IF(OR($B114="O365Group",$B114="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J76:P76">
-    <cfRule type="expression" dxfId="4" priority="7">
-      <formula>IF(OR($B76="O365Group",$B76="Type"),faslch,TRUE)</formula>
+  <conditionalFormatting sqref="J78:P78">
+    <cfRule type="expression" dxfId="5" priority="8">
+      <formula>IF(OR($B78="O365Group",$B78="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:P2">
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="4" priority="7">
       <formula>IF(OR($B2="O365Group",$B2="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J104:P104">
-    <cfRule type="expression" dxfId="2" priority="4">
-      <formula>IF(OR($B104="O365Group",$B104="Type"),faslch,TRUE)</formula>
+  <conditionalFormatting sqref="J106:P106">
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>IF(OR($B106="O365Group",$B106="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J132:P132">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>IF(OR($B132="O365Group",$B132="Type"),faslch,TRUE)</formula>
+  <conditionalFormatting sqref="J134:P134">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>IF(OR($B134="O365Group",$B134="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20:P48">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>IF(OR($B20="O365Group",$B20="Type"),faslch,TRUE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J52:P53">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>IF(OR($B20="O365Group",$B20="Type"),faslch,TRUE)</formula>
+      <formula>IF(OR($B52="O365Group",$B52="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -5313,18 +5387,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5346,6 +5420,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB80E815-258B-4085-B06C-0327483055A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18209EA7-04F6-445D-8F30-F19FC7D76916}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -5359,12 +5441,4 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB80E815-258B-4085-B06C-0327483055A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/aad/Gruppen.xlsx
+++ b/data/aad/Gruppen.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EA7DAE-1315-4CFE-B9A2-78BFA14722FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8AB1311-23B4-409D-80D7-40E308563546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2484" yWindow="1176" windowWidth="33540" windowHeight="13680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="30804" windowHeight="11208" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gruppen" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Gruppen!$A$1:$T$145</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Gruppen!$A$1:$T$146</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="280">
   <si>
     <t>Type</t>
   </si>
@@ -862,6 +862,12 @@
   </si>
   <si>
     <t>ALYASG-DEV-WIN365MDM11</t>
+  </si>
+  <si>
+    <t>ALYASG-ADM-SERVICEACCOUNTS</t>
+  </si>
+  <si>
+    <t>Disables several things for service accounts (MFA, password reset, …)</t>
   </si>
 </sst>
 </file>
@@ -951,133 +957,7 @@
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -1111,13 +991,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>699246</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>116542</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1694329</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>53788</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1472,7 +1352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T145"/>
+  <dimension ref="A1:T146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -1895,49 +1775,25 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>169</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>167</v>
+        <v>278</v>
       </c>
       <c r="D17" t="s">
-        <v>167</v>
+        <v>278</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" t="s">
-        <v>167</v>
+        <v>279</v>
       </c>
       <c r="G17" t="s">
         <v>8</v>
       </c>
-      <c r="H17" t="s">
-        <v>46</v>
-      </c>
-      <c r="J17" t="b">
-        <v>1</v>
-      </c>
-      <c r="K17" t="b">
-        <v>1</v>
-      </c>
-      <c r="L17" t="b">
-        <v>1</v>
-      </c>
-      <c r="M17" t="b">
-        <v>0</v>
-      </c>
-      <c r="N17" t="b">
-        <v>0</v>
-      </c>
-      <c r="O17" t="b">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>1</v>
+      <c r="R17" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
@@ -1948,22 +1804,22 @@
         <v>169</v>
       </c>
       <c r="C18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G18" t="s">
         <v>8</v>
       </c>
       <c r="H18" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="J18" t="b">
         <v>1</v>
@@ -1989,28 +1845,28 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
         <v>169</v>
       </c>
       <c r="C19" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D19" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E19" t="s">
-        <v>174</v>
+        <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G19" t="s">
         <v>8</v>
       </c>
       <c r="H19" t="s">
-        <v>170</v>
+        <v>11</v>
       </c>
       <c r="J19" t="b">
         <v>1</v>
@@ -2033,34 +1889,58 @@
       <c r="P19" t="b">
         <v>1</v>
       </c>
-      <c r="S19" t="s">
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>169</v>
+      </c>
+      <c r="C20" t="s">
+        <v>173</v>
+      </c>
+      <c r="D20" t="s">
+        <v>173</v>
+      </c>
+      <c r="E20" t="s">
+        <v>174</v>
+      </c>
+      <c r="F20" t="s">
+        <v>173</v>
+      </c>
+      <c r="G20" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" t="s">
+        <v>170</v>
+      </c>
+      <c r="J20" t="b">
+        <v>1</v>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" t="b">
+        <v>1</v>
+      </c>
+      <c r="M20" t="b">
+        <v>0</v>
+      </c>
+      <c r="N20" t="b">
+        <v>0</v>
+      </c>
+      <c r="O20" t="b">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>1</v>
+      </c>
+      <c r="S20" t="s">
         <v>171</v>
       </c>
-      <c r="T19" s="5" t="s">
+      <c r="T20" s="5" t="s">
         <v>172</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q20" s="2" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2071,10 +1951,10 @@
         <v>12</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>198</v>
+        <v>94</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>198</v>
+        <v>94</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>175</v>
@@ -2091,13 +1971,13 @@
         <v>23</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>190</v>
+        <v>12</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>175</v>
@@ -2105,28 +1985,28 @@
       <c r="G22" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="Q22" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>95</v>
+        <v>197</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>95</v>
+        <v>197</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>25</v>
+        <v>175</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2137,19 +2017,19 @@
         <v>12</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>186</v>
+        <v>95</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>186</v>
+        <v>95</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>178</v>
+        <v>25</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>179</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2160,19 +2040,19 @@
         <v>12</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2183,19 +2063,19 @@
         <v>12</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>96</v>
+        <v>187</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>96</v>
+        <v>187</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>27</v>
+        <v>180</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>28</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2206,19 +2086,19 @@
         <v>12</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2229,19 +2109,19 @@
         <v>12</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2252,19 +2132,19 @@
         <v>12</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2275,19 +2155,19 @@
         <v>12</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2298,19 +2178,19 @@
         <v>12</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2321,19 +2201,19 @@
         <v>12</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2344,19 +2224,19 @@
         <v>12</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2367,19 +2247,19 @@
         <v>12</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2390,19 +2270,19 @@
         <v>12</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2413,19 +2293,19 @@
         <v>12</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2436,19 +2316,19 @@
         <v>12</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2459,19 +2339,19 @@
         <v>12</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2482,19 +2362,19 @@
         <v>12</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2505,19 +2385,19 @@
         <v>12</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2528,19 +2408,19 @@
         <v>12</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2551,19 +2431,19 @@
         <v>12</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2574,19 +2454,19 @@
         <v>12</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2597,19 +2477,19 @@
         <v>12</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2620,19 +2500,19 @@
         <v>12</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2643,19 +2523,19 @@
         <v>12</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>162</v>
+        <v>115</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>162</v>
+        <v>115</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>152</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2666,19 +2546,19 @@
         <v>12</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2689,19 +2569,19 @@
         <v>12</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
     </row>
     <row r="49" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2712,19 +2592,19 @@
         <v>12</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="50" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2735,19 +2615,19 @@
         <v>12</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
     </row>
     <row r="51" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2758,19 +2638,19 @@
         <v>12</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="52" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2781,19 +2661,19 @@
         <v>12</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>276</v>
+        <v>165</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>276</v>
+        <v>165</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>272</v>
+        <v>157</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>273</v>
+        <v>158</v>
       </c>
     </row>
     <row r="53" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2804,42 +2684,42 @@
         <v>12</v>
       </c>
       <c r="C53" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D54" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="E54" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="G53" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H53" s="2" t="s">
+      <c r="G54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H54" s="2" t="s">
         <v>275</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="55" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2850,10 +2730,10 @@
         <v>12</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>166</v>
+        <v>116</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>166</v>
+        <v>116</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>31</v>
@@ -2862,7 +2742,7 @@
         <v>8</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>159</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2873,10 +2753,10 @@
         <v>12</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>117</v>
+        <v>166</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>117</v>
+        <v>166</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>31</v>
@@ -2885,7 +2765,7 @@
         <v>8</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>82</v>
+        <v>159</v>
       </c>
     </row>
     <row r="57" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2896,10 +2776,10 @@
         <v>12</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>202</v>
+        <v>117</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>202</v>
+        <v>117</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>31</v>
@@ -2908,7 +2788,7 @@
         <v>8</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>201</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2919,10 +2799,10 @@
         <v>12</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>31</v>
@@ -2931,7 +2811,7 @@
         <v>8</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="59" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2942,10 +2822,10 @@
         <v>12</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>118</v>
+        <v>199</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>118</v>
+        <v>199</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>31</v>
@@ -2954,7 +2834,7 @@
         <v>8</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>83</v>
+        <v>200</v>
       </c>
     </row>
     <row r="60" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2965,10 +2845,10 @@
         <v>12</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>31</v>
@@ -2977,10 +2857,7 @@
         <v>8</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="R60" s="3" t="s">
-        <v>160</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2991,10 +2868,10 @@
         <v>12</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>31</v>
@@ -3003,7 +2880,10 @@
         <v>8</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>33</v>
+        <v>84</v>
+      </c>
+      <c r="R61" s="3" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="62" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3014,10 +2894,10 @@
         <v>12</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>31</v>
@@ -3026,7 +2906,7 @@
         <v>8</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3037,10 +2917,10 @@
         <v>12</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>31</v>
@@ -3049,7 +2929,7 @@
         <v>8</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
     </row>
     <row r="64" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3060,10 +2940,10 @@
         <v>12</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>31</v>
@@ -3072,7 +2952,7 @@
         <v>8</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3083,10 +2963,10 @@
         <v>12</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>31</v>
@@ -3095,7 +2975,7 @@
         <v>8</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3106,10 +2986,10 @@
         <v>12</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>31</v>
@@ -3118,7 +2998,7 @@
         <v>8</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3129,10 +3009,10 @@
         <v>12</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>31</v>
@@ -3141,10 +3021,7 @@
         <v>8</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="R67" s="3" t="s">
-        <v>160</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3155,10 +3032,10 @@
         <v>12</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>31</v>
@@ -3167,7 +3044,7 @@
         <v>8</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>88</v>
+        <v>145</v>
       </c>
       <c r="R68" s="3" t="s">
         <v>160</v>
@@ -3181,10 +3058,10 @@
         <v>12</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>31</v>
@@ -3193,7 +3070,7 @@
         <v>8</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="R69" s="3" t="s">
         <v>160</v>
@@ -3207,10 +3084,10 @@
         <v>12</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>31</v>
@@ -3219,7 +3096,10 @@
         <v>8</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>32</v>
+        <v>43</v>
+      </c>
+      <c r="R70" s="3" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="71" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3230,10 +3110,10 @@
         <v>12</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>31</v>
@@ -3242,7 +3122,7 @@
         <v>8</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3253,10 +3133,10 @@
         <v>12</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>31</v>
@@ -3265,7 +3145,7 @@
         <v>8</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3276,10 +3156,10 @@
         <v>12</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>31</v>
@@ -3288,7 +3168,7 @@
         <v>8</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3299,10 +3179,10 @@
         <v>12</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>31</v>
@@ -3311,7 +3191,7 @@
         <v>8</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
     </row>
     <row r="75" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3322,10 +3202,10 @@
         <v>12</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>31</v>
@@ -3334,7 +3214,7 @@
         <v>8</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3345,10 +3225,10 @@
         <v>12</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>31</v>
@@ -3357,7 +3237,7 @@
         <v>8</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3368,10 +3248,10 @@
         <v>12</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>31</v>
@@ -3380,7 +3260,7 @@
         <v>8</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3391,10 +3271,10 @@
         <v>12</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>262</v>
+        <v>135</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>262</v>
+        <v>135</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>31</v>
@@ -3403,7 +3283,7 @@
         <v>8</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>261</v>
+        <v>44</v>
       </c>
     </row>
     <row r="79" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3414,10 +3294,10 @@
         <v>12</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>136</v>
+        <v>262</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>136</v>
+        <v>262</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>31</v>
@@ -3426,7 +3306,7 @@
         <v>8</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>93</v>
+        <v>261</v>
       </c>
     </row>
     <row r="80" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3437,10 +3317,10 @@
         <v>12</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>203</v>
+        <v>136</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>203</v>
+        <v>136</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>31</v>
@@ -3449,7 +3329,7 @@
         <v>8</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>204</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3460,7 +3340,7 @@
         <v>12</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>269</v>
+        <v>203</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>203</v>
@@ -3472,33 +3352,30 @@
         <v>8</v>
       </c>
       <c r="I81" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I82" s="3" t="s">
         <v>268</v>
-      </c>
-    </row>
-    <row r="82" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="E82" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G82" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I82" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="R82" s="6" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="83" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3509,10 +3386,10 @@
         <v>190</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E83" s="6" t="s">
         <v>31</v>
@@ -3521,10 +3398,10 @@
         <v>8</v>
       </c>
       <c r="I83" s="6" t="s">
-        <v>159</v>
+        <v>81</v>
       </c>
       <c r="R83" s="6" t="s">
-        <v>166</v>
+        <v>116</v>
       </c>
     </row>
     <row r="84" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3535,10 +3412,10 @@
         <v>190</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E84" s="6" t="s">
         <v>31</v>
@@ -3547,10 +3424,10 @@
         <v>8</v>
       </c>
       <c r="I84" s="6" t="s">
-        <v>82</v>
+        <v>159</v>
       </c>
       <c r="R84" s="6" t="s">
-        <v>117</v>
+        <v>166</v>
       </c>
     </row>
     <row r="85" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3561,10 +3438,10 @@
         <v>190</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E85" s="6" t="s">
         <v>31</v>
@@ -3573,10 +3450,10 @@
         <v>8</v>
       </c>
       <c r="I85" s="6" t="s">
-        <v>201</v>
+        <v>82</v>
       </c>
       <c r="R85" s="6" t="s">
-        <v>202</v>
+        <v>117</v>
       </c>
     </row>
     <row r="86" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3587,10 +3464,10 @@
         <v>190</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E86" s="6" t="s">
         <v>31</v>
@@ -3599,10 +3476,10 @@
         <v>8</v>
       </c>
       <c r="I86" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="R86" s="6" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="87" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3613,10 +3490,10 @@
         <v>190</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E87" s="6" t="s">
         <v>31</v>
@@ -3625,10 +3502,10 @@
         <v>8</v>
       </c>
       <c r="I87" s="6" t="s">
-        <v>83</v>
+        <v>200</v>
       </c>
       <c r="R87" s="6" t="s">
-        <v>118</v>
+        <v>199</v>
       </c>
     </row>
     <row r="88" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3639,10 +3516,10 @@
         <v>190</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E88" s="6" t="s">
         <v>31</v>
@@ -3651,10 +3528,10 @@
         <v>8</v>
       </c>
       <c r="I88" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R88" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="89" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3665,10 +3542,10 @@
         <v>190</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E89" s="6" t="s">
         <v>31</v>
@@ -3677,10 +3554,10 @@
         <v>8</v>
       </c>
       <c r="I89" s="6" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="R89" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="90" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3691,10 +3568,10 @@
         <v>190</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E90" s="6" t="s">
         <v>31</v>
@@ -3703,10 +3580,10 @@
         <v>8</v>
       </c>
       <c r="I90" s="6" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="R90" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="91" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3717,10 +3594,10 @@
         <v>190</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E91" s="6" t="s">
         <v>31</v>
@@ -3729,10 +3606,10 @@
         <v>8</v>
       </c>
       <c r="I91" s="6" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="R91" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="92" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3743,10 +3620,10 @@
         <v>190</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E92" s="6" t="s">
         <v>31</v>
@@ -3755,10 +3632,10 @@
         <v>8</v>
       </c>
       <c r="I92" s="6" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="R92" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="93" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3769,10 +3646,10 @@
         <v>190</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E93" s="6" t="s">
         <v>31</v>
@@ -3781,10 +3658,10 @@
         <v>8</v>
       </c>
       <c r="I93" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R93" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="94" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3795,10 +3672,10 @@
         <v>190</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E94" s="6" t="s">
         <v>31</v>
@@ -3807,10 +3684,10 @@
         <v>8</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="R94" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="95" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3821,10 +3698,10 @@
         <v>190</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E95" s="6" t="s">
         <v>31</v>
@@ -3833,10 +3710,10 @@
         <v>8</v>
       </c>
       <c r="I95" s="6" t="s">
-        <v>145</v>
+        <v>42</v>
       </c>
       <c r="R95" s="6" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
     </row>
     <row r="96" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3847,10 +3724,10 @@
         <v>190</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E96" s="6" t="s">
         <v>31</v>
@@ -3859,10 +3736,10 @@
         <v>8</v>
       </c>
       <c r="I96" s="6" t="s">
-        <v>88</v>
+        <v>145</v>
       </c>
       <c r="R96" s="6" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
     </row>
     <row r="97" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3873,10 +3750,10 @@
         <v>190</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E97" s="6" t="s">
         <v>31</v>
@@ -3885,10 +3762,10 @@
         <v>8</v>
       </c>
       <c r="I97" s="6" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="R97" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="98" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3899,10 +3776,10 @@
         <v>190</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E98" s="6" t="s">
         <v>31</v>
@@ -3911,10 +3788,10 @@
         <v>8</v>
       </c>
       <c r="I98" s="6" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="R98" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="99" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3925,10 +3802,10 @@
         <v>190</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E99" s="6" t="s">
         <v>31</v>
@@ -3937,10 +3814,10 @@
         <v>8</v>
       </c>
       <c r="I99" s="6" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="R99" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="100" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3951,10 +3828,10 @@
         <v>190</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E100" s="6" t="s">
         <v>31</v>
@@ -3963,10 +3840,10 @@
         <v>8</v>
       </c>
       <c r="I100" s="6" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="R100" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="101" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3977,10 +3854,10 @@
         <v>190</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E101" s="6" t="s">
         <v>31</v>
@@ -3989,10 +3866,10 @@
         <v>8</v>
       </c>
       <c r="I101" s="6" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="R101" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="102" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -4003,10 +3880,10 @@
         <v>190</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E102" s="6" t="s">
         <v>31</v>
@@ -4015,10 +3892,10 @@
         <v>8</v>
       </c>
       <c r="I102" s="6" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="R102" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="103" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -4029,10 +3906,10 @@
         <v>190</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E103" s="6" t="s">
         <v>31</v>
@@ -4041,10 +3918,10 @@
         <v>8</v>
       </c>
       <c r="I103" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R103" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="104" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -4055,10 +3932,10 @@
         <v>190</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E104" s="6" t="s">
         <v>31</v>
@@ -4067,10 +3944,10 @@
         <v>8</v>
       </c>
       <c r="I104" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R104" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="105" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -4081,10 +3958,10 @@
         <v>190</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E105" s="6" t="s">
         <v>31</v>
@@ -4093,10 +3970,10 @@
         <v>8</v>
       </c>
       <c r="I105" s="6" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="R105" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="106" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -4107,10 +3984,10 @@
         <v>190</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>266</v>
+        <v>228</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>266</v>
+        <v>228</v>
       </c>
       <c r="E106" s="6" t="s">
         <v>31</v>
@@ -4119,10 +3996,10 @@
         <v>8</v>
       </c>
       <c r="I106" s="6" t="s">
-        <v>261</v>
+        <v>44</v>
       </c>
       <c r="R106" s="6" t="s">
-        <v>262</v>
+        <v>135</v>
       </c>
     </row>
     <row r="107" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -4133,10 +4010,10 @@
         <v>190</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>229</v>
+        <v>266</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>229</v>
+        <v>266</v>
       </c>
       <c r="E107" s="6" t="s">
         <v>31</v>
@@ -4145,10 +4022,10 @@
         <v>8</v>
       </c>
       <c r="I107" s="6" t="s">
-        <v>93</v>
+        <v>261</v>
       </c>
       <c r="R107" s="6" t="s">
-        <v>136</v>
+        <v>262</v>
       </c>
     </row>
     <row r="108" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -4159,10 +4036,10 @@
         <v>190</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E108" s="6" t="s">
         <v>31</v>
@@ -4171,10 +4048,10 @@
         <v>8</v>
       </c>
       <c r="I108" s="6" t="s">
-        <v>204</v>
+        <v>93</v>
       </c>
       <c r="R108" s="6" t="s">
-        <v>203</v>
+        <v>136</v>
       </c>
     </row>
     <row r="109" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -4185,7 +4062,7 @@
         <v>190</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="D109" s="6" t="s">
         <v>230</v>
@@ -4197,36 +4074,36 @@
         <v>8</v>
       </c>
       <c r="I109" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="R109" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E110" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G110" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I110" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="R109" s="6" t="s">
+      <c r="R110" s="6" t="s">
         <v>269</v>
-      </c>
-    </row>
-    <row r="110" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G110" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I110" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="R110" s="3" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="111" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4237,10 +4114,10 @@
         <v>12</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>31</v>
@@ -4249,10 +4126,10 @@
         <v>8</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>159</v>
+        <v>81</v>
       </c>
       <c r="R111" s="3" t="s">
-        <v>166</v>
+        <v>116</v>
       </c>
     </row>
     <row r="112" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4263,10 +4140,10 @@
         <v>12</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>31</v>
@@ -4275,10 +4152,10 @@
         <v>8</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>82</v>
+        <v>159</v>
       </c>
       <c r="R112" s="3" t="s">
-        <v>117</v>
+        <v>166</v>
       </c>
     </row>
     <row r="113" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4289,10 +4166,10 @@
         <v>12</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>31</v>
@@ -4301,10 +4178,10 @@
         <v>8</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>201</v>
+        <v>82</v>
       </c>
       <c r="R113" s="3" t="s">
-        <v>202</v>
+        <v>117</v>
       </c>
     </row>
     <row r="114" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4315,10 +4192,10 @@
         <v>12</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>31</v>
@@ -4327,10 +4204,10 @@
         <v>8</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="R114" s="3" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="115" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4341,10 +4218,10 @@
         <v>12</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>31</v>
@@ -4353,10 +4230,10 @@
         <v>8</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>83</v>
+        <v>200</v>
       </c>
       <c r="R115" s="3" t="s">
-        <v>118</v>
+        <v>199</v>
       </c>
     </row>
     <row r="116" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4367,10 +4244,10 @@
         <v>12</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>31</v>
@@ -4379,10 +4256,10 @@
         <v>8</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R116" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="117" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4393,10 +4270,10 @@
         <v>12</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>31</v>
@@ -4405,10 +4282,10 @@
         <v>8</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="R117" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="118" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4419,10 +4296,10 @@
         <v>12</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>31</v>
@@ -4431,10 +4308,10 @@
         <v>8</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="R118" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="119" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4445,10 +4322,10 @@
         <v>12</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>31</v>
@@ -4457,10 +4334,10 @@
         <v>8</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="R119" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="120" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4471,10 +4348,10 @@
         <v>12</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E120" s="3" t="s">
         <v>31</v>
@@ -4483,10 +4360,10 @@
         <v>8</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="R120" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="121" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4497,10 +4374,10 @@
         <v>12</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>31</v>
@@ -4509,10 +4386,10 @@
         <v>8</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R121" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="122" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4523,10 +4400,10 @@
         <v>12</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>31</v>
@@ -4535,10 +4412,10 @@
         <v>8</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="R122" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="123" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4549,10 +4426,10 @@
         <v>12</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E123" s="3" t="s">
         <v>31</v>
@@ -4561,10 +4438,10 @@
         <v>8</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>145</v>
+        <v>42</v>
       </c>
       <c r="R123" s="3" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
     </row>
     <row r="124" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4575,10 +4452,10 @@
         <v>12</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E124" s="3" t="s">
         <v>31</v>
@@ -4587,10 +4464,10 @@
         <v>8</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>88</v>
+        <v>145</v>
       </c>
       <c r="R124" s="3" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
     </row>
     <row r="125" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4601,10 +4478,10 @@
         <v>12</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E125" s="3" t="s">
         <v>31</v>
@@ -4613,10 +4490,10 @@
         <v>8</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="R125" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="126" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4627,10 +4504,10 @@
         <v>12</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E126" s="3" t="s">
         <v>31</v>
@@ -4639,10 +4516,10 @@
         <v>8</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="R126" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="127" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4653,10 +4530,10 @@
         <v>12</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E127" s="3" t="s">
         <v>31</v>
@@ -4665,10 +4542,10 @@
         <v>8</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="R127" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="128" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4679,10 +4556,10 @@
         <v>12</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E128" s="3" t="s">
         <v>31</v>
@@ -4691,10 +4568,10 @@
         <v>8</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="R128" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="129" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4705,10 +4582,10 @@
         <v>12</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E129" s="3" t="s">
         <v>31</v>
@@ -4717,10 +4594,10 @@
         <v>8</v>
       </c>
       <c r="I129" s="3" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="R129" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="130" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4731,10 +4608,10 @@
         <v>12</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E130" s="3" t="s">
         <v>31</v>
@@ -4743,10 +4620,10 @@
         <v>8</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="R130" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="131" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4757,10 +4634,10 @@
         <v>12</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E131" s="3" t="s">
         <v>31</v>
@@ -4769,10 +4646,10 @@
         <v>8</v>
       </c>
       <c r="I131" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R131" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="132" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4783,10 +4660,10 @@
         <v>12</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E132" s="3" t="s">
         <v>31</v>
@@ -4795,10 +4672,10 @@
         <v>8</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R132" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="133" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4809,10 +4686,10 @@
         <v>12</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E133" s="3" t="s">
         <v>31</v>
@@ -4821,10 +4698,10 @@
         <v>8</v>
       </c>
       <c r="I133" s="3" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="R133" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="134" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4835,10 +4712,10 @@
         <v>12</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="E134" s="3" t="s">
         <v>31</v>
@@ -4847,10 +4724,10 @@
         <v>8</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>261</v>
+        <v>44</v>
       </c>
       <c r="R134" s="3" t="s">
-        <v>262</v>
+        <v>135</v>
       </c>
     </row>
     <row r="135" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4861,10 +4738,10 @@
         <v>12</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="E135" s="3" t="s">
         <v>31</v>
@@ -4873,10 +4750,10 @@
         <v>8</v>
       </c>
       <c r="I135" s="3" t="s">
-        <v>93</v>
+        <v>261</v>
       </c>
       <c r="R135" s="3" t="s">
-        <v>136</v>
+        <v>262</v>
       </c>
     </row>
     <row r="136" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4887,10 +4764,10 @@
         <v>12</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E136" s="3" t="s">
         <v>31</v>
@@ -4899,10 +4776,10 @@
         <v>8</v>
       </c>
       <c r="I136" s="3" t="s">
-        <v>204</v>
+        <v>93</v>
       </c>
       <c r="R136" s="3" t="s">
-        <v>203</v>
+        <v>136</v>
       </c>
     </row>
     <row r="137" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4913,7 +4790,7 @@
         <v>12</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="D137" s="3" t="s">
         <v>256</v>
@@ -4925,30 +4802,36 @@
         <v>8</v>
       </c>
       <c r="I137" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="R137" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I138" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="R137" s="3" t="s">
+      <c r="R138" s="3" t="s">
         <v>269</v>
-      </c>
-    </row>
-    <row r="138" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B138" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C138" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D138" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E138" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G138" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="139" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -4959,10 +4842,10 @@
         <v>12</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E139" s="4" t="s">
         <v>36</v>
@@ -4979,10 +4862,10 @@
         <v>12</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E140" s="4" t="s">
         <v>36</v>
@@ -4999,10 +4882,10 @@
         <v>12</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E141" s="4" t="s">
         <v>36</v>
@@ -5019,13 +4902,13 @@
         <v>12</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G142" s="4" t="s">
         <v>8</v>
@@ -5039,10 +4922,10 @@
         <v>12</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E143" s="4" t="s">
         <v>37</v>
@@ -5059,10 +4942,10 @@
         <v>12</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E144" s="4" t="s">
         <v>37</v>
@@ -5079,10 +4962,10 @@
         <v>12</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E145" s="4" t="s">
         <v>37</v>
@@ -5091,110 +4974,40 @@
         <v>8</v>
       </c>
     </row>
+    <row r="146" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G146" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:T145" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <conditionalFormatting sqref="J54:P54 J56:P57 J59:P66 J14:P18 J68:P77 J84:P85 J87:P94 J96:P105 J112:P113 J115:P122 J1:P1 J3:P11 J124:P133 J79:P82 J107:P110 J135:P1048576">
-    <cfRule type="expression" dxfId="19" priority="33">
+  <autoFilter ref="A1:T146" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <conditionalFormatting sqref="J1:P16 J18:P1048576">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>IF(OR($B1="O365Group",$B1="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J12:P13">
-    <cfRule type="expression" dxfId="18" priority="32">
-      <formula>IF(OR($B12="O365Group",$B12="Type"),faslch,TRUE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J67:P67">
-    <cfRule type="expression" dxfId="17" priority="26">
-      <formula>IF(OR($B67="O365Group",$B67="Type"),faslch,TRUE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J50:P51">
-    <cfRule type="expression" dxfId="16" priority="25">
-      <formula>IF(OR($B50="O365Group",$B50="Type"),faslch,TRUE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J55:P55">
-    <cfRule type="expression" dxfId="15" priority="23">
-      <formula>IF(OR($B55="O365Group",$B55="Type"),faslch,TRUE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J58:P58">
-    <cfRule type="expression" dxfId="14" priority="22">
-      <formula>IF(OR($B58="O365Group",$B58="Type"),faslch,TRUE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J19:P19">
-    <cfRule type="expression" dxfId="13" priority="21">
-      <formula>IF(OR($B19="O365Group",$B19="Type"),faslch,TRUE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J49:P49">
-    <cfRule type="expression" dxfId="12" priority="17">
-      <formula>IF(OR($B49="O365Group",$B49="Type"),faslch,TRUE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J95:P95">
-    <cfRule type="expression" dxfId="11" priority="14">
-      <formula>IF(OR($B95="O365Group",$B95="Type"),faslch,TRUE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J83:P83">
-    <cfRule type="expression" dxfId="10" priority="13">
-      <formula>IF(OR($B83="O365Group",$B83="Type"),faslch,TRUE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J86:P86">
-    <cfRule type="expression" dxfId="9" priority="12">
-      <formula>IF(OR($B86="O365Group",$B86="Type"),faslch,TRUE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J123:P123">
-    <cfRule type="expression" dxfId="8" priority="11">
-      <formula>IF(OR($B123="O365Group",$B123="Type"),faslch,TRUE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J111:P111">
-    <cfRule type="expression" dxfId="7" priority="10">
-      <formula>IF(OR($B111="O365Group",$B111="Type"),faslch,TRUE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J114:P114">
-    <cfRule type="expression" dxfId="6" priority="9">
-      <formula>IF(OR($B114="O365Group",$B114="Type"),faslch,TRUE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J78:P78">
-    <cfRule type="expression" dxfId="5" priority="8">
-      <formula>IF(OR($B78="O365Group",$B78="Type"),faslch,TRUE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:P2">
-    <cfRule type="expression" dxfId="4" priority="7">
-      <formula>IF(OR($B2="O365Group",$B2="Type"),faslch,TRUE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J106:P106">
-    <cfRule type="expression" dxfId="3" priority="5">
-      <formula>IF(OR($B106="O365Group",$B106="Type"),faslch,TRUE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J134:P134">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>IF(OR($B134="O365Group",$B134="Type"),faslch,TRUE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J20:P48">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>IF(OR($B20="O365Group",$B20="Type"),faslch,TRUE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J52:P53">
+  <conditionalFormatting sqref="J17:P17">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>IF(OR($B52="O365Group",$B52="Type"),faslch,TRUE)</formula>
+      <formula>IF(OR($B17="O365Group",$B17="Type"),faslch,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="T19" r:id="rId1" xr:uid="{6406F3B4-332F-49FC-A4BF-E9A46FEED504}"/>
+    <hyperlink ref="T20" r:id="rId1" xr:uid="{6406F3B4-332F-49FC-A4BF-E9A46FEED504}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -5387,18 +5200,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5420,14 +5233,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB80E815-258B-4085-B06C-0327483055A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18209EA7-04F6-445D-8F30-F19FC7D76916}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -5441,4 +5246,12 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB80E815-258B-4085-B06C-0327483055A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>